--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H652"/>
+  <dimension ref="A1:H657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18577,6 +18577,156 @@
       <c r="H652" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>367.1666666666667</v>
+      </c>
+      <c r="C653" t="n">
+        <v>356.5322222222222</v>
+      </c>
+      <c r="D653" t="n">
+        <v>359.5718181818182</v>
+      </c>
+      <c r="E653" t="n">
+        <v>353.2980952380952</v>
+      </c>
+      <c r="F653" t="n">
+        <v>358.2718181818182</v>
+      </c>
+      <c r="G653" t="n">
+        <v>359.8344444444444</v>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>373.7433333333333</v>
+      </c>
+      <c r="C654" t="n">
+        <v>359.3811111111111</v>
+      </c>
+      <c r="D654" t="n">
+        <v>364.2772727272728</v>
+      </c>
+      <c r="E654" t="n">
+        <v>357.3990476190476</v>
+      </c>
+      <c r="F654" t="n">
+        <v>362.0872727272728</v>
+      </c>
+      <c r="G654" t="n">
+        <v>365.9122222222222</v>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:13+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>369.1766666666667</v>
+      </c>
+      <c r="C655" t="n">
+        <v>359.0688888888889</v>
+      </c>
+      <c r="D655" t="n">
+        <v>368.9718181818182</v>
+      </c>
+      <c r="E655" t="n">
+        <v>362.0352380952381</v>
+      </c>
+      <c r="F655" t="n">
+        <v>367.2718181818182</v>
+      </c>
+      <c r="G655" t="n">
+        <v>363.2677777777778</v>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>370.8566666666667</v>
+      </c>
+      <c r="C656" t="n">
+        <v>359.1188888888889</v>
+      </c>
+      <c r="D656" t="n">
+        <v>369.99</v>
+      </c>
+      <c r="E656" t="n">
+        <v>361.572380952381</v>
+      </c>
+      <c r="F656" t="n">
+        <v>368.92</v>
+      </c>
+      <c r="G656" t="n">
+        <v>369.1877777777778</v>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>363.64</v>
+      </c>
+      <c r="C657" t="n">
+        <v>354.0233333333333</v>
+      </c>
+      <c r="D657" t="n">
+        <v>360.9836363636364</v>
+      </c>
+      <c r="E657" t="n">
+        <v>354.7385714285714</v>
+      </c>
+      <c r="F657" t="n">
+        <v>366.2836363636364</v>
+      </c>
+      <c r="G657" t="n">
+        <v>364.9766666666667</v>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18591,7 +18741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B685"/>
+  <dimension ref="A1:B690"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25449,6 +25599,56 @@
       </c>
       <c r="B685" t="n">
         <v>0.24</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -25617,28 +25817,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0633138030220374</v>
+        <v>-0.06873117297976165</v>
       </c>
       <c r="J2" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K2" t="n">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002565382550494766</v>
+        <v>0.003070825724270199</v>
       </c>
       <c r="M2" t="n">
-        <v>6.540996013773614</v>
+        <v>6.516748443312808</v>
       </c>
       <c r="N2" t="n">
-        <v>84.49556376099525</v>
+        <v>83.91016264554153</v>
       </c>
       <c r="O2" t="n">
-        <v>9.192146852666969</v>
+        <v>9.160249049318557</v>
       </c>
       <c r="P2" t="n">
-        <v>373.623561867453</v>
+        <v>373.6766783548363</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -25694,28 +25894,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1235470091385574</v>
+        <v>0.1232109112453095</v>
       </c>
       <c r="J3" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K3" t="n">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02056169664279239</v>
+        <v>0.02079724282059781</v>
       </c>
       <c r="M3" t="n">
-        <v>4.296710778112302</v>
+        <v>4.274289171602426</v>
       </c>
       <c r="N3" t="n">
-        <v>39.59099994848345</v>
+        <v>39.26835905961851</v>
       </c>
       <c r="O3" t="n">
-        <v>6.292137947350126</v>
+        <v>6.266447084243073</v>
       </c>
       <c r="P3" t="n">
-        <v>354.6733221318174</v>
+        <v>354.6766489264341</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -25771,28 +25971,28 @@
         <v>0.1329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07867710262028449</v>
+        <v>0.07962011927591083</v>
       </c>
       <c r="J4" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K4" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007947465925501773</v>
+        <v>0.008256777113136549</v>
       </c>
       <c r="M4" t="n">
-        <v>4.990751936602578</v>
+        <v>4.978056878729823</v>
       </c>
       <c r="N4" t="n">
-        <v>42.22674965628286</v>
+        <v>41.99568902815589</v>
       </c>
       <c r="O4" t="n">
-        <v>6.498211265901014</v>
+        <v>6.480408091174188</v>
       </c>
       <c r="P4" t="n">
-        <v>362.2328074537149</v>
+        <v>362.2235029750472</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -25848,28 +26048,28 @@
         <v>0.1284</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03622324378072466</v>
+        <v>-0.03480981998763061</v>
       </c>
       <c r="J5" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K5" t="n">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001515537158886637</v>
+        <v>0.001422053784565724</v>
       </c>
       <c r="M5" t="n">
-        <v>5.4176857568296</v>
+        <v>5.396452596569612</v>
       </c>
       <c r="N5" t="n">
-        <v>47.74981791330207</v>
+        <v>47.42343376153558</v>
       </c>
       <c r="O5" t="n">
-        <v>6.910124305199008</v>
+        <v>6.886467437048953</v>
       </c>
       <c r="P5" t="n">
-        <v>357.9304522138324</v>
+        <v>357.9166480780994</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -25925,28 +26125,28 @@
         <v>0.1387</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03751319140160982</v>
+        <v>-0.031989459422825</v>
       </c>
       <c r="J6" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K6" t="n">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001407912787730226</v>
+        <v>0.001038650509466832</v>
       </c>
       <c r="M6" t="n">
-        <v>5.855276960637082</v>
+        <v>5.83726617417888</v>
       </c>
       <c r="N6" t="n">
-        <v>54.45348196825218</v>
+        <v>54.17311422841628</v>
       </c>
       <c r="O6" t="n">
-        <v>7.379260258877727</v>
+        <v>7.360238734471612</v>
       </c>
       <c r="P6" t="n">
-        <v>362.3875262449143</v>
+        <v>362.3330751671757</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -26002,28 +26202,28 @@
         <v>0.1174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1142484573761842</v>
+        <v>-0.1064204962445178</v>
       </c>
       <c r="J7" t="n">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="K7" t="n">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01054863398471839</v>
+        <v>0.009296775388756728</v>
       </c>
       <c r="M7" t="n">
-        <v>6.309269834902223</v>
+        <v>6.290698762048706</v>
       </c>
       <c r="N7" t="n">
-        <v>67.74670116192166</v>
+        <v>67.38434895746413</v>
       </c>
       <c r="O7" t="n">
-        <v>8.230838423995557</v>
+        <v>8.208797046916443</v>
       </c>
       <c r="P7" t="n">
-        <v>363.0605314427612</v>
+        <v>362.9845989822902</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -26060,7 +26260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H652"/>
+  <dimension ref="A1:H657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50596,6 +50796,216 @@
         </is>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>-41.06971988811342,174.85349356286585</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-41.069039629449605,174.85339352895772</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>-41.06841164093998,174.85311164616218</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-41.06781234994876,174.85271475421712</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-41.067274701026484,174.8521752579144</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-41.066749706498754,174.85161333712927</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-41.06973535856161,174.85341802154502</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-41.06904678287653,174.85336097367642</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-41.06842934803754,174.85306077800067</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-41.06783252483268,174.85267388158897</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-41.0672950417686,174.85213866809792</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-41.066783771346934,174.85155673226828</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:07:13+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-41.06972461628902,174.85347047548183</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-41.069045998901565,174.85336454155276</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>-41.06844701406124,174.85301002774366</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-41.06785533283596,174.85262767441642</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-41.067322681315126,174.85208894880398</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-41.066768949716106,174.85158136108157</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-41.069728568193504,174.85345117856116</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>-41.06904612444916,174.8533639701847</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>-41.068450845573956,174.8529990207129</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>-41.06785305578467,174.8526322875415</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>-41.06733146800163,174.85207314288954</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>-41.066802130233896,174.8515262256387</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:01:09+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>-41.06971159223208,174.85353407107024</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>-41.069033329739305,174.85342219893022</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>-41.06841695375576,174.8530963837511</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>-41.06781943646034,174.85270039754326</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>-41.06731741317941,174.85209842537614</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-41.06677852772853,174.85156544548835</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -25662,7 +25662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25753,35 +25753,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -25840,27 +25845,28 @@
       <c r="P2" t="n">
         <v>373.6766783548363</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.85771087672583 -41.06885611583134, 174.8473519235924 -41.070977477910375)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.8577108767258</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-41.06885611583134</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.8473519235924</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-41.07097747791038</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.8525314001591</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-41.06991679687086</v>
       </c>
     </row>
@@ -25917,27 +25923,28 @@
       <c r="P3" t="n">
         <v>354.6766489264341</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.85746769310134 -41.06814432217342, 174.8471619351165 -41.07040871342903)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.8574676931013</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-41.06814432217342</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.8471619351165</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-41.07040871342903</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.8523148141089</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-41.06927651780123</v>
       </c>
     </row>
@@ -25994,27 +26001,28 @@
       <c r="P4" t="n">
         <v>362.2235029750472</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.85699870274544 -41.06705847122033, 174.84725041758543 -41.07045171356186)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.8569987027454</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-41.06705847122033</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.8472504175854</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-41.07045171356186</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.8521245601654</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-41.06875509239109</v>
       </c>
     </row>
@@ -26071,27 +26079,28 @@
       <c r="P5" t="n">
         <v>357.9166480780994</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.85623584656088 -41.06607422583694, 174.84724984614084 -41.070509613851094)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.8562358465609</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-41.06607422583694</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8472498461408</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-41.07050961385109</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.8517428463509</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-41.06829191984401</v>
       </c>
     </row>
@@ -26148,27 +26157,28 @@
       <c r="P6" t="n">
         <v>362.3330751671757</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.8556109463657 -41.06536465198928, 174.84696514635954 -41.07017082771871)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.8556109463657</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-41.06536465198928</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.8469651463595</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-41.07017082771871</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.8512880463626</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-41.06776773985399</v>
       </c>
     </row>
@@ -26225,27 +26235,28 @@
       <c r="P7" t="n">
         <v>362.9845989822902</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.85496451944312 -41.06473285163352, 174.84656835364666 -41.06978553718757)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.8549645194431</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-41.06473285163352</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.8465683536467</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-41.06978553718757</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.8507664365449</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-41.06725919441055</v>
       </c>
     </row>

--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H657"/>
+  <dimension ref="A1:H660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18727,6 +18727,96 @@
       <c r="H657" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>376.82</v>
+      </c>
+      <c r="C658" t="n">
+        <v>355.2966666666667</v>
+      </c>
+      <c r="D658" t="n">
+        <v>365.0427272727272</v>
+      </c>
+      <c r="E658" t="n">
+        <v>352.3957142857143</v>
+      </c>
+      <c r="F658" t="n">
+        <v>361.0927272727273</v>
+      </c>
+      <c r="G658" t="n">
+        <v>360.4933333333333</v>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>380.13</v>
+      </c>
+      <c r="C659" t="n">
+        <v>361.7166666666667</v>
+      </c>
+      <c r="D659" t="n">
+        <v>370.47</v>
+      </c>
+      <c r="E659" t="n">
+        <v>359.0757142857143</v>
+      </c>
+      <c r="F659" t="n">
+        <v>371.54</v>
+      </c>
+      <c r="G659" t="n">
+        <v>372.4033333333333</v>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:24+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>381.34</v>
+      </c>
+      <c r="C660" t="n">
+        <v>359.8566666666667</v>
+      </c>
+      <c r="D660" t="n">
+        <v>368.8918181818182</v>
+      </c>
+      <c r="E660" t="n">
+        <v>358.1785714285714</v>
+      </c>
+      <c r="F660" t="n">
+        <v>366.5518181818182</v>
+      </c>
+      <c r="G660" t="n">
+        <v>369.7033333333333</v>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18741,7 +18831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B690"/>
+  <dimension ref="A1:B693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25649,6 +25739,36 @@
       </c>
       <c r="B690" t="n">
         <v>0.15</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -25822,28 +25942,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06873117297976165</v>
+        <v>-0.06084961419118437</v>
       </c>
       <c r="J2" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K2" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003070825724270199</v>
+        <v>0.002425954979065059</v>
       </c>
       <c r="M2" t="n">
-        <v>6.516748443312808</v>
+        <v>6.520092770309481</v>
       </c>
       <c r="N2" t="n">
-        <v>83.91016264554153</v>
+        <v>83.77434124996707</v>
       </c>
       <c r="O2" t="n">
-        <v>9.160249049318557</v>
+        <v>9.152832416796839</v>
       </c>
       <c r="P2" t="n">
-        <v>373.6766783548363</v>
+        <v>373.5987518628924</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25900,28 +26020,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1232109112453095</v>
+        <v>0.1243810449598526</v>
       </c>
       <c r="J3" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K3" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02079724282059781</v>
+        <v>0.02138832168505045</v>
       </c>
       <c r="M3" t="n">
-        <v>4.274289171602426</v>
+        <v>4.265963819227509</v>
       </c>
       <c r="N3" t="n">
-        <v>39.26835905961851</v>
+        <v>39.10018965896778</v>
       </c>
       <c r="O3" t="n">
-        <v>6.266447084243073</v>
+        <v>6.25301444576676</v>
       </c>
       <c r="P3" t="n">
-        <v>354.6766489264341</v>
+        <v>354.6650344227648</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25978,28 +26098,28 @@
         <v>0.1329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07962011927591083</v>
+        <v>0.08371657539440361</v>
       </c>
       <c r="J4" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K4" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008256777113136549</v>
+        <v>0.00919776386329374</v>
       </c>
       <c r="M4" t="n">
-        <v>4.978056878729823</v>
+        <v>4.969477684240531</v>
       </c>
       <c r="N4" t="n">
-        <v>41.99568902815589</v>
+        <v>41.87237505496272</v>
       </c>
       <c r="O4" t="n">
-        <v>6.480408091174188</v>
+        <v>6.470886728645675</v>
       </c>
       <c r="P4" t="n">
-        <v>362.2235029750472</v>
+        <v>362.1831368619841</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26056,28 +26176,28 @@
         <v>0.1284</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03480981998763061</v>
+        <v>-0.03529621300935384</v>
       </c>
       <c r="J5" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K5" t="n">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001422053784565724</v>
+        <v>0.001476734304245331</v>
       </c>
       <c r="M5" t="n">
-        <v>5.396452596569612</v>
+        <v>5.380968209437487</v>
       </c>
       <c r="N5" t="n">
-        <v>47.42343376153558</v>
+        <v>47.2079358207755</v>
       </c>
       <c r="O5" t="n">
-        <v>6.886467437048953</v>
+        <v>6.870803142339001</v>
       </c>
       <c r="P5" t="n">
-        <v>357.9166480780994</v>
+        <v>357.9213507710851</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26134,28 +26254,28 @@
         <v>0.1387</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.031989459422825</v>
+        <v>-0.02685300363039996</v>
       </c>
       <c r="J6" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K6" t="n">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001038650509466832</v>
+        <v>0.0007370264386082903</v>
       </c>
       <c r="M6" t="n">
-        <v>5.83726617417888</v>
+        <v>5.829830778842688</v>
       </c>
       <c r="N6" t="n">
-        <v>54.17311422841628</v>
+        <v>54.10298576620275</v>
       </c>
       <c r="O6" t="n">
-        <v>7.360238734471612</v>
+        <v>7.355473184384723</v>
       </c>
       <c r="P6" t="n">
-        <v>362.3330751671757</v>
+        <v>362.2821262812527</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26212,28 +26332,28 @@
         <v>0.1174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1064204962445178</v>
+        <v>-0.09880216487578754</v>
       </c>
       <c r="J7" t="n">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="K7" t="n">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009296775388756728</v>
+        <v>0.008060365814945847</v>
       </c>
       <c r="M7" t="n">
-        <v>6.290698762048706</v>
+        <v>6.29385156021445</v>
       </c>
       <c r="N7" t="n">
-        <v>67.38434895746413</v>
+        <v>67.44411229127209</v>
       </c>
       <c r="O7" t="n">
-        <v>8.208797046916443</v>
+        <v>8.212436440622971</v>
       </c>
       <c r="P7" t="n">
-        <v>362.9845989822902</v>
+        <v>362.9100531491544</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26271,7 +26391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H657"/>
+  <dimension ref="A1:H660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51017,6 +51137,132 @@
         </is>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-04 22:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>-41.06974259586045,174.85338268213079</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>-41.06903652702452,174.8534076480946</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>-41.06843222851772,174.85305250307687</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>-41.06780791062907,174.85272374790048</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>-41.06728973970347,174.8521482056887</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-41.066753399453425,174.8516072006271</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-28 22:00:54+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>-41.06975038202158,174.85334466257856</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>-41.069052647340676,174.85333428443482</t>
+        </is>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>-41.06845265185816,174.85299383168368</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>-41.06784077329198,174.85265717088456</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>-41.06734543558172,174.85204801731797</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>-41.06682015282431,174.85149627779782</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:06:24+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>-41.069753228319094,174.85333076419005</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>-41.06904797697343,174.85335553933078</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>-41.06844671301378,174.85301089258175</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>-41.067836359745755,174.85266611236963</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>-41.06731884289432,174.8520958535375</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>-41.066805019827335,174.85152142405093</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H660"/>
+  <dimension ref="A1:H662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18817,6 +18817,64 @@
       <c r="H660" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="n">
+        <v>328.5155555555555</v>
+      </c>
+      <c r="D661" t="n">
+        <v>347.3436363636364</v>
+      </c>
+      <c r="E661" t="n">
+        <v>350.5338095238095</v>
+      </c>
+      <c r="F661" t="n">
+        <v>362.6236363636364</v>
+      </c>
+      <c r="G661" t="n">
+        <v>353.9911111111111</v>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>375.9366666666667</v>
+      </c>
+      <c r="C662" t="n">
+        <v>355.5122222222222</v>
+      </c>
+      <c r="D662" t="n">
+        <v>362.1672727272728</v>
+      </c>
+      <c r="E662" t="n">
+        <v>351.7566666666667</v>
+      </c>
+      <c r="F662" t="n">
+        <v>358.2372727272727</v>
+      </c>
+      <c r="G662" t="n">
+        <v>354.9244444444445</v>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -18831,7 +18889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B693"/>
+  <dimension ref="A1:B695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25769,6 +25827,26 @@
       </c>
       <c r="B693" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -25942,28 +26020,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06084961419118437</v>
+        <v>-0.05947230962301066</v>
       </c>
       <c r="J2" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K2" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002425954979065059</v>
+        <v>0.00232557495979413</v>
       </c>
       <c r="M2" t="n">
-        <v>6.520092770309481</v>
+        <v>6.514947662986665</v>
       </c>
       <c r="N2" t="n">
-        <v>83.77434124996707</v>
+        <v>83.64893125074427</v>
       </c>
       <c r="O2" t="n">
-        <v>9.152832416796839</v>
+        <v>9.14597896623124</v>
       </c>
       <c r="P2" t="n">
-        <v>373.5987518628924</v>
+        <v>373.5850341480013</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26020,28 +26098,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1243810449598526</v>
+        <v>0.113431760705508</v>
       </c>
       <c r="J3" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K3" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02138832168505045</v>
+        <v>0.0173000321784087</v>
       </c>
       <c r="M3" t="n">
-        <v>4.265963819227509</v>
+        <v>4.311744154205767</v>
       </c>
       <c r="N3" t="n">
-        <v>39.10018965896778</v>
+        <v>40.52213144547355</v>
       </c>
       <c r="O3" t="n">
-        <v>6.25301444576676</v>
+        <v>6.365699603772829</v>
       </c>
       <c r="P3" t="n">
-        <v>354.6650344227648</v>
+        <v>354.7740342155286</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26098,28 +26176,28 @@
         <v>0.1329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08371657539440361</v>
+        <v>0.07695386796969522</v>
       </c>
       <c r="J4" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K4" t="n">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00919776386329374</v>
+        <v>0.007741700290128106</v>
       </c>
       <c r="M4" t="n">
-        <v>4.969477684240531</v>
+        <v>4.990282224431956</v>
       </c>
       <c r="N4" t="n">
-        <v>41.87237505496272</v>
+        <v>42.25787660870427</v>
       </c>
       <c r="O4" t="n">
-        <v>6.470886728645675</v>
+        <v>6.500605864740938</v>
       </c>
       <c r="P4" t="n">
-        <v>362.1831368619841</v>
+        <v>362.2501845661531</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26176,28 +26254,28 @@
         <v>0.1284</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03529621300935384</v>
+        <v>-0.03940714514901544</v>
       </c>
       <c r="J5" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K5" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001476734304245331</v>
+        <v>0.001848834432843782</v>
       </c>
       <c r="M5" t="n">
-        <v>5.380968209437487</v>
+        <v>5.383648867490234</v>
       </c>
       <c r="N5" t="n">
-        <v>47.2079358207755</v>
+        <v>47.16026426675621</v>
       </c>
       <c r="O5" t="n">
-        <v>6.870803142339001</v>
+        <v>6.867333126240215</v>
       </c>
       <c r="P5" t="n">
-        <v>357.9213507710851</v>
+        <v>357.9619170433949</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26254,28 +26332,28 @@
         <v>0.1387</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02685300363039996</v>
+        <v>-0.02766863724790605</v>
       </c>
       <c r="J6" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K6" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007370264386082903</v>
+        <v>0.0007879329793298862</v>
       </c>
       <c r="M6" t="n">
-        <v>5.829830778842688</v>
+        <v>5.816848014724468</v>
       </c>
       <c r="N6" t="n">
-        <v>54.10298576620275</v>
+        <v>53.92468091657959</v>
       </c>
       <c r="O6" t="n">
-        <v>7.355473184384723</v>
+        <v>7.343342625574514</v>
       </c>
       <c r="P6" t="n">
-        <v>362.2821262812527</v>
+        <v>362.2902755487536</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26332,28 +26410,28 @@
         <v>0.1174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09880216487578754</v>
+        <v>-0.1029274516377677</v>
       </c>
       <c r="J7" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="K7" t="n">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008060365814945847</v>
+        <v>0.008789719222294878</v>
       </c>
       <c r="M7" t="n">
-        <v>6.29385156021445</v>
+        <v>6.293343332404912</v>
       </c>
       <c r="N7" t="n">
-        <v>67.44411229127209</v>
+        <v>67.32267391737403</v>
       </c>
       <c r="O7" t="n">
-        <v>8.212436440622971</v>
+        <v>8.205039543925064</v>
       </c>
       <c r="P7" t="n">
-        <v>362.9100531491544</v>
+        <v>362.9506738714159</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26391,7 +26469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H660"/>
+  <dimension ref="A1:H662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51263,6 +51341,86 @@
         </is>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-15 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>-41.06896928042569,174.85371368512418</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>-41.06836562496233,174.8532438383885</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>-41.06779875086965,174.8527423047842</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>-41.0672979012001,174.852133524424</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>-41.06671695564416,174.8516677584566</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:06:43+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>-41.069740517980506,174.853392828334</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>-41.069037068275065,174.85340518486396</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>-41.06842140789856,174.8530835880897</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>-41.06780476679381,174.8527301170412</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>-41.0672745168596,174.85217558920166</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>-41.06672218681484,174.85165906594932</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H662"/>
+  <dimension ref="A1:H666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18873,6 +18873,126 @@
         <v>354.9244444444445</v>
       </c>
       <c r="H662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:30+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>379.2133333333333</v>
+      </c>
+      <c r="C663" t="n">
+        <v>356.9144444444445</v>
+      </c>
+      <c r="D663" t="n">
+        <v>362.8272727272728</v>
+      </c>
+      <c r="E663" t="n">
+        <v>354.9119047619047</v>
+      </c>
+      <c r="F663" t="n">
+        <v>358.1372727272728</v>
+      </c>
+      <c r="G663" t="n">
+        <v>360.1788888888889</v>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>370.36</v>
+      </c>
+      <c r="C664" t="n">
+        <v>353.3366666666667</v>
+      </c>
+      <c r="D664" t="n">
+        <v>353.8090909090909</v>
+      </c>
+      <c r="E664" t="n">
+        <v>345.84</v>
+      </c>
+      <c r="F664" t="n">
+        <v>346.7290909090909</v>
+      </c>
+      <c r="G664" t="n">
+        <v>351.0433333333333</v>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:29+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>364.06</v>
+      </c>
+      <c r="C665" t="n">
+        <v>350.9</v>
+      </c>
+      <c r="D665" t="n">
+        <v>358.75</v>
+      </c>
+      <c r="E665" t="n">
+        <v>351.22</v>
+      </c>
+      <c r="F665" t="n">
+        <v>348.17</v>
+      </c>
+      <c r="G665" t="n">
+        <v>349.11</v>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:06:40+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>370.4866666666667</v>
+      </c>
+      <c r="C666" t="n">
+        <v>354.3555555555556</v>
+      </c>
+      <c r="D666" t="n">
+        <v>353.9190909090909</v>
+      </c>
+      <c r="E666" t="n">
+        <v>346.492380952381</v>
+      </c>
+      <c r="F666" t="n">
+        <v>349.449090909091</v>
+      </c>
+      <c r="G666" t="n">
+        <v>351.3411111111111</v>
+      </c>
+      <c r="H666" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18889,7 +19009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B695"/>
+  <dimension ref="A1:B699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25847,6 +25967,46 @@
       </c>
       <c r="B695" t="n">
         <v>-0.14</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -26020,28 +26180,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05947230962301066</v>
+        <v>-0.06088943303557104</v>
       </c>
       <c r="J2" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K2" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00232557495979413</v>
+        <v>0.002467328578414363</v>
       </c>
       <c r="M2" t="n">
-        <v>6.514947662986665</v>
+        <v>6.501345303026418</v>
       </c>
       <c r="N2" t="n">
-        <v>83.64893125074427</v>
+        <v>83.26009097519638</v>
       </c>
       <c r="O2" t="n">
-        <v>9.14597896623124</v>
+        <v>9.124696760725607</v>
       </c>
       <c r="P2" t="n">
-        <v>373.5850341480013</v>
+        <v>373.5991967160842</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26098,28 +26258,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.113431760705508</v>
+        <v>0.1082420975098834</v>
       </c>
       <c r="J3" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K3" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0173000321784087</v>
+        <v>0.01595060362837697</v>
       </c>
       <c r="M3" t="n">
-        <v>4.311744154205767</v>
+        <v>4.309874156120952</v>
       </c>
       <c r="N3" t="n">
-        <v>40.52213144547355</v>
+        <v>40.3667565975128</v>
       </c>
       <c r="O3" t="n">
-        <v>6.365699603772829</v>
+        <v>6.353483815790577</v>
       </c>
       <c r="P3" t="n">
-        <v>354.7740342155286</v>
+        <v>354.8258124022453</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26176,28 +26336,28 @@
         <v>0.1329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07695386796969522</v>
+        <v>0.06737629907192001</v>
       </c>
       <c r="J4" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K4" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007741700290128106</v>
+        <v>0.005970296815010379</v>
       </c>
       <c r="M4" t="n">
-        <v>4.990282224431956</v>
+        <v>5.009713704646264</v>
       </c>
       <c r="N4" t="n">
-        <v>42.25787660870427</v>
+        <v>42.3941806036452</v>
       </c>
       <c r="O4" t="n">
-        <v>6.500605864740938</v>
+        <v>6.511081369760725</v>
       </c>
       <c r="P4" t="n">
-        <v>362.2501845661531</v>
+        <v>362.3453613362656</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26254,28 +26414,28 @@
         <v>0.1284</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03940714514901544</v>
+        <v>-0.04949139485016216</v>
       </c>
       <c r="J5" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K5" t="n">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001848834432843782</v>
+        <v>0.00292556215981099</v>
       </c>
       <c r="M5" t="n">
-        <v>5.383648867490234</v>
+        <v>5.400031229148263</v>
       </c>
       <c r="N5" t="n">
-        <v>47.16026426675621</v>
+        <v>47.30100268635051</v>
       </c>
       <c r="O5" t="n">
-        <v>6.867333126240215</v>
+        <v>6.877572441374246</v>
       </c>
       <c r="P5" t="n">
-        <v>357.9619170433949</v>
+        <v>358.0616273462475</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26332,28 +26492,28 @@
         <v>0.1387</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02766863724790605</v>
+        <v>-0.0427692251988992</v>
       </c>
       <c r="J6" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K6" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007879329793298862</v>
+        <v>0.001872888665042982</v>
       </c>
       <c r="M6" t="n">
-        <v>5.816848014724468</v>
+        <v>5.864745356630712</v>
       </c>
       <c r="N6" t="n">
-        <v>53.92468091657959</v>
+        <v>54.53890500193851</v>
       </c>
       <c r="O6" t="n">
-        <v>7.343342625574514</v>
+        <v>7.385046039256527</v>
       </c>
       <c r="P6" t="n">
-        <v>362.2902755487536</v>
+        <v>362.4412934853108</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26410,28 +26570,28 @@
         <v>0.1174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1029274516377677</v>
+        <v>-0.1130448001371025</v>
       </c>
       <c r="J7" t="n">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="K7" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008789719222294878</v>
+        <v>0.01065530474874155</v>
       </c>
       <c r="M7" t="n">
-        <v>6.293343332404912</v>
+        <v>6.303463976014669</v>
       </c>
       <c r="N7" t="n">
-        <v>67.32267391737403</v>
+        <v>67.35362014940536</v>
       </c>
       <c r="O7" t="n">
-        <v>8.205039543925064</v>
+        <v>8.206925133654222</v>
       </c>
       <c r="P7" t="n">
-        <v>362.9506738714159</v>
+        <v>363.0504988830934</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26469,7 +26629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H662"/>
+  <dimension ref="A1:H666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31970,7 +32130,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>-41.06784277859726,174.85265310829857</t>
+          <t>-41.06784277859727,174.85265310829857</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -32980,7 +33140,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>-41.067804242040346,174.85273118014658</t>
+          <t>-41.06780424204034,174.85273118014658</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -33795,7 +33955,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>-41.06727004838912,174.85218362727596</t>
+          <t>-41.067270048389126,174.85218362727596</t>
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
@@ -46578,7 +46738,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>-41.069044916402135,174.85336946801533</t>
+          <t>-41.06904491640213,174.85336946801533</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -48002,7 +48162,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>-41.069042148773775,174.85338206350653</t>
+          <t>-41.06904214877378,174.85338206350653</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -48724,7 +48884,7 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>-41.067829076455936,174.85268086771578</t>
+          <t>-41.06782907645593,174.85268086771578</t>
         </is>
       </c>
       <c r="F595" t="inlineStr">
@@ -50817,7 +50977,7 @@
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>-41.06844360675086,174.8530198161378</t>
+          <t>-41.068443606750854,174.8530198161378</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -51416,6 +51576,174 @@
         </is>
       </c>
       <c r="H662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-23 22:00:30+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>-41.069748225734486,174.85335519165992</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>-41.06904058919229,174.85338916116692</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>-41.068423891544406,174.85307645318093</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>-41.06782028918426,174.8526986699962</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>-41.067273983744926,174.85217654819107</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>-41.06675163704845,174.8516101291771</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:06:42+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>-41.06972739987287,174.85345688340504</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>-41.069031605548105,174.85343004571533</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>-41.06838995518918,174.85317394389762</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>-41.06777565936102,174.85278908614274</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>-41.06721316500335,174.85228595134268</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>-41.06670043385928,174.851695212283</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:29+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>-41.069712580211124,174.8535292468423</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>-41.06902548717606,174.85345789037163</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>-41.068408548353474,174.85312053039772</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>-41.06780212662787,174.85273546579003</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>-41.067220846713035,174.8522721332014</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>-41.06668959785675,174.85171321817742</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:06:40+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>-41.06972769783386,174.85345542847844</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>-41.0690341639352,174.85341840250814</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>-41.068390369131095,174.85317275474733</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>-41.06777886879366,174.85278258411964</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>-41.067227665743566,174.85225986687396</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>-41.06670210285255,174.85169243896078</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H666"/>
+  <dimension ref="A1:H670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18993,6 +18993,116 @@
         <v>351.3411111111111</v>
       </c>
       <c r="H666" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr"/>
+      <c r="G667" t="n">
+        <v>315.8988888888889</v>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:52+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>376.4266666666667</v>
+      </c>
+      <c r="C668" t="n">
+        <v>357.2955555555556</v>
+      </c>
+      <c r="D668" t="n">
+        <v>358.3890909090909</v>
+      </c>
+      <c r="E668" t="n">
+        <v>349.872380952381</v>
+      </c>
+      <c r="F668" t="n">
+        <v>358.9390909090909</v>
+      </c>
+      <c r="G668" t="n">
+        <v>355.5011111111111</v>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>372.5866666666667</v>
+      </c>
+      <c r="C669" t="n">
+        <v>354.2488888888889</v>
+      </c>
+      <c r="D669" t="n">
+        <v>356.49</v>
+      </c>
+      <c r="E669" t="n">
+        <v>346.2323809523809</v>
+      </c>
+      <c r="F669" t="n">
+        <v>355.66</v>
+      </c>
+      <c r="G669" t="n">
+        <v>351.1977777777778</v>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>371.49</v>
+      </c>
+      <c r="C670" t="n">
+        <v>355.2633333333333</v>
+      </c>
+      <c r="D670" t="n">
+        <v>355.45</v>
+      </c>
+      <c r="E670" t="n">
+        <v>348.3428571428572</v>
+      </c>
+      <c r="F670" t="n">
+        <v>351.59</v>
+      </c>
+      <c r="G670" t="n">
+        <v>353.7066666666667</v>
+      </c>
+      <c r="H670" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -19009,7 +19119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B699"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26007,6 +26117,46 @@
       </c>
       <c r="B699" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -26180,28 +26330,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06088943303557104</v>
+        <v>-0.0593782655580645</v>
       </c>
       <c r="J2" t="n">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="K2" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002467328578414363</v>
+        <v>0.002371420458856632</v>
       </c>
       <c r="M2" t="n">
-        <v>6.501345303026418</v>
+        <v>6.475710616531537</v>
       </c>
       <c r="N2" t="n">
-        <v>83.26009097519638</v>
+        <v>82.84507830565126</v>
       </c>
       <c r="O2" t="n">
-        <v>9.124696760725607</v>
+        <v>9.101927175365185</v>
       </c>
       <c r="P2" t="n">
-        <v>373.5991967160842</v>
+        <v>373.5840987660468</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26258,28 +26408,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1082420975098834</v>
+        <v>0.1062080238062642</v>
       </c>
       <c r="J3" t="n">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="K3" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01595060362837697</v>
+        <v>0.01551686325150003</v>
       </c>
       <c r="M3" t="n">
-        <v>4.309874156120952</v>
+        <v>4.298062632236287</v>
       </c>
       <c r="N3" t="n">
-        <v>40.3667565975128</v>
+        <v>40.17997897915253</v>
       </c>
       <c r="O3" t="n">
-        <v>6.353483815790577</v>
+        <v>6.338767938578642</v>
       </c>
       <c r="P3" t="n">
-        <v>354.8258124022453</v>
+        <v>354.8461566732665</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26336,28 +26486,28 @@
         <v>0.1329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06737629907192001</v>
+        <v>0.05986742601035501</v>
       </c>
       <c r="J4" t="n">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="K4" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005970296815010379</v>
+        <v>0.004738111544355883</v>
       </c>
       <c r="M4" t="n">
-        <v>5.009713704646264</v>
+        <v>5.026664492531866</v>
       </c>
       <c r="N4" t="n">
-        <v>42.3941806036452</v>
+        <v>42.45825879522641</v>
       </c>
       <c r="O4" t="n">
-        <v>6.511081369760725</v>
+        <v>6.516000214489439</v>
       </c>
       <c r="P4" t="n">
-        <v>362.3453613362656</v>
+        <v>362.4201523790866</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26414,28 +26564,28 @@
         <v>0.1284</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04949139485016216</v>
+        <v>-0.0582927771630103</v>
       </c>
       <c r="J5" t="n">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="K5" t="n">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00292556215981099</v>
+        <v>0.004062269548255615</v>
       </c>
       <c r="M5" t="n">
-        <v>5.400031229148263</v>
+        <v>5.419991147774256</v>
       </c>
       <c r="N5" t="n">
-        <v>47.30100268635051</v>
+        <v>47.45676003130361</v>
       </c>
       <c r="O5" t="n">
-        <v>6.877572441374246</v>
+        <v>6.88888670478065</v>
       </c>
       <c r="P5" t="n">
-        <v>358.0616273462475</v>
+        <v>358.1488541896726</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26492,28 +26642,28 @@
         <v>0.1387</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0427692251988992</v>
+        <v>-0.04883971445730256</v>
       </c>
       <c r="J6" t="n">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="K6" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001872888665042982</v>
+        <v>0.002456405182042265</v>
       </c>
       <c r="M6" t="n">
-        <v>5.864745356630712</v>
+        <v>5.869045945364021</v>
       </c>
       <c r="N6" t="n">
-        <v>54.53890500193851</v>
+        <v>54.47945408388386</v>
       </c>
       <c r="O6" t="n">
-        <v>7.385046039256527</v>
+        <v>7.38101985391476</v>
       </c>
       <c r="P6" t="n">
-        <v>362.4412934853108</v>
+        <v>362.5021621277122</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26570,28 +26720,28 @@
         <v>0.1174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1130448001371025</v>
+        <v>-0.1346402008965132</v>
       </c>
       <c r="J7" t="n">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="K7" t="n">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01065530474874155</v>
+        <v>0.01445456828245739</v>
       </c>
       <c r="M7" t="n">
-        <v>6.303463976014669</v>
+        <v>6.382175853858294</v>
       </c>
       <c r="N7" t="n">
-        <v>67.35362014940536</v>
+        <v>70.65776826608999</v>
       </c>
       <c r="O7" t="n">
-        <v>8.206925133654222</v>
+        <v>8.405817525148281</v>
       </c>
       <c r="P7" t="n">
-        <v>363.0504988830934</v>
+        <v>363.263851644155</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26629,7 +26779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H666"/>
+  <dimension ref="A1:H670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51749,6 +51899,154 @@
         </is>
       </c>
     </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:35+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr"/>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>-41.06650345483842,174.85202252540006</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:06:52+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>-41.0697416706159,174.85338720006285</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>-41.069041546144845,174.853384806073</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>-41.06840719021514,174.85312443199206</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>-41.06779549692886,174.85274889698533</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>-41.067278258355074,174.85216885883926</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>-41.066725418930695,174.85165369522093</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>-41.06973263771086,174.85343130732488</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>-41.06903389609975,174.8534196214263</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>-41.06840004373707,174.85314496204106</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>-41.06777758970595,174.85278517543694</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>-41.06726077703811,174.85220030496893</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>-41.06670129949386,174.85169377388084</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:06:54+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>-41.06973005799794,174.85344390392774</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>-41.06903644332598,174.85340802900654</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>-41.0683961301066,174.853156204919</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>-41.06778797233575,174.85276414115137</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>-41.06723907925667,174.85223933580843</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>-41.066715361382485,174.8516704076014</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H670"/>
+  <dimension ref="A1:H674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19103,6 +19103,126 @@
         <v>353.7066666666667</v>
       </c>
       <c r="H670" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>357.6633333333333</v>
+      </c>
+      <c r="C671" t="n">
+        <v>348.3677777777777</v>
+      </c>
+      <c r="D671" t="n">
+        <v>352.9172727272727</v>
+      </c>
+      <c r="E671" t="n">
+        <v>344.6447619047619</v>
+      </c>
+      <c r="F671" t="n">
+        <v>347.1472727272728</v>
+      </c>
+      <c r="G671" t="n">
+        <v>347.6955555555556</v>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:06:40+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>354.4433333333333</v>
+      </c>
+      <c r="C672" t="n">
+        <v>345.9944444444445</v>
+      </c>
+      <c r="D672" t="n">
+        <v>351.6945454545454</v>
+      </c>
+      <c r="E672" t="n">
+        <v>348.0033333333333</v>
+      </c>
+      <c r="F672" t="n">
+        <v>350.1945454545454</v>
+      </c>
+      <c r="G672" t="n">
+        <v>348.5188888888889</v>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:52+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>370.5033333333333</v>
+      </c>
+      <c r="C673" t="n">
+        <v>354.8477777777778</v>
+      </c>
+      <c r="D673" t="n">
+        <v>356.7518181818182</v>
+      </c>
+      <c r="E673" t="n">
+        <v>346.727619047619</v>
+      </c>
+      <c r="F673" t="n">
+        <v>355.5318181818182</v>
+      </c>
+      <c r="G673" t="n">
+        <v>357.4455555555556</v>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>380.1066666666667</v>
+      </c>
+      <c r="C674" t="n">
+        <v>359.4388888888889</v>
+      </c>
+      <c r="D674" t="n">
+        <v>365.6772727272728</v>
+      </c>
+      <c r="E674" t="n">
+        <v>356.742380952381</v>
+      </c>
+      <c r="F674" t="n">
+        <v>359.1772727272727</v>
+      </c>
+      <c r="G674" t="n">
+        <v>358.3477777777778</v>
+      </c>
+      <c r="H674" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -19119,7 +19239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B703"/>
+  <dimension ref="A1:B707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26157,6 +26277,46 @@
       </c>
       <c r="B703" t="n">
         <v>0.33</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -26330,28 +26490,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0593782655580645</v>
+        <v>-0.06793845135389813</v>
       </c>
       <c r="J2" t="n">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="K2" t="n">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002371420458856632</v>
+        <v>0.003108009554608104</v>
       </c>
       <c r="M2" t="n">
-        <v>6.475710616531537</v>
+        <v>6.505451478338167</v>
       </c>
       <c r="N2" t="n">
-        <v>82.84507830565126</v>
+        <v>83.29167964478191</v>
       </c>
       <c r="O2" t="n">
-        <v>9.101927175365185</v>
+        <v>9.126427540104721</v>
       </c>
       <c r="P2" t="n">
-        <v>373.5840987660468</v>
+        <v>373.6699224039429</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26408,28 +26568,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1062080238062642</v>
+        <v>0.09901985536502564</v>
       </c>
       <c r="J3" t="n">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="K3" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01551686325150003</v>
+        <v>0.01356809089521338</v>
       </c>
       <c r="M3" t="n">
-        <v>4.298062632236287</v>
+        <v>4.314249747433979</v>
       </c>
       <c r="N3" t="n">
-        <v>40.17997897915253</v>
+        <v>40.30032102881076</v>
       </c>
       <c r="O3" t="n">
-        <v>6.338767938578642</v>
+        <v>6.348253384105801</v>
       </c>
       <c r="P3" t="n">
-        <v>354.8461566732665</v>
+        <v>354.9182924039125</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26486,28 +26646,28 @@
         <v>0.1329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05986742601035501</v>
+        <v>0.05013953885047009</v>
       </c>
       <c r="J4" t="n">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="K4" t="n">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004738111544355883</v>
+        <v>0.003330061679350571</v>
       </c>
       <c r="M4" t="n">
-        <v>5.026664492531866</v>
+        <v>5.054062498916085</v>
       </c>
       <c r="N4" t="n">
-        <v>42.45825879522641</v>
+        <v>42.73767427139936</v>
       </c>
       <c r="O4" t="n">
-        <v>6.516000214489439</v>
+        <v>6.53740577533622</v>
       </c>
       <c r="P4" t="n">
-        <v>362.4201523790866</v>
+        <v>362.5173831161882</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26564,28 +26724,28 @@
         <v>0.1284</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0582927771630103</v>
+        <v>-0.06848145026658724</v>
       </c>
       <c r="J5" t="n">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="K5" t="n">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004062269548255615</v>
+        <v>0.005610725940928041</v>
       </c>
       <c r="M5" t="n">
-        <v>5.419991147774256</v>
+        <v>5.439725803744889</v>
       </c>
       <c r="N5" t="n">
-        <v>47.45676003130361</v>
+        <v>47.67907277679618</v>
       </c>
       <c r="O5" t="n">
-        <v>6.88888670478065</v>
+        <v>6.905003459578871</v>
       </c>
       <c r="P5" t="n">
-        <v>358.1488541896726</v>
+        <v>358.2502008124062</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26642,28 +26802,28 @@
         <v>0.1387</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.04883971445730256</v>
+        <v>-0.05987753888124463</v>
       </c>
       <c r="J6" t="n">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="K6" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002456405182042265</v>
+        <v>0.003696676911362995</v>
       </c>
       <c r="M6" t="n">
-        <v>5.869045945364021</v>
+        <v>5.892562633656537</v>
       </c>
       <c r="N6" t="n">
-        <v>54.47945408388386</v>
+        <v>54.72264664839219</v>
       </c>
       <c r="O6" t="n">
-        <v>7.38101985391476</v>
+        <v>7.39747569434278</v>
       </c>
       <c r="P6" t="n">
-        <v>362.5021621277122</v>
+        <v>362.6132173228965</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26720,28 +26880,28 @@
         <v>0.1174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1346402008965132</v>
+        <v>-0.1436308507595264</v>
       </c>
       <c r="J7" t="n">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="K7" t="n">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01445456828245739</v>
+        <v>0.01653157373698166</v>
       </c>
       <c r="M7" t="n">
-        <v>6.382175853858294</v>
+        <v>6.389199063471554</v>
       </c>
       <c r="N7" t="n">
-        <v>70.65776826608999</v>
+        <v>70.64593845484499</v>
       </c>
       <c r="O7" t="n">
-        <v>8.405817525148281</v>
+        <v>8.40511382759597</v>
       </c>
       <c r="P7" t="n">
-        <v>363.263851644155</v>
+        <v>363.3530883231853</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26779,7 +26939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H670"/>
+  <dimension ref="A1:H674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52047,6 +52207,174 @@
         </is>
       </c>
     </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:06:57+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>-41.06969753311188,174.85360272058315</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>-41.069019128860816,174.85348682696952</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>-41.06838659918031,174.85318358485907</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>-41.06776977930463,174.85280099860674</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>-41.0672153943956,174.85228194103072</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>-41.066681670135935,174.8517263914516</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:06:40+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>-41.06968995857754,174.85363970630917</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>-41.06901316950314,174.85351394788265</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>-41.068381997923254,174.85319680309715</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>-41.06778630202574,174.852767525052</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>-41.06723163987593,174.85225271805365</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>-41.066686284779564,174.85171872342673</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:52+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>-41.06972773703925,174.85345523704072</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>-41.06903539988404,174.8534127777087</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>-41.06840102898652,174.85314213166595</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>-41.06778002606346,174.85278023959435</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>-41.06726009368177,174.85220153421844</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>-41.066736317200096,174.85163558582454</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:07:06+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>-41.06975032713428,174.85334493059153</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>-41.069046927953735,174.85336031342882</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>-41.06843461637378,174.85304564334135</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>-41.067829294322145,174.85268042633686</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>-41.067279528137135,174.85216657470056</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>-41.066741373996166,174.85162718306256</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H674"/>
+  <dimension ref="A1:H677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19223,6 +19223,94 @@
         <v>358.3477777777778</v>
       </c>
       <c r="H674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:56+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>384.3666666666667</v>
+      </c>
+      <c r="C675" t="n">
+        <v>356.8788888888889</v>
+      </c>
+      <c r="D675" t="n">
+        <v>364.449090909091</v>
+      </c>
+      <c r="E675" t="n">
+        <v>353.6052380952381</v>
+      </c>
+      <c r="F675" t="n">
+        <v>359.1490909090909</v>
+      </c>
+      <c r="G675" t="n">
+        <v>359.4777777777778</v>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr"/>
+      <c r="C676" t="n">
+        <v>330.0966666666667</v>
+      </c>
+      <c r="D676" t="n">
+        <v>338.8045454545455</v>
+      </c>
+      <c r="E676" t="n">
+        <v>339.2985714285714</v>
+      </c>
+      <c r="F676" t="n">
+        <v>379.7945454545454</v>
+      </c>
+      <c r="G676" t="n">
+        <v>371.2433333333333</v>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>381.0666666666667</v>
+      </c>
+      <c r="C677" t="n">
+        <v>360.3855555555555</v>
+      </c>
+      <c r="D677" t="n">
+        <v>371.2536363636364</v>
+      </c>
+      <c r="E677" t="n">
+        <v>362.2438095238096</v>
+      </c>
+      <c r="F677" t="n">
+        <v>366.1336363636364</v>
+      </c>
+      <c r="G677" t="n">
+        <v>364.2311111111111</v>
+      </c>
+      <c r="H677" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -19239,7 +19327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B707"/>
+  <dimension ref="A1:B710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26317,6 +26405,36 @@
       </c>
       <c r="B707" t="n">
         <v>0.52</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
@@ -26490,28 +26608,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06793845135389813</v>
+        <v>-0.06069092901673671</v>
       </c>
       <c r="J2" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K2" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003108009554608104</v>
+        <v>0.002486982971981799</v>
       </c>
       <c r="M2" t="n">
-        <v>6.505451478338167</v>
+        <v>6.519043059637784</v>
       </c>
       <c r="N2" t="n">
-        <v>83.29167964478191</v>
+        <v>83.41701315240833</v>
       </c>
       <c r="O2" t="n">
-        <v>9.126427540104721</v>
+        <v>9.133291474184338</v>
       </c>
       <c r="P2" t="n">
-        <v>373.6699224039429</v>
+        <v>373.5969699366</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26568,28 +26686,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09901985536502564</v>
+        <v>0.090775754932123</v>
       </c>
       <c r="J3" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K3" t="n">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01356809089521338</v>
+        <v>0.01117763148088624</v>
       </c>
       <c r="M3" t="n">
-        <v>4.314249747433979</v>
+        <v>4.348242661539021</v>
       </c>
       <c r="N3" t="n">
-        <v>40.30032102881076</v>
+        <v>41.42450158468</v>
       </c>
       <c r="O3" t="n">
-        <v>6.348253384105801</v>
+        <v>6.436186882361326</v>
       </c>
       <c r="P3" t="n">
-        <v>354.9182924039125</v>
+        <v>355.0014207947837</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26646,28 +26764,28 @@
         <v>0.1329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05013953885047009</v>
+        <v>0.04446576299729858</v>
       </c>
       <c r="J4" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K4" t="n">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003330061679350571</v>
+        <v>0.002574768928131244</v>
       </c>
       <c r="M4" t="n">
-        <v>5.054062498916085</v>
+        <v>5.090128840312556</v>
       </c>
       <c r="N4" t="n">
-        <v>42.73767427139936</v>
+        <v>43.73537845775994</v>
       </c>
       <c r="O4" t="n">
-        <v>6.53740577533622</v>
+        <v>6.61327290059619</v>
       </c>
       <c r="P4" t="n">
-        <v>362.5173831161882</v>
+        <v>362.5743504179505</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26724,28 +26842,28 @@
         <v>0.1284</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06848145026658724</v>
+        <v>-0.07321287100609176</v>
       </c>
       <c r="J5" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K5" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005610725940928041</v>
+        <v>0.006394117003990729</v>
       </c>
       <c r="M5" t="n">
-        <v>5.439725803744889</v>
+        <v>5.459091146327989</v>
       </c>
       <c r="N5" t="n">
-        <v>47.67907277679618</v>
+        <v>48.02804263643921</v>
       </c>
       <c r="O5" t="n">
-        <v>6.905003459578871</v>
+        <v>6.930226737736596</v>
       </c>
       <c r="P5" t="n">
-        <v>358.2502008124062</v>
+        <v>358.2974436787343</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26802,28 +26920,28 @@
         <v>0.1387</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05987753888124463</v>
+        <v>-0.05256873451156675</v>
       </c>
       <c r="J6" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K6" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003696676911362995</v>
+        <v>0.002846177180798937</v>
       </c>
       <c r="M6" t="n">
-        <v>5.892562633656537</v>
+        <v>5.902641362402167</v>
       </c>
       <c r="N6" t="n">
-        <v>54.72264664839219</v>
+        <v>55.11013333908094</v>
       </c>
       <c r="O6" t="n">
-        <v>7.39747569434278</v>
+        <v>7.4236199619243</v>
       </c>
       <c r="P6" t="n">
-        <v>362.6132173228965</v>
+        <v>362.5392816324725</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -26880,28 +26998,28 @@
         <v>0.1174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1436308507595264</v>
+        <v>-0.1383199560660617</v>
       </c>
       <c r="J7" t="n">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="K7" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01653157373698166</v>
+        <v>0.01544951060165212</v>
       </c>
       <c r="M7" t="n">
-        <v>6.389199063471554</v>
+        <v>6.381551803849963</v>
       </c>
       <c r="N7" t="n">
-        <v>70.64593845484499</v>
+        <v>70.54346735013337</v>
       </c>
       <c r="O7" t="n">
-        <v>8.40511382759597</v>
+        <v>8.399015856047265</v>
       </c>
       <c r="P7" t="n">
-        <v>363.3530883231853</v>
+        <v>363.3000932797513</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -26939,7 +27057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H674"/>
+  <dimension ref="A1:H677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52375,6 +52493,128 @@
         </is>
       </c>
     </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:56+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>-41.069760347976136,174.85329599906947</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>-41.06904049991391,174.85338956747302</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>-41.068429994606184,174.85305892056533</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>-41.067813860957166,174.8527116930423</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>-41.067279377895744,174.85216684496126</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>-41.066747707445586,174.85161665891178</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:07:17+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr"/>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>-41.0689732505724,174.85369561723812</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>-41.06833349134699,174.85333614974644</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>-41.06774347833669,174.8528542819404</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>-41.06738944166345,174.8519688568765</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>-41.06681365124108,174.85150708137465</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-26 22:07:21+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>-41.06975258535396,174.85333390377104</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>-41.06904930498745,174.85334949552555</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>-41.06845560075349,174.8529853601997</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>-41.067856358914554,174.8526255956624</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>-41.067316613508325,174.85209986386212</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>-41.06677434902505,174.851572389158</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H677"/>
+  <dimension ref="A1:H678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19313,6 +19313,36 @@
       <c r="H677" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>374.49</v>
+      </c>
+      <c r="C678" t="n">
+        <v>358.8266666666667</v>
+      </c>
+      <c r="D678" t="n">
+        <v>366.8354545454546</v>
+      </c>
+      <c r="E678" t="n">
+        <v>361.1442857142857</v>
+      </c>
+      <c r="F678" t="n">
+        <v>366.8254545454545</v>
+      </c>
+      <c r="G678" t="n">
+        <v>362.6033333333333</v>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -19327,7 +19357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B710"/>
+  <dimension ref="A1:B711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26435,6 +26465,16 @@
       </c>
       <c r="B710" t="n">
         <v>0.37</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -27057,7 +27097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H677"/>
+  <dimension ref="A1:H678"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52615,6 +52655,48 @@
         </is>
       </c>
     </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:07:27+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>-41.069737114960134,174.85340944513322</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>-41.06904539069315,174.85336730951371</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>-41.0684389747232,174.8530331228486</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>-41.06785094974633,174.8526365542073</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>-41.06732030168815,174.85209322939014</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>-41.06676522562486,174.85158754932786</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -26648,28 +26648,28 @@
         <v>0.07539999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06069092901673671</v>
+        <v>-0.05985621698095836</v>
       </c>
       <c r="J2" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K2" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002486982971981799</v>
+        <v>0.002427633011093722</v>
       </c>
       <c r="M2" t="n">
-        <v>6.519043059637784</v>
+        <v>6.511632577907194</v>
       </c>
       <c r="N2" t="n">
-        <v>83.41701315240833</v>
+        <v>83.27920104004566</v>
       </c>
       <c r="O2" t="n">
-        <v>9.133291474184338</v>
+        <v>9.125743862285729</v>
       </c>
       <c r="P2" t="n">
-        <v>373.5969699366</v>
+        <v>373.5885202608793</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26726,28 +26726,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.090775754932123</v>
+        <v>0.09125508406785916</v>
       </c>
       <c r="J3" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K3" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01117763148088624</v>
+        <v>0.01133286731144478</v>
       </c>
       <c r="M3" t="n">
-        <v>4.348242661539021</v>
+        <v>4.342933316048381</v>
       </c>
       <c r="N3" t="n">
-        <v>41.42450158468</v>
+        <v>41.35503666564836</v>
       </c>
       <c r="O3" t="n">
-        <v>6.436186882361326</v>
+        <v>6.430788183858053</v>
       </c>
       <c r="P3" t="n">
-        <v>355.0014207947837</v>
+        <v>354.9965652478938</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26804,28 +26804,28 @@
         <v>0.1329</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04446576299729858</v>
+        <v>0.04550684210350429</v>
       </c>
       <c r="J4" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K4" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002574768928131244</v>
+        <v>0.002705012697270193</v>
       </c>
       <c r="M4" t="n">
-        <v>5.090128840312556</v>
+        <v>5.085790358724934</v>
       </c>
       <c r="N4" t="n">
-        <v>43.73537845775994</v>
+        <v>43.67369042470888</v>
       </c>
       <c r="O4" t="n">
-        <v>6.61327290059619</v>
+        <v>6.608607298418395</v>
       </c>
       <c r="P4" t="n">
-        <v>362.5743504179505</v>
+        <v>362.5638474405255</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -26882,28 +26882,28 @@
         <v>0.1284</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07321287100609176</v>
+        <v>-0.07162641370390824</v>
       </c>
       <c r="J5" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K5" t="n">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006394117003990729</v>
+        <v>0.00613817888747259</v>
       </c>
       <c r="M5" t="n">
-        <v>5.459091146327989</v>
+        <v>5.457056056364872</v>
       </c>
       <c r="N5" t="n">
-        <v>48.02804263643921</v>
+        <v>47.98182914351949</v>
       </c>
       <c r="O5" t="n">
-        <v>6.930226737736596</v>
+        <v>6.926891737534194</v>
       </c>
       <c r="P5" t="n">
-        <v>358.2974436787343</v>
+        <v>358.2815140931535</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -26960,28 +26960,28 @@
         <v>0.1387</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.05256873451156675</v>
+        <v>-0.05067731505938869</v>
       </c>
       <c r="J6" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K6" t="n">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002846177180798937</v>
+        <v>0.002652159789965802</v>
       </c>
       <c r="M6" t="n">
-        <v>5.902641362402167</v>
+        <v>5.901093512639495</v>
       </c>
       <c r="N6" t="n">
-        <v>55.11013333908094</v>
+        <v>55.06806787319485</v>
       </c>
       <c r="O6" t="n">
-        <v>7.4236199619243</v>
+        <v>7.420786203172468</v>
       </c>
       <c r="P6" t="n">
-        <v>362.5392816324725</v>
+        <v>362.5200731352719</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27038,28 +27038,28 @@
         <v>0.1174</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1383199560660617</v>
+        <v>-0.137356359002469</v>
       </c>
       <c r="J7" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="K7" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01544951060165212</v>
+        <v>0.01528807544715349</v>
       </c>
       <c r="M7" t="n">
-        <v>6.381551803849963</v>
+        <v>6.374803037232073</v>
       </c>
       <c r="N7" t="n">
-        <v>70.54346735013337</v>
+        <v>70.4315818891354</v>
       </c>
       <c r="O7" t="n">
-        <v>8.399015856047265</v>
+        <v>8.39235258369996</v>
       </c>
       <c r="P7" t="n">
-        <v>363.3000932797513</v>
+        <v>363.2904380213222</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -26639,13 +26639,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0502</v>
+        <v>0.0398</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07539999999999999</v>
+        <v>0.0789</v>
       </c>
       <c r="I2" t="n">
         <v>-0.05985452027547664</v>
@@ -26717,10 +26717,10 @@
         <v>0.7997551890873248</v>
       </c>
       <c r="F3" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1243</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
@@ -26795,13 +26795,13 @@
         <v>0.6004691387631429</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0922</v>
+        <v>0.0964</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1329</v>
+        <v>0.1747</v>
       </c>
       <c r="I4" t="n">
         <v>0.04550530941126257</v>
@@ -26873,13 +26873,13 @@
         <v>0.4002243278500229</v>
       </c>
       <c r="F5" t="n">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0886</v>
+        <v>0.082</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1284</v>
+        <v>0.1956</v>
       </c>
       <c r="I5" t="n">
         <v>-0.07164309368740164</v>
@@ -26951,13 +26951,13 @@
         <v>0.2002448109119989</v>
       </c>
       <c r="F6" t="n">
-        <v>0.11</v>
+        <v>0.105</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0916</v>
+        <v>0.07920000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1387</v>
+        <v>0.1496</v>
       </c>
       <c r="I6" t="n">
         <v>-0.05067164076083432</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07580000000000001</v>
+        <v>0.0688</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1174</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>-0.1373437461791909</v>

--- a/data/nzd0338/nzd0338.xlsx
+++ b/data/nzd0338/nzd0338.xlsx
@@ -500,7 +500,7 @@
         <v>339.78</v>
       </c>
       <c r="G2" t="n">
-        <v>338.19</v>
+        <v>338.11</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         <v>358.36</v>
       </c>
       <c r="G3" t="n">
-        <v>356.24</v>
+        <v>356.21</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         <v>365.76</v>
       </c>
       <c r="G4" t="n">
-        <v>364.15</v>
+        <v>364.14</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
         <v>364.87</v>
       </c>
       <c r="G5" t="n">
-        <v>364.01</v>
+        <v>364.04</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>362.59</v>
       </c>
       <c r="G6" t="n">
-        <v>367.62</v>
+        <v>367.55</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>368.98</v>
       </c>
       <c r="G7" t="n">
-        <v>363.15</v>
+        <v>363.09</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>362.65</v>
       </c>
       <c r="G8" t="n">
-        <v>365.46</v>
+        <v>365.49</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>367.07</v>
       </c>
       <c r="G9" t="n">
-        <v>373.46</v>
+        <v>373.48</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>362.85</v>
+        <v>362.86</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>361.41</v>
       </c>
       <c r="G11" t="n">
-        <v>366.27</v>
+        <v>366.21</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>360.39</v>
       </c>
       <c r="G12" t="n">
-        <v>360.6</v>
+        <v>360.52</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>355.46</v>
       </c>
       <c r="G13" t="n">
-        <v>360.15</v>
+        <v>360.19</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>356.72</v>
       </c>
       <c r="G14" t="n">
-        <v>355.37</v>
+        <v>355.3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         <v>354.99</v>
       </c>
       <c r="G15" t="n">
-        <v>353.52</v>
+        <v>353.48</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>361.49</v>
       </c>
       <c r="G16" t="n">
-        <v>351.7</v>
+        <v>351.63</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>351.14</v>
       </c>
       <c r="G17" t="n">
-        <v>358.14</v>
+        <v>358.16</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>361.52</v>
       </c>
       <c r="G18" t="n">
-        <v>360.51</v>
+        <v>360.43</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>353.98</v>
       </c>
       <c r="G20" t="n">
-        <v>353.89</v>
+        <v>353.88</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>368.33</v>
       </c>
       <c r="G21" t="n">
-        <v>362.32</v>
+        <v>362.24</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>364.14</v>
       </c>
       <c r="G22" t="n">
-        <v>368.19</v>
+        <v>368.22</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>355.81</v>
       </c>
       <c r="G23" t="n">
-        <v>355.43</v>
+        <v>355.35</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         <v>359.1</v>
       </c>
       <c r="G24" t="n">
-        <v>359.78</v>
+        <v>359.79</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>365</v>
       </c>
       <c r="G25" t="n">
-        <v>369.79</v>
+        <v>369.8</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1196,7 +1196,7 @@
         <v>371.06</v>
       </c>
       <c r="G26" t="n">
-        <v>372.69</v>
+        <v>372.62</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>370.44</v>
       </c>
       <c r="G27" t="n">
-        <v>368.1</v>
+        <v>368.01</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1256,7 +1256,7 @@
         <v>357.32</v>
       </c>
       <c r="G28" t="n">
-        <v>362.3</v>
+        <v>362.32</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
         <v>358.03</v>
       </c>
       <c r="G29" t="n">
-        <v>362.79</v>
+        <v>362.77</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
         <v>355.88</v>
       </c>
       <c r="G30" t="n">
-        <v>359.93</v>
+        <v>359.94</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1346,7 +1346,7 @@
         <v>354.94</v>
       </c>
       <c r="G31" t="n">
-        <v>353.38</v>
+        <v>353.33</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>348.7</v>
       </c>
       <c r="G32" t="n">
-        <v>348.64</v>
+        <v>348.69</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
         <v>347.32</v>
       </c>
       <c r="G33" t="n">
-        <v>353.69</v>
+        <v>353.71</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         <v>361.32</v>
       </c>
       <c r="G34" t="n">
-        <v>355.77</v>
+        <v>355.71</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>353.95</v>
       </c>
       <c r="G35" t="n">
-        <v>353.89</v>
+        <v>353.87</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>370.7</v>
       </c>
       <c r="G36" t="n">
-        <v>367.17</v>
+        <v>367.09</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>370.85</v>
       </c>
       <c r="G37" t="n">
-        <v>366.16</v>
+        <v>366.08</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>365.42</v>
       </c>
       <c r="G38" t="n">
-        <v>367.9</v>
+        <v>367.88</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>367.01</v>
       </c>
       <c r="G39" t="n">
-        <v>361.63</v>
+        <v>361.55</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>367.37</v>
       </c>
       <c r="G40" t="n">
-        <v>367.79</v>
+        <v>367.77</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>359.91</v>
       </c>
       <c r="G41" t="n">
-        <v>364.67</v>
+        <v>364.66</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>358.52</v>
       </c>
       <c r="G42" t="n">
-        <v>353.66</v>
+        <v>353.64</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>350.2</v>
       </c>
       <c r="G43" t="n">
-        <v>351.32</v>
+        <v>351.24</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>355.32</v>
       </c>
       <c r="G44" t="n">
-        <v>350.92</v>
+        <v>350.83</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         <v>362.32</v>
       </c>
       <c r="G45" t="n">
-        <v>361.29</v>
+        <v>361.24</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1796,7 +1796,7 @@
         <v>367.32</v>
       </c>
       <c r="G46" t="n">
-        <v>368.91</v>
+        <v>368.93</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         <v>365.96</v>
       </c>
       <c r="G47" t="n">
-        <v>369.3</v>
+        <v>369.31</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         <v>367.09</v>
       </c>
       <c r="G48" t="n">
-        <v>367.92</v>
+        <v>367.85</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1886,7 +1886,7 @@
         <v>361.14</v>
       </c>
       <c r="G49" t="n">
-        <v>362.02</v>
+        <v>362.04</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         <v>367.87</v>
       </c>
       <c r="G50" t="n">
-        <v>367.17</v>
+        <v>367.13</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         <v>365.74</v>
       </c>
       <c r="G51" t="n">
-        <v>366.53</v>
+        <v>366.57</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>367.01</v>
       </c>
       <c r="G52" t="n">
-        <v>362.96</v>
+        <v>362.88</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2006,7 +2006,7 @@
         <v>364.1</v>
       </c>
       <c r="G53" t="n">
-        <v>366.39</v>
+        <v>366.41</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2066,7 +2066,7 @@
         <v>368.11</v>
       </c>
       <c r="G55" t="n">
-        <v>364.85</v>
+        <v>364.8</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2096,7 +2096,7 @@
         <v>365.21</v>
       </c>
       <c r="G56" t="n">
-        <v>367.46</v>
+        <v>367.47</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
         <v>370.47</v>
       </c>
       <c r="G57" t="n">
-        <v>368.25</v>
+        <v>368.17</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
         <v>364.82</v>
       </c>
       <c r="G58" t="n">
-        <v>368.65</v>
+        <v>368.66</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>357.83</v>
       </c>
       <c r="G59" t="n">
-        <v>367.96</v>
+        <v>367.98</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>354.16</v>
       </c>
       <c r="G60" t="n">
-        <v>358.79</v>
+        <v>358.78</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>353.9</v>
       </c>
       <c r="G61" t="n">
-        <v>364.46</v>
+        <v>364.51</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2290,7 +2290,7 @@
         <v>352.55</v>
       </c>
       <c r="G63" t="n">
-        <v>350.63</v>
+        <v>350.54</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         <v>369.11</v>
       </c>
       <c r="G64" t="n">
-        <v>370.11</v>
+        <v>370.12</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>370.35</v>
       </c>
       <c r="G66" t="n">
-        <v>368.43</v>
+        <v>368.34</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         <v>352.85</v>
       </c>
       <c r="G67" t="n">
-        <v>340.9</v>
+        <v>340.84</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>357.56</v>
       </c>
       <c r="G68" t="n">
-        <v>364</v>
+        <v>363.97</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>360.89</v>
       </c>
       <c r="G69" t="n">
-        <v>355.58</v>
+        <v>355.53</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>370.11</v>
       </c>
       <c r="G71" t="n">
-        <v>368.39</v>
+        <v>368.3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>364.94</v>
       </c>
       <c r="G72" t="n">
-        <v>358.96</v>
+        <v>358.89</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         <v>355.78</v>
       </c>
       <c r="G73" t="n">
-        <v>356.56</v>
+        <v>356.5</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>350.24</v>
       </c>
       <c r="G75" t="n">
-        <v>346.26</v>
+        <v>346.2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>354.3</v>
       </c>
       <c r="G77" t="n">
-        <v>351.32</v>
+        <v>351.36</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>359.43</v>
       </c>
       <c r="G78" t="n">
-        <v>350.27</v>
+        <v>350.3</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>360.23</v>
       </c>
       <c r="G80" t="n">
-        <v>358.33</v>
+        <v>358.25</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>352.82</v>
       </c>
       <c r="G81" t="n">
-        <v>346.8</v>
+        <v>346.83</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="n">
-        <v>337.95</v>
+        <v>337.98</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="n">
-        <v>335.16</v>
+        <v>335.17</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>354.66</v>
       </c>
       <c r="G84" t="n">
-        <v>353.19</v>
+        <v>353.13</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>365.53</v>
       </c>
       <c r="G85" t="n">
-        <v>364.39</v>
+        <v>364.37</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         <v>370.88</v>
       </c>
       <c r="G86" t="n">
-        <v>371.85</v>
+        <v>371.8</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         <v>372.11</v>
       </c>
       <c r="G87" t="n">
-        <v>374.39</v>
+        <v>374.41</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -2984,7 +2984,7 @@
         <v>367.94</v>
       </c>
       <c r="G88" t="n">
-        <v>363.98</v>
+        <v>363.9</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>364.94</v>
       </c>
       <c r="G89" t="n">
-        <v>361.07</v>
+        <v>361.02</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
         <v>367.72</v>
       </c>
       <c r="G91" t="n">
-        <v>368.89</v>
+        <v>368.92</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3092,7 +3092,7 @@
         <v>371.07</v>
       </c>
       <c r="G92" t="n">
-        <v>367.14</v>
+        <v>367.05</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>368.74</v>
       </c>
       <c r="G94" t="n">
-        <v>364.94</v>
+        <v>364.86</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>368.64</v>
       </c>
       <c r="G95" t="n">
-        <v>370.2</v>
+        <v>370.16</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>368.86</v>
       </c>
       <c r="G96" t="n">
-        <v>367.63</v>
+        <v>367.59</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>372.23</v>
       </c>
       <c r="G98" t="n">
-        <v>370.1</v>
+        <v>370.05</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>357.58</v>
       </c>
       <c r="G99" t="n">
-        <v>357.84</v>
+        <v>357.77</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>358.89</v>
       </c>
       <c r="G100" t="n">
-        <v>356.32</v>
+        <v>356.23</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>358.83</v>
       </c>
       <c r="G101" t="n">
-        <v>357.04</v>
+        <v>356.95</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>352.98</v>
       </c>
       <c r="G102" t="n">
-        <v>349.71</v>
+        <v>349.74</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>351.2</v>
       </c>
       <c r="G103" t="n">
-        <v>344.74</v>
+        <v>344.76</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>362.89</v>
       </c>
       <c r="G104" t="n">
-        <v>364.06</v>
+        <v>364</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         <v>358.7</v>
       </c>
       <c r="G107" t="n">
-        <v>358.97</v>
+        <v>358.91</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -3532,7 +3532,7 @@
         <v>340.01</v>
       </c>
       <c r="G108" t="n">
-        <v>325.19</v>
+        <v>325.22</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -3552,7 +3552,7 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="n">
-        <v>348.2</v>
+        <v>348.11</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>373.2</v>
       </c>
       <c r="G110" t="n">
-        <v>370.58</v>
+        <v>370.61</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -3658,7 +3658,7 @@
         <v>364.97</v>
       </c>
       <c r="G113" t="n">
-        <v>365.24</v>
+        <v>365.21</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>366.12</v>
       </c>
       <c r="G115" t="n">
-        <v>367.84</v>
+        <v>367.82</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>357.94</v>
       </c>
       <c r="G116" t="n">
-        <v>354.59</v>
+        <v>354.53</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>371.27</v>
       </c>
       <c r="G117" t="n">
-        <v>363.82</v>
+        <v>363.74</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>371.65</v>
       </c>
       <c r="G118" t="n">
-        <v>373.65</v>
+        <v>373.66</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>372.89</v>
       </c>
       <c r="G119" t="n">
-        <v>369.52</v>
+        <v>369.55</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>352.59</v>
       </c>
       <c r="G120" t="n">
-        <v>337.77</v>
+        <v>337.69</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>358.85</v>
       </c>
       <c r="G122" t="n">
-        <v>362.49</v>
+        <v>362.46</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -4030,7 +4030,7 @@
         <v>369.95</v>
       </c>
       <c r="G127" t="n">
-        <v>373.54</v>
+        <v>373.49</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>371.01</v>
       </c>
       <c r="G128" t="n">
-        <v>370.44</v>
+        <v>370.46</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -4090,7 +4090,7 @@
         <v>365.75</v>
       </c>
       <c r="G129" t="n">
-        <v>366.74</v>
+        <v>366.65</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4120,7 +4120,7 @@
         <v>357.38</v>
       </c>
       <c r="G130" t="n">
-        <v>358.76</v>
+        <v>358.78</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -4142,7 +4142,7 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="n">
-        <v>358.01</v>
+        <v>358.03</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>354.81</v>
       </c>
       <c r="G133" t="n">
-        <v>351.88</v>
+        <v>351.85</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>362.14</v>
       </c>
       <c r="G134" t="n">
-        <v>357.4</v>
+        <v>357.33</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>346.95</v>
       </c>
       <c r="G135" t="n">
-        <v>344.55</v>
+        <v>344.59</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -4298,7 +4298,7 @@
         <v>363.16</v>
       </c>
       <c r="G137" t="n">
-        <v>362.85</v>
+        <v>362.79</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>360.7</v>
       </c>
       <c r="G138" t="n">
-        <v>359.04</v>
+        <v>359.08</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>359.29</v>
       </c>
       <c r="G139" t="n">
-        <v>363.92</v>
+        <v>363.85</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         <v>356.43</v>
       </c>
       <c r="G140" t="n">
-        <v>356.65</v>
+        <v>356.68</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>355.59</v>
       </c>
       <c r="G141" t="n">
-        <v>368.44</v>
+        <v>368.46</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>363.99</v>
       </c>
       <c r="G143" t="n">
-        <v>359.76</v>
+        <v>359.71</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>361.58</v>
       </c>
       <c r="G144" t="n">
-        <v>360.68</v>
+        <v>360.63</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>365.8</v>
       </c>
       <c r="G145" t="n">
-        <v>363.25</v>
+        <v>363.22</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>370.75</v>
       </c>
       <c r="G146" t="n">
-        <v>373.49</v>
+        <v>373.45</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>379.16</v>
       </c>
       <c r="G149" t="n">
-        <v>380.66</v>
+        <v>380.69</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -4664,7 +4664,7 @@
         <v>367.02</v>
       </c>
       <c r="G150" t="n">
-        <v>370.37</v>
+        <v>370.4</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
         <v>361.74</v>
       </c>
       <c r="G152" t="n">
-        <v>360.98</v>
+        <v>360.97</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -4774,7 +4774,7 @@
         <v>368.56</v>
       </c>
       <c r="G154" t="n">
-        <v>361.83</v>
+        <v>361.8</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>365.16</v>
       </c>
       <c r="G156" t="n">
-        <v>370.63</v>
+        <v>370.66</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>364.55</v>
       </c>
       <c r="G157" t="n">
-        <v>362.9</v>
+        <v>362.85</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -4890,7 +4890,7 @@
         <v>371.62</v>
       </c>
       <c r="G158" t="n">
-        <v>363.43</v>
+        <v>363.35</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         <v>364.36</v>
       </c>
       <c r="G159" t="n">
-        <v>369.33</v>
+        <v>369.34</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -4942,7 +4942,7 @@
         <v>366.89</v>
       </c>
       <c r="G160" t="n">
-        <v>367.17</v>
+        <v>367.19</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>355.86</v>
       </c>
       <c r="G161" t="n">
-        <v>360.02</v>
+        <v>360.03</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="n">
-        <v>363.35</v>
+        <v>363.36</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         <v>365.92</v>
       </c>
       <c r="G163" t="n">
-        <v>368.9</v>
+        <v>368.94</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         <v>371.02</v>
       </c>
       <c r="G164" t="n">
-        <v>369.8</v>
+        <v>369.77</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>369.24</v>
       </c>
       <c r="G165" t="n">
-        <v>369.59</v>
+        <v>369.56</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>364.65</v>
       </c>
       <c r="G166" t="n">
-        <v>367.23</v>
+        <v>367.22</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>362.59</v>
       </c>
       <c r="G167" t="n">
-        <v>362.79</v>
+        <v>362.81</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>362.87</v>
       </c>
       <c r="G168" t="n">
-        <v>359.12</v>
+        <v>359.04</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>359.9</v>
       </c>
       <c r="G169" t="n">
-        <v>360.6</v>
+        <v>360.57</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -5210,7 +5210,7 @@
         <v>354.7</v>
       </c>
       <c r="G170" t="n">
-        <v>355.43</v>
+        <v>355.44</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         <v>359.64</v>
       </c>
       <c r="G171" t="n">
-        <v>358.54</v>
+        <v>358.48</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
-        <v>334.34</v>
+        <v>334.26</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
-        <v>353.13</v>
+        <v>353.14</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
@@ -5334,7 +5334,7 @@
         <v>368.14</v>
       </c>
       <c r="G175" t="n">
-        <v>364.54</v>
+        <v>364.51</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
-        <v>364.95</v>
+        <v>364.86</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         <v>362.52</v>
       </c>
       <c r="G177" t="n">
-        <v>362.19</v>
+        <v>362.12</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>366.31</v>
       </c>
       <c r="G179" t="n">
-        <v>364.34</v>
+        <v>364.3</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>366.11</v>
       </c>
       <c r="G180" t="n">
-        <v>368.15</v>
+        <v>368.17</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
@@ -5500,7 +5500,7 @@
         <v>362</v>
       </c>
       <c r="G181" t="n">
-        <v>356.29</v>
+        <v>356.31</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         <v>370.23</v>
       </c>
       <c r="G183" t="n">
-        <v>369.13</v>
+        <v>369.1</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>364.28</v>
       </c>
       <c r="G185" t="n">
-        <v>359.57</v>
+        <v>359.5</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>361.12</v>
       </c>
       <c r="G186" t="n">
-        <v>358.64</v>
+        <v>358.66</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>360.88</v>
       </c>
       <c r="G188" t="n">
-        <v>358.25</v>
+        <v>358.22</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -5740,7 +5740,7 @@
         <v>365.01</v>
       </c>
       <c r="G190" t="n">
-        <v>364.36</v>
+        <v>364.32</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>374.43</v>
       </c>
       <c r="G191" t="n">
-        <v>372.61</v>
+        <v>372.56</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>375.74</v>
       </c>
       <c r="G192" t="n">
-        <v>373.39</v>
+        <v>373.31</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
@@ -5880,7 +5880,7 @@
         <v>360.53</v>
       </c>
       <c r="G195" t="n">
-        <v>369.34</v>
+        <v>369.33</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -5930,7 +5930,7 @@
         <v>367.9</v>
       </c>
       <c r="G197" t="n">
-        <v>368.18</v>
+        <v>368.19</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>350.66</v>
       </c>
       <c r="G201" t="n">
-        <v>356.16</v>
+        <v>356.08</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>365.79</v>
       </c>
       <c r="G202" t="n">
-        <v>365.71</v>
+        <v>365.62</v>
       </c>
       <c r="H202" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>355.65</v>
       </c>
       <c r="G204" t="n">
-        <v>357.92</v>
+        <v>357.95</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
@@ -6164,7 +6164,7 @@
         <v>368.72</v>
       </c>
       <c r="G206" t="n">
-        <v>368.93</v>
+        <v>368.9</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         <v>370.34</v>
       </c>
       <c r="G207" t="n">
-        <v>371.26</v>
+        <v>371.24</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>373.05</v>
       </c>
       <c r="G208" t="n">
-        <v>370.54</v>
+        <v>370.56</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="n">
-        <v>368.74</v>
+        <v>368.71</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
@@ -6304,7 +6304,7 @@
         <v>368.14</v>
       </c>
       <c r="G211" t="n">
-        <v>364.91</v>
+        <v>364.92</v>
       </c>
       <c r="H211" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>366.25</v>
       </c>
       <c r="G212" t="n">
-        <v>365.46</v>
+        <v>365.47</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         <v>373.9</v>
       </c>
       <c r="G213" t="n">
-        <v>371.98</v>
+        <v>371.89</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="n">
-        <v>362.21</v>
+        <v>362.16</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         <v>346.32</v>
       </c>
       <c r="G216" t="n">
-        <v>350.11</v>
+        <v>350.03</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -6494,7 +6494,7 @@
         <v>362.45</v>
       </c>
       <c r="G218" t="n">
-        <v>342.87</v>
+        <v>342.85</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>359.86</v>
       </c>
       <c r="G219" t="n">
-        <v>352.57</v>
+        <v>352.5</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>363.42</v>
       </c>
       <c r="G221" t="n">
-        <v>364.2</v>
+        <v>364.22</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>361.46</v>
       </c>
       <c r="G222" t="n">
-        <v>358.51</v>
+        <v>358.43</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>369.37</v>
       </c>
       <c r="G223" t="n">
-        <v>361.02</v>
+        <v>361.05</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>368.64</v>
       </c>
       <c r="G224" t="n">
-        <v>372.98</v>
+        <v>372.92</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>360.14</v>
       </c>
       <c r="G225" t="n">
-        <v>357.32</v>
+        <v>357.24</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>364.12</v>
       </c>
       <c r="G226" t="n">
-        <v>360.95</v>
+        <v>360.9</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>362.97</v>
       </c>
       <c r="G228" t="n">
-        <v>358.95</v>
+        <v>358.86</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>370.69</v>
       </c>
       <c r="G231" t="n">
-        <v>368.44</v>
+        <v>368.36</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>372.94</v>
       </c>
       <c r="G233" t="n">
-        <v>368.36</v>
+        <v>368.3</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         <v>368.11</v>
       </c>
       <c r="G234" t="n">
-        <v>367.43</v>
+        <v>367.39</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>370.19</v>
       </c>
       <c r="G235" t="n">
-        <v>365.03</v>
+        <v>364.97</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>361.89</v>
       </c>
       <c r="G236" t="n">
-        <v>357.93</v>
+        <v>357.85</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -7004,7 +7004,7 @@
         <v>351.14</v>
       </c>
       <c r="G237" t="n">
-        <v>349.39</v>
+        <v>349.34</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>360.71</v>
       </c>
       <c r="G238" t="n">
-        <v>360.66</v>
+        <v>360.64</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>363.73</v>
       </c>
       <c r="G239" t="n">
-        <v>360.07</v>
+        <v>360.08</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>360.58</v>
       </c>
       <c r="G240" t="n">
-        <v>354.94</v>
+        <v>354.89</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
@@ -7118,7 +7118,7 @@
         <v>355.12</v>
       </c>
       <c r="G241" t="n">
-        <v>355.8</v>
+        <v>355.84</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>355.75</v>
       </c>
       <c r="G242" t="n">
-        <v>356.26</v>
+        <v>356.18</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>358.12</v>
       </c>
       <c r="G243" t="n">
-        <v>358.41</v>
+        <v>358.37</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>361.58</v>
       </c>
       <c r="G244" t="n">
-        <v>367.07</v>
+        <v>367.06</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>359.24</v>
       </c>
       <c r="G246" t="n">
-        <v>360.56</v>
+        <v>360.55</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
@@ -7306,7 +7306,7 @@
         <v>366.76</v>
       </c>
       <c r="G248" t="n">
-        <v>369.28</v>
+        <v>369.3</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
         <v>360.4</v>
       </c>
       <c r="G249" t="n">
-        <v>358.44</v>
+        <v>358.47</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>368.68</v>
       </c>
       <c r="G252" t="n">
-        <v>372.41</v>
+        <v>372.38</v>
       </c>
       <c r="H252" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>366.7</v>
       </c>
       <c r="G253" t="n">
-        <v>366.21</v>
+        <v>366.19</v>
       </c>
       <c r="H253" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>360.27</v>
       </c>
       <c r="G254" t="n">
-        <v>356.61</v>
+        <v>356.52</v>
       </c>
       <c r="H254" t="inlineStr">
         <is>
@@ -7488,7 +7488,7 @@
         <v>362.18</v>
       </c>
       <c r="G255" t="n">
-        <v>362.6</v>
+        <v>362.63</v>
       </c>
       <c r="H255" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>368.56</v>
       </c>
       <c r="G256" t="n">
-        <v>365.7</v>
+        <v>365.62</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
@@ -7548,7 +7548,7 @@
         <v>368.39</v>
       </c>
       <c r="G257" t="n">
-        <v>369.53</v>
+        <v>369.56</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>369.7</v>
       </c>
       <c r="G258" t="n">
-        <v>369.85</v>
+        <v>369.8</v>
       </c>
       <c r="H258" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>368.55</v>
       </c>
       <c r="G259" t="n">
-        <v>369.55</v>
+        <v>369.5</v>
       </c>
       <c r="H259" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>372.78</v>
       </c>
       <c r="G261" t="n">
-        <v>373.64</v>
+        <v>373.61</v>
       </c>
       <c r="H261" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>368.33</v>
       </c>
       <c r="G263" t="n">
-        <v>371.26</v>
+        <v>371.28</v>
       </c>
       <c r="H263" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>367.68</v>
       </c>
       <c r="G264" t="n">
-        <v>370.58</v>
+        <v>370.49</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>352.21</v>
       </c>
       <c r="G265" t="n">
-        <v>346.79</v>
+        <v>346.83</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>362.38</v>
       </c>
       <c r="G267" t="n">
-        <v>364.02</v>
+        <v>363.94</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="n">
-        <v>352.63</v>
+        <v>352.59</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>353.02</v>
       </c>
       <c r="G269" t="n">
-        <v>353.21</v>
+        <v>353.18</v>
       </c>
       <c r="H269" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>356.38</v>
       </c>
       <c r="G270" t="n">
-        <v>353.54</v>
+        <v>353.51</v>
       </c>
       <c r="H270" t="inlineStr">
         <is>
@@ -7960,7 +7960,7 @@
         <v>356.66</v>
       </c>
       <c r="G272" t="n">
-        <v>355.21</v>
+        <v>355.22</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="n">
-        <v>355.66</v>
+        <v>355.7</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
@@ -8060,7 +8060,7 @@
         <v>361.51</v>
       </c>
       <c r="G276" t="n">
-        <v>361.96</v>
+        <v>361.99</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>359.7</v>
       </c>
       <c r="G277" t="n">
-        <v>358.14</v>
+        <v>358.06</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>358.06</v>
       </c>
       <c r="G278" t="n">
-        <v>357.12</v>
+        <v>357.07</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>367.03</v>
       </c>
       <c r="G280" t="n">
-        <v>367.29</v>
+        <v>367.25</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
@@ -8206,7 +8206,7 @@
         <v>366.72</v>
       </c>
       <c r="G281" t="n">
-        <v>364.99</v>
+        <v>364.94</v>
       </c>
       <c r="H281" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>366.41</v>
       </c>
       <c r="G283" t="n">
-        <v>368.18</v>
+        <v>368.2</v>
       </c>
       <c r="H283" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>367.28</v>
       </c>
       <c r="G285" t="n">
-        <v>367.41</v>
+        <v>367.43</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
@@ -8336,7 +8336,7 @@
         <v>372.02</v>
       </c>
       <c r="G286" t="n">
-        <v>360.31</v>
+        <v>360.22</v>
       </c>
       <c r="H286" t="inlineStr">
         <is>
@@ -8366,7 +8366,7 @@
         <v>369.75</v>
       </c>
       <c r="G287" t="n">
-        <v>367.39</v>
+        <v>367.42</v>
       </c>
       <c r="H287" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         <v>367.45</v>
       </c>
       <c r="G288" t="n">
-        <v>365.51</v>
+        <v>365.43</v>
       </c>
       <c r="H288" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>362.74</v>
       </c>
       <c r="G291" t="n">
-        <v>361.63</v>
+        <v>361.58</v>
       </c>
       <c r="H291" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>371.95</v>
       </c>
       <c r="G296" t="n">
-        <v>369.08</v>
+        <v>368.99</v>
       </c>
       <c r="H296" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>366.59</v>
       </c>
       <c r="G297" t="n">
-        <v>362.31</v>
+        <v>362.34</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
@@ -8656,7 +8656,7 @@
         <v>366.77</v>
       </c>
       <c r="G298" t="n">
-        <v>368.19</v>
+        <v>368.22</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
@@ -8708,7 +8708,7 @@
         <v>368.07</v>
       </c>
       <c r="G300" t="n">
-        <v>368.43</v>
+        <v>368.47</v>
       </c>
       <c r="H300" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
         <v>369.83</v>
       </c>
       <c r="G301" t="n">
-        <v>368.22</v>
+        <v>368.17</v>
       </c>
       <c r="H301" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>367.11</v>
       </c>
       <c r="G303" t="n">
-        <v>366.97</v>
+        <v>366.95</v>
       </c>
       <c r="H303" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>366.51</v>
       </c>
       <c r="G304" t="n">
-        <v>358.74</v>
+        <v>358.67</v>
       </c>
       <c r="H304" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>370.12</v>
       </c>
       <c r="G305" t="n">
-        <v>360.46</v>
+        <v>360.36</v>
       </c>
       <c r="H305" t="inlineStr">
         <is>
@@ -8872,7 +8872,7 @@
         <v>362.32</v>
       </c>
       <c r="G306" t="n">
-        <v>361.58</v>
+        <v>361.61</v>
       </c>
       <c r="H306" t="inlineStr">
         <is>
@@ -8902,7 +8902,7 @@
         <v>360.48</v>
       </c>
       <c r="G307" t="n">
-        <v>360.92</v>
+        <v>360.93</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
@@ -8932,7 +8932,7 @@
         <v>357.36</v>
       </c>
       <c r="G308" t="n">
-        <v>357.85</v>
+        <v>357.81</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>351.12</v>
       </c>
       <c r="G309" t="n">
-        <v>347.85</v>
+        <v>347.86</v>
       </c>
       <c r="H309" t="inlineStr">
         <is>
@@ -8992,7 +8992,7 @@
         <v>351.82</v>
       </c>
       <c r="G310" t="n">
-        <v>350.39</v>
+        <v>350.36</v>
       </c>
       <c r="H310" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>336.93</v>
       </c>
       <c r="G311" t="n">
-        <v>334.92</v>
+        <v>334.89</v>
       </c>
       <c r="H311" t="inlineStr">
         <is>
@@ -9046,7 +9046,7 @@
         <v>349.79</v>
       </c>
       <c r="G312" t="n">
-        <v>346.84</v>
+        <v>346.83</v>
       </c>
       <c r="H312" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>358.26</v>
       </c>
       <c r="G313" t="n">
-        <v>348.65</v>
+        <v>348.6</v>
       </c>
       <c r="H313" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>371.43</v>
       </c>
       <c r="G314" t="n">
-        <v>369.79</v>
+        <v>369.71</v>
       </c>
       <c r="H314" t="inlineStr">
         <is>
@@ -9130,7 +9130,7 @@
         <v>355.86</v>
       </c>
       <c r="G315" t="n">
-        <v>354.12</v>
+        <v>354.15</v>
       </c>
       <c r="H315" t="inlineStr">
         <is>
@@ -9160,7 +9160,7 @@
         <v>363.78</v>
       </c>
       <c r="G316" t="n">
-        <v>358.53</v>
+        <v>358.46</v>
       </c>
       <c r="H316" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>365.47</v>
       </c>
       <c r="G317" t="n">
-        <v>363.25</v>
+        <v>363.23</v>
       </c>
       <c r="H317" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>368.7</v>
       </c>
       <c r="G318" t="n">
-        <v>363.17</v>
+        <v>363.12</v>
       </c>
       <c r="H318" t="inlineStr">
         <is>
@@ -9250,7 +9250,7 @@
         <v>368.99</v>
       </c>
       <c r="G319" t="n">
-        <v>359.61</v>
+        <v>359.54</v>
       </c>
       <c r="H319" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>359.17</v>
       </c>
       <c r="G320" t="n">
-        <v>354.92</v>
+        <v>354.91</v>
       </c>
       <c r="H320" t="inlineStr">
         <is>
@@ -9310,7 +9310,7 @@
         <v>364.13</v>
       </c>
       <c r="G321" t="n">
-        <v>365.14</v>
+        <v>365.16</v>
       </c>
       <c r="H321" t="inlineStr">
         <is>
@@ -9340,7 +9340,7 @@
         <v>363.51</v>
       </c>
       <c r="G322" t="n">
-        <v>362.69</v>
+        <v>362.61</v>
       </c>
       <c r="H322" t="inlineStr">
         <is>
@@ -9370,7 +9370,7 @@
         <v>354.38</v>
       </c>
       <c r="G323" t="n">
-        <v>352.47</v>
+        <v>352.39</v>
       </c>
       <c r="H323" t="inlineStr">
         <is>
@@ -9424,7 +9424,7 @@
         <v>365.24</v>
       </c>
       <c r="G325" t="n">
-        <v>362.5</v>
+        <v>362.43</v>
       </c>
       <c r="H325" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>367.64</v>
       </c>
       <c r="G326" t="n">
-        <v>367.78</v>
+        <v>367.74</v>
       </c>
       <c r="H326" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         <v>367.07</v>
       </c>
       <c r="G327" t="n">
-        <v>361.79</v>
+        <v>361.76</v>
       </c>
       <c r="H327" t="inlineStr">
         <is>
@@ -9530,7 +9530,7 @@
         <v>369.07</v>
       </c>
       <c r="G329" t="n">
-        <v>370.4</v>
+        <v>370.41</v>
       </c>
       <c r="H329" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>368.76</v>
       </c>
       <c r="G331" t="n">
-        <v>371.46</v>
+        <v>371.49</v>
       </c>
       <c r="H331" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>351.33</v>
       </c>
       <c r="G332" t="n">
-        <v>346.87</v>
+        <v>346.78</v>
       </c>
       <c r="H332" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>368.29</v>
       </c>
       <c r="G333" t="n">
-        <v>366.95</v>
+        <v>366.89</v>
       </c>
       <c r="H333" t="inlineStr">
         <is>
@@ -9702,7 +9702,7 @@
         <v>360.57</v>
       </c>
       <c r="G335" t="n">
-        <v>361.61</v>
+        <v>361.58</v>
       </c>
       <c r="H335" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>367.86</v>
       </c>
       <c r="G337" t="n">
-        <v>364.23</v>
+        <v>364.19</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
@@ -9808,7 +9808,7 @@
         <v>365.97</v>
       </c>
       <c r="G339" t="n">
-        <v>362.51</v>
+        <v>362.46</v>
       </c>
       <c r="H339" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>364.62</v>
       </c>
       <c r="G340" t="n">
-        <v>369.45</v>
+        <v>369.37</v>
       </c>
       <c r="H340" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>355.74</v>
       </c>
       <c r="G341" t="n">
-        <v>356.3</v>
+        <v>356.29</v>
       </c>
       <c r="H341" t="inlineStr">
         <is>
@@ -9894,7 +9894,7 @@
         <v>357.46</v>
       </c>
       <c r="G342" t="n">
-        <v>359.14</v>
+        <v>359.16</v>
       </c>
       <c r="H342" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>354.12</v>
       </c>
       <c r="G344" t="n">
-        <v>352.69</v>
+        <v>352.61</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>352.98</v>
       </c>
       <c r="G345" t="n">
-        <v>350.82</v>
+        <v>350.87</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>358.66</v>
       </c>
       <c r="G346" t="n">
-        <v>353.33</v>
+        <v>353.24</v>
       </c>
       <c r="H346" t="inlineStr">
         <is>
@@ -10030,7 +10030,7 @@
       <c r="E347" t="inlineStr"/>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="n">
-        <v>345.86</v>
+        <v>345.8</v>
       </c>
       <c r="H347" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="n">
-        <v>355.22</v>
+        <v>355.24</v>
       </c>
       <c r="H348" t="inlineStr">
         <is>
@@ -10134,7 +10134,7 @@
         <v>354.2</v>
       </c>
       <c r="G351" t="n">
-        <v>352.97</v>
+        <v>352.94</v>
       </c>
       <c r="H351" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>349.74</v>
       </c>
       <c r="G353" t="n">
-        <v>348.44</v>
+        <v>348.39</v>
       </c>
       <c r="H353" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>349.32</v>
       </c>
       <c r="G355" t="n">
-        <v>351.76</v>
+        <v>351.79</v>
       </c>
       <c r="H355" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>360.26</v>
       </c>
       <c r="G356" t="n">
-        <v>360.26</v>
+        <v>360.28</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>361.73</v>
       </c>
       <c r="G357" t="n">
-        <v>361.67</v>
+        <v>361.7</v>
       </c>
       <c r="H357" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>364.66</v>
       </c>
       <c r="G358" t="n">
-        <v>367.23</v>
+        <v>367.15</v>
       </c>
       <c r="H358" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>366.84</v>
       </c>
       <c r="G359" t="n">
-        <v>360.02</v>
+        <v>359.93</v>
       </c>
       <c r="H359" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>355.8</v>
       </c>
       <c r="G360" t="n">
-        <v>354.31</v>
+        <v>354.25</v>
       </c>
       <c r="H360" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>359.02</v>
       </c>
       <c r="G361" t="n">
-        <v>358.88</v>
+        <v>358.86</v>
       </c>
       <c r="H361" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>363.4</v>
       </c>
       <c r="G362" t="n">
-        <v>359.44</v>
+        <v>359.47</v>
       </c>
       <c r="H362" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>361.05</v>
       </c>
       <c r="G363" t="n">
-        <v>359.18</v>
+        <v>359.1</v>
       </c>
       <c r="H363" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>367.16</v>
       </c>
       <c r="G364" t="n">
-        <v>365.08</v>
+        <v>365.03</v>
       </c>
       <c r="H364" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>366.15</v>
       </c>
       <c r="G365" t="n">
-        <v>361.53</v>
+        <v>361.49</v>
       </c>
       <c r="H365" t="inlineStr">
         <is>
@@ -10610,7 +10610,7 @@
         <v>369.82</v>
       </c>
       <c r="G368" t="n">
-        <v>367.38</v>
+        <v>367.29</v>
       </c>
       <c r="H368" t="inlineStr">
         <is>
@@ -10640,7 +10640,7 @@
         <v>355.13</v>
       </c>
       <c r="G369" t="n">
-        <v>364.44</v>
+        <v>364.35</v>
       </c>
       <c r="H369" t="inlineStr">
         <is>
@@ -10670,7 +10670,7 @@
         <v>357.72</v>
       </c>
       <c r="G370" t="n">
-        <v>356.5</v>
+        <v>356.49</v>
       </c>
       <c r="H370" t="inlineStr">
         <is>
@@ -10700,7 +10700,7 @@
         <v>363.32</v>
       </c>
       <c r="G371" t="n">
-        <v>357.8</v>
+        <v>357.77</v>
       </c>
       <c r="H371" t="inlineStr">
         <is>
@@ -10730,7 +10730,7 @@
         <v>356.62</v>
       </c>
       <c r="G372" t="n">
-        <v>373.25</v>
+        <v>373.24</v>
       </c>
       <c r="H372" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>359.12</v>
       </c>
       <c r="G374" t="n">
-        <v>352.07</v>
+        <v>352.09</v>
       </c>
       <c r="H374" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>336.9</v>
       </c>
       <c r="G375" t="n">
-        <v>333.95</v>
+        <v>333.89</v>
       </c>
       <c r="H375" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
         <v>358.97</v>
       </c>
       <c r="G376" t="n">
-        <v>354.23</v>
+        <v>354.15</v>
       </c>
       <c r="H376" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>350.49</v>
       </c>
       <c r="G379" t="n">
-        <v>353.58</v>
+        <v>353.62</v>
       </c>
       <c r="H379" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         <v>356.67</v>
       </c>
       <c r="G380" t="n">
-        <v>353.26</v>
+        <v>353.31</v>
       </c>
       <c r="H380" t="inlineStr">
         <is>
@@ -10982,7 +10982,7 @@
         <v>355.34</v>
       </c>
       <c r="G381" t="n">
-        <v>341.69</v>
+        <v>341.71</v>
       </c>
       <c r="H381" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>369.92</v>
       </c>
       <c r="G385" t="n">
-        <v>369.95</v>
+        <v>369.87</v>
       </c>
       <c r="H385" t="inlineStr">
         <is>
@@ -11122,7 +11122,7 @@
         <v>358.14</v>
       </c>
       <c r="G386" t="n">
-        <v>358.71</v>
+        <v>358.7</v>
       </c>
       <c r="H386" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>363.19</v>
       </c>
       <c r="G387" t="n">
-        <v>360.95</v>
+        <v>360.91</v>
       </c>
       <c r="H387" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>362.86</v>
       </c>
       <c r="G392" t="n">
-        <v>363.96</v>
+        <v>363.99</v>
       </c>
       <c r="H392" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>362.41</v>
       </c>
       <c r="G393" t="n">
-        <v>357.15</v>
+        <v>357.08</v>
       </c>
       <c r="H393" t="inlineStr">
         <is>
@@ -11318,7 +11318,7 @@
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="n">
-        <v>364.37</v>
+        <v>364.32</v>
       </c>
       <c r="H394" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>364.6</v>
       </c>
       <c r="G395" t="n">
-        <v>364.51</v>
+        <v>364.52</v>
       </c>
       <c r="H395" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>366.49</v>
       </c>
       <c r="G396" t="n">
-        <v>369.7</v>
+        <v>369.67</v>
       </c>
       <c r="H396" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>357.15</v>
       </c>
       <c r="G397" t="n">
-        <v>359.11</v>
+        <v>359.09</v>
       </c>
       <c r="H397" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>372.47</v>
       </c>
       <c r="G400" t="n">
-        <v>368.85</v>
+        <v>368.76</v>
       </c>
       <c r="H400" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>364.17</v>
       </c>
       <c r="G401" t="n">
-        <v>362.97</v>
+        <v>363</v>
       </c>
       <c r="H401" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         <v>363.71</v>
       </c>
       <c r="G402" t="n">
-        <v>361.89</v>
+        <v>361.92</v>
       </c>
       <c r="H402" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>359.52</v>
       </c>
       <c r="G403" t="n">
-        <v>356.53</v>
+        <v>356.47</v>
       </c>
       <c r="H403" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>361.73</v>
       </c>
       <c r="G404" t="n">
-        <v>360.91</v>
+        <v>360.9</v>
       </c>
       <c r="H404" t="inlineStr">
         <is>
@@ -11626,7 +11626,7 @@
       <c r="E405" t="inlineStr"/>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="n">
-        <v>361.3</v>
+        <v>361.25</v>
       </c>
       <c r="H405" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>344.27</v>
       </c>
       <c r="G406" t="n">
-        <v>344.73</v>
+        <v>344.75</v>
       </c>
       <c r="H406" t="inlineStr">
         <is>
@@ -11686,7 +11686,7 @@
         <v>363.58</v>
       </c>
       <c r="G407" t="n">
-        <v>355.84</v>
+        <v>355.87</v>
       </c>
       <c r="H407" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         <v>355.81</v>
       </c>
       <c r="G408" t="n">
-        <v>353.69</v>
+        <v>353.62</v>
       </c>
       <c r="H408" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         <v>352.44</v>
       </c>
       <c r="G411" t="n">
-        <v>352.38</v>
+        <v>352.35</v>
       </c>
       <c r="H411" t="inlineStr">
         <is>
@@ -11818,7 +11818,7 @@
         <v>365.24</v>
       </c>
       <c r="G412" t="n">
-        <v>361.11</v>
+        <v>361.05</v>
       </c>
       <c r="H412" t="inlineStr">
         <is>
@@ -11846,7 +11846,7 @@
         <v>355.15</v>
       </c>
       <c r="G413" t="n">
-        <v>342.69</v>
+        <v>342.68</v>
       </c>
       <c r="H413" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>364.08</v>
       </c>
       <c r="G414" t="n">
-        <v>357.8</v>
+        <v>357.83</v>
       </c>
       <c r="H414" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>361.03</v>
       </c>
       <c r="G415" t="n">
-        <v>357.61</v>
+        <v>357.52</v>
       </c>
       <c r="H415" t="inlineStr">
         <is>
@@ -11958,7 +11958,7 @@
         <v>373.21</v>
       </c>
       <c r="G417" t="n">
-        <v>372.72</v>
+        <v>372.73</v>
       </c>
       <c r="H417" t="inlineStr">
         <is>
@@ -11980,7 +11980,7 @@
         <v>358.46</v>
       </c>
       <c r="G418" t="n">
-        <v>358.19</v>
+        <v>358.15</v>
       </c>
       <c r="H418" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         <v>366.87</v>
       </c>
       <c r="G420" t="n">
-        <v>360.34</v>
+        <v>360.26</v>
       </c>
       <c r="H420" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>363.88</v>
       </c>
       <c r="G422" t="n">
-        <v>362.6</v>
+        <v>362.52</v>
       </c>
       <c r="H422" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>362.27</v>
       </c>
       <c r="G424" t="n">
-        <v>361.1</v>
+        <v>361.02</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
@@ -12214,7 +12214,7 @@
         <v>372.83</v>
       </c>
       <c r="G427" t="n">
-        <v>367.75</v>
+        <v>367.69</v>
       </c>
       <c r="H427" t="inlineStr">
         <is>
@@ -12244,7 +12244,7 @@
         <v>367.28</v>
       </c>
       <c r="G428" t="n">
-        <v>370.7</v>
+        <v>370.67</v>
       </c>
       <c r="H428" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>365.43</v>
       </c>
       <c r="G429" t="n">
-        <v>364.31</v>
+        <v>364.26</v>
       </c>
       <c r="H429" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>369.87</v>
       </c>
       <c r="G430" t="n">
-        <v>369.2</v>
+        <v>369.14</v>
       </c>
       <c r="H430" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>371.94</v>
       </c>
       <c r="G431" t="n">
-        <v>364.43</v>
+        <v>364.34</v>
       </c>
       <c r="H431" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>371.82</v>
       </c>
       <c r="G432" t="n">
-        <v>370.78</v>
+        <v>370.68</v>
       </c>
       <c r="H432" t="inlineStr">
         <is>
@@ -12394,7 +12394,7 @@
         <v>363.28</v>
       </c>
       <c r="G433" t="n">
-        <v>361.83</v>
+        <v>361.85</v>
       </c>
       <c r="H433" t="inlineStr">
         <is>
@@ -12422,7 +12422,7 @@
         <v>346.39</v>
       </c>
       <c r="G434" t="n">
-        <v>353.32</v>
+        <v>353.35</v>
       </c>
       <c r="H434" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>354.75</v>
       </c>
       <c r="G437" t="n">
-        <v>355.04</v>
+        <v>355</v>
       </c>
       <c r="H437" t="inlineStr">
         <is>
@@ -12556,7 +12556,7 @@
         <v>353.42</v>
       </c>
       <c r="G439" t="n">
-        <v>353.31</v>
+        <v>353.25</v>
       </c>
       <c r="H439" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>351.3</v>
       </c>
       <c r="G440" t="n">
-        <v>346.76</v>
+        <v>346.69</v>
       </c>
       <c r="H440" t="inlineStr">
         <is>
@@ -12610,7 +12610,7 @@
         <v>350.13</v>
       </c>
       <c r="G441" t="n">
-        <v>347.15</v>
+        <v>347.19</v>
       </c>
       <c r="H441" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>351.88</v>
       </c>
       <c r="G442" t="n">
-        <v>352.78</v>
+        <v>352.71</v>
       </c>
       <c r="H442" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
       <c r="E443" t="inlineStr"/>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="n">
-        <v>349.34</v>
+        <v>349.39</v>
       </c>
       <c r="H443" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>355.05</v>
       </c>
       <c r="G444" t="n">
-        <v>355.15</v>
+        <v>355.07</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>356.58</v>
       </c>
       <c r="G445" t="n">
-        <v>356.97</v>
+        <v>356.92</v>
       </c>
       <c r="H445" t="inlineStr">
         <is>
@@ -12750,7 +12750,7 @@
         <v>366.77</v>
       </c>
       <c r="G446" t="n">
-        <v>363.53</v>
+        <v>363.47</v>
       </c>
       <c r="H446" t="inlineStr">
         <is>
@@ -12780,7 +12780,7 @@
         <v>370.26</v>
       </c>
       <c r="G447" t="n">
-        <v>360.11</v>
+        <v>360.05</v>
       </c>
       <c r="H447" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>354.56</v>
       </c>
       <c r="G448" t="n">
-        <v>354.96</v>
+        <v>354.89</v>
       </c>
       <c r="H448" t="inlineStr">
         <is>
@@ -12894,7 +12894,7 @@
         <v>369.29</v>
       </c>
       <c r="G451" t="n">
-        <v>372.32</v>
+        <v>372.34</v>
       </c>
       <c r="H451" t="inlineStr">
         <is>
@@ -12924,7 +12924,7 @@
         <v>360.81</v>
       </c>
       <c r="G452" t="n">
-        <v>361.53</v>
+        <v>361.55</v>
       </c>
       <c r="H452" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>364.2</v>
       </c>
       <c r="G453" t="n">
-        <v>363.66</v>
+        <v>363.58</v>
       </c>
       <c r="H453" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>367.82</v>
       </c>
       <c r="G454" t="n">
-        <v>363.65</v>
+        <v>363.58</v>
       </c>
       <c r="H454" t="inlineStr">
         <is>
@@ -13008,7 +13008,7 @@
         <v>355.36</v>
       </c>
       <c r="G455" t="n">
-        <v>356.01</v>
+        <v>355.94</v>
       </c>
       <c r="H455" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>357.16</v>
       </c>
       <c r="G456" t="n">
-        <v>359.41</v>
+        <v>359.39</v>
       </c>
       <c r="H456" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>364.63</v>
       </c>
       <c r="G458" t="n">
-        <v>366</v>
+        <v>366.02</v>
       </c>
       <c r="H458" t="inlineStr">
         <is>
@@ -13134,7 +13134,7 @@
         <v>370.54</v>
       </c>
       <c r="G460" t="n">
-        <v>371.07</v>
+        <v>371.11</v>
       </c>
       <c r="H460" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>368.35</v>
       </c>
       <c r="G461" t="n">
-        <v>364.25</v>
+        <v>364.18</v>
       </c>
       <c r="H461" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>356.69</v>
       </c>
       <c r="G462" t="n">
-        <v>348.42</v>
+        <v>348.39</v>
       </c>
       <c r="H462" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="n">
-        <v>359.41</v>
+        <v>359.35</v>
       </c>
       <c r="H463" t="inlineStr">
         <is>
@@ -13268,7 +13268,7 @@
         <v>371.59</v>
       </c>
       <c r="G465" t="n">
-        <v>372.55</v>
+        <v>372.52</v>
       </c>
       <c r="H465" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         <v>355.82</v>
       </c>
       <c r="G467" t="n">
-        <v>355.87</v>
+        <v>355.82</v>
       </c>
       <c r="H467" t="inlineStr">
         <is>
@@ -13356,7 +13356,7 @@
         <v>361.58</v>
       </c>
       <c r="G468" t="n">
-        <v>360.71</v>
+        <v>360.69</v>
       </c>
       <c r="H468" t="inlineStr">
         <is>
@@ -13414,7 +13414,7 @@
         <v>361.73</v>
       </c>
       <c r="G470" t="n">
-        <v>360.95</v>
+        <v>360.97</v>
       </c>
       <c r="H470" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>357.46</v>
       </c>
       <c r="G471" t="n">
-        <v>355.13</v>
+        <v>355.16</v>
       </c>
       <c r="H471" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>367.11</v>
       </c>
       <c r="G472" t="n">
-        <v>363.16</v>
+        <v>363.08</v>
       </c>
       <c r="H472" t="inlineStr">
         <is>
@@ -13550,7 +13550,7 @@
         <v>364.71</v>
       </c>
       <c r="G475" t="n">
-        <v>363.12</v>
+        <v>363.05</v>
       </c>
       <c r="H475" t="inlineStr">
         <is>
@@ -13580,7 +13580,7 @@
         <v>361.06</v>
       </c>
       <c r="G476" t="n">
-        <v>363.47</v>
+        <v>363.49</v>
       </c>
       <c r="H476" t="inlineStr">
         <is>
@@ -13626,7 +13626,7 @@
         <v>365.47</v>
       </c>
       <c r="G478" t="n">
-        <v>352.08</v>
+        <v>352.03</v>
       </c>
       <c r="H478" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>356.56</v>
       </c>
       <c r="G479" t="n">
-        <v>357.66</v>
+        <v>357.65</v>
       </c>
       <c r="H479" t="inlineStr">
         <is>
@@ -13712,7 +13712,7 @@
         <v>356.22</v>
       </c>
       <c r="G481" t="n">
-        <v>351.68</v>
+        <v>351.71</v>
       </c>
       <c r="H481" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>364.24</v>
       </c>
       <c r="G482" t="n">
-        <v>363.56</v>
+        <v>363.61</v>
       </c>
       <c r="H482" t="inlineStr">
         <is>
@@ -13766,7 +13766,7 @@
         <v>352.95</v>
       </c>
       <c r="G483" t="n">
-        <v>348.13</v>
+        <v>348.1</v>
       </c>
       <c r="H483" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>361.8</v>
       </c>
       <c r="G484" t="n">
-        <v>360.35</v>
+        <v>360.33</v>
       </c>
       <c r="H484" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>356.9</v>
       </c>
       <c r="G485" t="n">
-        <v>357.54</v>
+        <v>357.5</v>
       </c>
       <c r="H485" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>368.46</v>
       </c>
       <c r="G486" t="n">
-        <v>363.16</v>
+        <v>363.14</v>
       </c>
       <c r="H486" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>371.57</v>
       </c>
       <c r="G488" t="n">
-        <v>367.94</v>
+        <v>367.86</v>
       </c>
       <c r="H488" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>372.54</v>
       </c>
       <c r="G489" t="n">
-        <v>368.03</v>
+        <v>367.94</v>
       </c>
       <c r="H489" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         <v>367.38</v>
       </c>
       <c r="G490" t="n">
-        <v>365.78</v>
+        <v>365.8</v>
       </c>
       <c r="H490" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>367.42</v>
       </c>
       <c r="G491" t="n">
-        <v>363.75</v>
+        <v>363.67</v>
       </c>
       <c r="H491" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>360.8</v>
       </c>
       <c r="G492" t="n">
-        <v>365.35</v>
+        <v>365.3</v>
       </c>
       <c r="H492" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>356.08</v>
       </c>
       <c r="G493" t="n">
-        <v>353.11</v>
+        <v>353.06</v>
       </c>
       <c r="H493" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>368.77</v>
       </c>
       <c r="G495" t="n">
-        <v>368.62</v>
+        <v>368.64</v>
       </c>
       <c r="H495" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>364.34</v>
       </c>
       <c r="G496" t="n">
-        <v>363.29</v>
+        <v>363.24</v>
       </c>
       <c r="H496" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>372.81</v>
       </c>
       <c r="G497" t="n">
-        <v>372.13</v>
+        <v>372.06</v>
       </c>
       <c r="H497" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>371.89</v>
       </c>
       <c r="G499" t="n">
-        <v>366.38</v>
+        <v>366.3</v>
       </c>
       <c r="H499" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>358.14</v>
       </c>
       <c r="G500" t="n">
-        <v>373.04</v>
+        <v>373.07</v>
       </c>
       <c r="H500" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>364.87</v>
       </c>
       <c r="G501" t="n">
-        <v>368.83</v>
+        <v>368.85</v>
       </c>
       <c r="H501" t="inlineStr">
         <is>
@@ -14314,7 +14314,7 @@
         <v>364.4</v>
       </c>
       <c r="G502" t="n">
-        <v>359.94</v>
+        <v>359.91</v>
       </c>
       <c r="H502" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>369.77</v>
       </c>
       <c r="G504" t="n">
-        <v>363.95</v>
+        <v>363.89</v>
       </c>
       <c r="H504" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>363.38</v>
       </c>
       <c r="G505" t="n">
-        <v>367.1</v>
+        <v>367.11</v>
       </c>
       <c r="H505" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         <v>359.7</v>
       </c>
       <c r="G506" t="n">
-        <v>364.61</v>
+        <v>364.59</v>
       </c>
       <c r="H506" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>368.94</v>
       </c>
       <c r="G507" t="n">
-        <v>366.64</v>
+        <v>366.6</v>
       </c>
       <c r="H507" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         <v>361.7</v>
       </c>
       <c r="G509" t="n">
-        <v>359.88</v>
+        <v>359.86</v>
       </c>
       <c r="H509" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>361.98</v>
       </c>
       <c r="G511" t="n">
-        <v>358.68</v>
+        <v>358.7</v>
       </c>
       <c r="H511" t="inlineStr">
         <is>
@@ -14586,7 +14586,7 @@
         <v>344.79</v>
       </c>
       <c r="G512" t="n">
-        <v>349.01</v>
+        <v>349.04</v>
       </c>
       <c r="H512" t="inlineStr">
         <is>
@@ -14616,7 +14616,7 @@
         <v>359.9</v>
       </c>
       <c r="G513" t="n">
-        <v>357.11</v>
+        <v>357.02</v>
       </c>
       <c r="H513" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>359.65</v>
       </c>
       <c r="G514" t="n">
-        <v>335.4</v>
+        <v>335.43</v>
       </c>
       <c r="H514" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>353.85</v>
       </c>
       <c r="G516" t="n">
-        <v>348.98</v>
+        <v>348.92</v>
       </c>
       <c r="H516" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         <v>342.3</v>
       </c>
       <c r="G518" t="n">
-        <v>338.99</v>
+        <v>339.02</v>
       </c>
       <c r="H518" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>365.04</v>
       </c>
       <c r="G519" t="n">
-        <v>361.14</v>
+        <v>361.15</v>
       </c>
       <c r="H519" t="inlineStr">
         <is>
@@ -14802,7 +14802,7 @@
         <v>359.31</v>
       </c>
       <c r="G520" t="n">
-        <v>356.54</v>
+        <v>356.45</v>
       </c>
       <c r="H520" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>367.35</v>
       </c>
       <c r="G522" t="n">
-        <v>363.7</v>
+        <v>363.67</v>
       </c>
       <c r="H522" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>352.09</v>
       </c>
       <c r="G523" t="n">
-        <v>358.43</v>
+        <v>358.44</v>
       </c>
       <c r="H523" t="inlineStr">
         <is>
@@ -14902,7 +14902,7 @@
         <v>358.54</v>
       </c>
       <c r="G524" t="n">
-        <v>359.33</v>
+        <v>359.31</v>
       </c>
       <c r="H524" t="inlineStr">
         <is>
@@ -14924,7 +14924,7 @@
         <v>353.32</v>
       </c>
       <c r="G525" t="n">
-        <v>354.26</v>
+        <v>354.29</v>
       </c>
       <c r="H525" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>357.65</v>
       </c>
       <c r="G526" t="n">
-        <v>357.08</v>
+        <v>357</v>
       </c>
       <c r="H526" t="inlineStr">
         <is>
@@ -14984,7 +14984,7 @@
         <v>358.05</v>
       </c>
       <c r="G527" t="n">
-        <v>364.04</v>
+        <v>363.96</v>
       </c>
       <c r="H527" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>369.31</v>
       </c>
       <c r="G528" t="n">
-        <v>366.65</v>
+        <v>366.57</v>
       </c>
       <c r="H528" t="inlineStr">
         <is>
@@ -15068,7 +15068,7 @@
         <v>361.39</v>
       </c>
       <c r="G530" t="n">
-        <v>356.69</v>
+        <v>356.67</v>
       </c>
       <c r="H530" t="inlineStr">
         <is>
@@ -15098,7 +15098,7 @@
         <v>363.34</v>
       </c>
       <c r="G531" t="n">
-        <v>362.09</v>
+        <v>362.08</v>
       </c>
       <c r="H531" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>392.61</v>
       </c>
       <c r="G532" t="n">
-        <v>382.4</v>
+        <v>382.36</v>
       </c>
       <c r="H532" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>364.18</v>
       </c>
       <c r="G533" t="n">
-        <v>360.09</v>
+        <v>360.11</v>
       </c>
       <c r="H533" t="inlineStr">
         <is>
@@ -15180,7 +15180,7 @@
         <v>367.16</v>
       </c>
       <c r="G534" t="n">
-        <v>369.81</v>
+        <v>369.79</v>
       </c>
       <c r="H534" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>368.49</v>
       </c>
       <c r="G535" t="n">
-        <v>365.09</v>
+        <v>365.07</v>
       </c>
       <c r="H535" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>370.12</v>
       </c>
       <c r="G537" t="n">
-        <v>370.33</v>
+        <v>370.29</v>
       </c>
       <c r="H537" t="inlineStr">
         <is>
@@ -15294,7 +15294,7 @@
         <v>364.32</v>
       </c>
       <c r="G538" t="n">
-        <v>360.45</v>
+        <v>360.44</v>
       </c>
       <c r="H538" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>370.71</v>
       </c>
       <c r="G539" t="n">
-        <v>364.8</v>
+        <v>364.74</v>
       </c>
       <c r="H539" t="inlineStr">
         <is>
@@ -15374,7 +15374,7 @@
         <v>367.11</v>
       </c>
       <c r="G541" t="n">
-        <v>360.24</v>
+        <v>360.26</v>
       </c>
       <c r="H541" t="inlineStr">
         <is>
@@ -15404,7 +15404,7 @@
         <v>367.28</v>
       </c>
       <c r="G542" t="n">
-        <v>363.27</v>
+        <v>363.2</v>
       </c>
       <c r="H542" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>370.59</v>
       </c>
       <c r="G544" t="n">
-        <v>365.14</v>
+        <v>365.07</v>
       </c>
       <c r="H544" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>361.74</v>
       </c>
       <c r="G545" t="n">
-        <v>364.02</v>
+        <v>364.07</v>
       </c>
       <c r="H545" t="inlineStr">
         <is>
@@ -15520,7 +15520,7 @@
         <v>369.19</v>
       </c>
       <c r="G546" t="n">
-        <v>370.46</v>
+        <v>370.49</v>
       </c>
       <c r="H546" t="inlineStr">
         <is>
@@ -15550,7 +15550,7 @@
         <v>365.3</v>
       </c>
       <c r="G547" t="n">
-        <v>370.01</v>
+        <v>370.05</v>
       </c>
       <c r="H547" t="inlineStr">
         <is>
@@ -15574,7 +15574,7 @@
         <v>359.52</v>
       </c>
       <c r="G548" t="n">
-        <v>355.33</v>
+        <v>355.32</v>
       </c>
       <c r="H548" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>365.71</v>
       </c>
       <c r="G549" t="n">
-        <v>364.85</v>
+        <v>364.86</v>
       </c>
       <c r="H549" t="inlineStr">
         <is>
@@ -15634,7 +15634,7 @@
         <v>366.51</v>
       </c>
       <c r="G550" t="n">
-        <v>365.51</v>
+        <v>365.42</v>
       </c>
       <c r="H550" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         <v>367.93</v>
       </c>
       <c r="G552" t="n">
-        <v>365.84</v>
+        <v>365.81</v>
       </c>
       <c r="H552" t="inlineStr">
         <is>
@@ -15710,7 +15710,7 @@
         <v>346.29</v>
       </c>
       <c r="G553" t="n">
-        <v>346</v>
+        <v>346.02</v>
       </c>
       <c r="H553" t="inlineStr">
         <is>
@@ -15740,7 +15740,7 @@
         <v>363.86</v>
       </c>
       <c r="G554" t="n">
-        <v>362.43</v>
+        <v>362.39</v>
       </c>
       <c r="H554" t="inlineStr">
         <is>
@@ -15800,7 +15800,7 @@
         <v>361.49</v>
       </c>
       <c r="G556" t="n">
-        <v>361.8</v>
+        <v>361.74</v>
       </c>
       <c r="H556" t="inlineStr">
         <is>
@@ -15830,7 +15830,7 @@
         <v>364.78</v>
       </c>
       <c r="G557" t="n">
-        <v>358.4</v>
+        <v>358.32</v>
       </c>
       <c r="H557" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>366.05</v>
       </c>
       <c r="G558" t="n">
-        <v>360.96</v>
+        <v>360.95</v>
       </c>
       <c r="H558" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>353.85</v>
       </c>
       <c r="G559" t="n">
-        <v>352.52</v>
+        <v>352.55</v>
       </c>
       <c r="H559" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>352.92</v>
       </c>
       <c r="G560" t="n">
-        <v>356.49</v>
+        <v>356.52</v>
       </c>
       <c r="H560" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>344.92</v>
       </c>
       <c r="G561" t="n">
-        <v>345.14</v>
+        <v>345.17</v>
       </c>
       <c r="H561" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>351.84</v>
       </c>
       <c r="G562" t="n">
-        <v>346.81</v>
+        <v>346.75</v>
       </c>
       <c r="H562" t="inlineStr">
         <is>
@@ -16006,7 +16006,7 @@
         <v>353.5</v>
       </c>
       <c r="G563" t="n">
-        <v>353</v>
+        <v>352.94</v>
       </c>
       <c r="H563" t="inlineStr">
         <is>
@@ -16036,7 +16036,7 @@
         <v>355.35</v>
       </c>
       <c r="G564" t="n">
-        <v>351.87</v>
+        <v>351.84</v>
       </c>
       <c r="H564" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>351.8</v>
       </c>
       <c r="G565" t="n">
-        <v>346.26</v>
+        <v>346.28</v>
       </c>
       <c r="H565" t="inlineStr">
         <is>
@@ -16116,7 +16116,7 @@
         <v>356.41</v>
       </c>
       <c r="G567" t="n">
-        <v>351.74</v>
+        <v>351.65</v>
       </c>
       <c r="H567" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>354.15</v>
       </c>
       <c r="G568" t="n">
-        <v>352.52</v>
+        <v>352.55</v>
       </c>
       <c r="H568" t="inlineStr">
         <is>
@@ -16170,7 +16170,7 @@
         <v>350.96</v>
       </c>
       <c r="G569" t="n">
-        <v>338.71</v>
+        <v>338.64</v>
       </c>
       <c r="H569" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         <v>350.79</v>
       </c>
       <c r="G570" t="n">
-        <v>356.28</v>
+        <v>356.25</v>
       </c>
       <c r="H570" t="inlineStr">
         <is>
@@ -16230,7 +16230,7 @@
         <v>365.9</v>
       </c>
       <c r="G571" t="n">
-        <v>360.71</v>
+        <v>360.63</v>
       </c>
       <c r="H571" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>365.06</v>
       </c>
       <c r="G572" t="n">
-        <v>362.61</v>
+        <v>362.58</v>
       </c>
       <c r="H572" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>369.19</v>
       </c>
       <c r="G573" t="n">
-        <v>362.72</v>
+        <v>362.7</v>
       </c>
       <c r="H573" t="inlineStr">
         <is>
@@ -16320,7 +16320,7 @@
         <v>368.58</v>
       </c>
       <c r="G574" t="n">
-        <v>355.92</v>
+        <v>355.87</v>
       </c>
       <c r="H574" t="inlineStr">
         <is>
@@ -16350,7 +16350,7 @@
         <v>364.32</v>
       </c>
       <c r="G575" t="n">
-        <v>360.74</v>
+        <v>360.68</v>
       </c>
       <c r="H575" t="inlineStr">
         <is>
@@ -16380,7 +16380,7 @@
         <v>364.79</v>
       </c>
       <c r="G576" t="n">
-        <v>364.13</v>
+        <v>364.12</v>
       </c>
       <c r="H576" t="inlineStr">
         <is>
@@ -16410,7 +16410,7 @@
         <v>364.31</v>
       </c>
       <c r="G577" t="n">
-        <v>366.18</v>
+        <v>366.19</v>
       </c>
       <c r="H577" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>361.82</v>
       </c>
       <c r="G578" t="n">
-        <v>359.59</v>
+        <v>359.52</v>
       </c>
       <c r="H578" t="inlineStr">
         <is>
@@ -16470,7 +16470,7 @@
         <v>352.65</v>
       </c>
       <c r="G579" t="n">
-        <v>350.87</v>
+        <v>350.8</v>
       </c>
       <c r="H579" t="inlineStr">
         <is>
@@ -16500,7 +16500,7 @@
         <v>370.62</v>
       </c>
       <c r="G580" t="n">
-        <v>367.35</v>
+        <v>367.36</v>
       </c>
       <c r="H580" t="inlineStr">
         <is>
@@ -16530,7 +16530,7 @@
         <v>369.96</v>
       </c>
       <c r="G581" t="n">
-        <v>364.29</v>
+        <v>364.24</v>
       </c>
       <c r="H581" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>365.63</v>
       </c>
       <c r="G582" t="n">
-        <v>362.14</v>
+        <v>362.16</v>
       </c>
       <c r="H582" t="inlineStr">
         <is>
@@ -16620,7 +16620,7 @@
         <v>363.27</v>
       </c>
       <c r="G584" t="n">
-        <v>357.29</v>
+        <v>357.26</v>
       </c>
       <c r="H584" t="inlineStr">
         <is>
@@ -16646,7 +16646,7 @@
       <c r="E585" t="inlineStr"/>
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="n">
-        <v>355.8</v>
+        <v>355.81</v>
       </c>
       <c r="H585" t="inlineStr">
         <is>
@@ -16676,7 +16676,7 @@
         <v>367.62</v>
       </c>
       <c r="G586" t="n">
-        <v>365.46</v>
+        <v>365.48</v>
       </c>
       <c r="H586" t="inlineStr">
         <is>
@@ -16706,7 +16706,7 @@
         <v>358.39</v>
       </c>
       <c r="G587" t="n">
-        <v>354.36</v>
+        <v>354.35</v>
       </c>
       <c r="H587" t="inlineStr">
         <is>
@@ -16736,7 +16736,7 @@
         <v>369.26</v>
       </c>
       <c r="G588" t="n">
-        <v>364.31</v>
+        <v>364.29</v>
       </c>
       <c r="H588" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
       <c r="E589" t="inlineStr"/>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="n">
-        <v>349.48</v>
+        <v>349.44</v>
       </c>
       <c r="H589" t="inlineStr">
         <is>
@@ -16788,7 +16788,7 @@
         <v>370.68</v>
       </c>
       <c r="G590" t="n">
-        <v>367.28</v>
+        <v>367.2</v>
       </c>
       <c r="H590" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>364.47</v>
       </c>
       <c r="G591" t="n">
-        <v>361.14</v>
+        <v>361.06</v>
       </c>
       <c r="H591" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         <v>371.61</v>
       </c>
       <c r="G592" t="n">
-        <v>369.88</v>
+        <v>369.91</v>
       </c>
       <c r="H592" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>362.16</v>
       </c>
       <c r="G593" t="n">
-        <v>360.66</v>
+        <v>360.56</v>
       </c>
       <c r="H593" t="inlineStr">
         <is>
@@ -16928,7 +16928,7 @@
         <v>363.52</v>
       </c>
       <c r="G595" t="n">
-        <v>361.83</v>
+        <v>361.84</v>
       </c>
       <c r="H595" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>367.29</v>
       </c>
       <c r="G596" t="n">
-        <v>362.13</v>
+        <v>362.05</v>
       </c>
       <c r="H596" t="inlineStr">
         <is>
@@ -16988,7 +16988,7 @@
         <v>361.01</v>
       </c>
       <c r="G597" t="n">
-        <v>356.86</v>
+        <v>356.83</v>
       </c>
       <c r="H597" t="inlineStr">
         <is>
@@ -17008,7 +17008,7 @@
       <c r="E598" t="inlineStr"/>
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="n">
-        <v>320.6</v>
+        <v>320.61</v>
       </c>
       <c r="H598" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>354.06</v>
       </c>
       <c r="G599" t="n">
-        <v>351.51</v>
+        <v>351.44</v>
       </c>
       <c r="H599" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>355.39</v>
       </c>
       <c r="G600" t="n">
-        <v>350.7</v>
+        <v>350.75</v>
       </c>
       <c r="H600" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>357.55</v>
       </c>
       <c r="G601" t="n">
-        <v>351</v>
+        <v>351.05</v>
       </c>
       <c r="H601" t="inlineStr">
         <is>
@@ -17128,7 +17128,7 @@
         <v>342.38</v>
       </c>
       <c r="G602" t="n">
-        <v>346.35</v>
+        <v>346.4</v>
       </c>
       <c r="H602" t="inlineStr">
         <is>
@@ -17158,7 +17158,7 @@
         <v>354.22</v>
       </c>
       <c r="G603" t="n">
-        <v>347.58</v>
+        <v>347.53</v>
       </c>
       <c r="H603" t="inlineStr">
         <is>
@@ -17182,7 +17182,7 @@
         <v>346.13</v>
       </c>
       <c r="G604" t="n">
-        <v>337.99</v>
+        <v>337.96</v>
       </c>
       <c r="H604" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>363.35</v>
       </c>
       <c r="G605" t="n">
-        <v>356.61</v>
+        <v>356.62</v>
       </c>
       <c r="H605" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>351.35</v>
       </c>
       <c r="G607" t="n">
-        <v>349.32</v>
+        <v>349.28</v>
       </c>
       <c r="H607" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         <v>356.17</v>
       </c>
       <c r="G609" t="n">
-        <v>355.53</v>
+        <v>355.47</v>
       </c>
       <c r="H609" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>360.57</v>
       </c>
       <c r="G610" t="n">
-        <v>358.43</v>
+        <v>358.45</v>
       </c>
       <c r="H610" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         <v>365.81</v>
       </c>
       <c r="G611" t="n">
-        <v>365.99</v>
+        <v>366.01</v>
       </c>
       <c r="H611" t="inlineStr">
         <is>
@@ -17402,7 +17402,7 @@
         <v>364.48</v>
       </c>
       <c r="G612" t="n">
-        <v>359.37</v>
+        <v>359.39</v>
       </c>
       <c r="H612" t="inlineStr">
         <is>
@@ -17484,7 +17484,7 @@
         <v>360.26</v>
       </c>
       <c r="G615" t="n">
-        <v>360.56</v>
+        <v>360.55</v>
       </c>
       <c r="H615" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>366.27</v>
       </c>
       <c r="G616" t="n">
-        <v>363.75</v>
+        <v>363.69</v>
       </c>
       <c r="H616" t="inlineStr">
         <is>
@@ -17544,7 +17544,7 @@
         <v>367.46</v>
       </c>
       <c r="G617" t="n">
-        <v>367.67</v>
+        <v>367.63</v>
       </c>
       <c r="H617" t="inlineStr">
         <is>
@@ -17574,7 +17574,7 @@
         <v>357.13</v>
       </c>
       <c r="G618" t="n">
-        <v>357.47</v>
+        <v>357.44</v>
       </c>
       <c r="H618" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>358.49</v>
       </c>
       <c r="G619" t="n">
-        <v>360.21</v>
+        <v>360.16</v>
       </c>
       <c r="H619" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>359.33</v>
       </c>
       <c r="G620" t="n">
-        <v>359.02</v>
+        <v>358.96</v>
       </c>
       <c r="H620" t="inlineStr">
         <is>
@@ -17664,7 +17664,7 @@
         <v>365.16</v>
       </c>
       <c r="G621" t="n">
-        <v>364.31</v>
+        <v>364.34</v>
       </c>
       <c r="H621" t="inlineStr">
         <is>
@@ -17690,7 +17690,7 @@
         <v>364.42</v>
       </c>
       <c r="G622" t="n">
-        <v>363.39</v>
+        <v>363.45</v>
       </c>
       <c r="H622" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>367.04</v>
       </c>
       <c r="G624" t="n">
-        <v>366.88</v>
+        <v>366.85</v>
       </c>
       <c r="H624" t="inlineStr">
         <is>
@@ -17772,7 +17772,7 @@
         <v>370.42</v>
       </c>
       <c r="G625" t="n">
-        <v>366.11</v>
+        <v>366.07</v>
       </c>
       <c r="H625" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>369.92</v>
       </c>
       <c r="G626" t="n">
-        <v>365.55</v>
+        <v>365.48</v>
       </c>
       <c r="H626" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         <v>370.87</v>
       </c>
       <c r="G627" t="n">
-        <v>368.54</v>
+        <v>368.45</v>
       </c>
       <c r="H627" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>366.2</v>
       </c>
       <c r="G628" t="n">
-        <v>363.32</v>
+        <v>363.33</v>
       </c>
       <c r="H628" t="inlineStr">
         <is>
@@ -17892,7 +17892,7 @@
         <v>354.19</v>
       </c>
       <c r="G629" t="n">
-        <v>363.35</v>
+        <v>363.36</v>
       </c>
       <c r="H629" t="inlineStr">
         <is>
@@ -17922,7 +17922,7 @@
         <v>360.23</v>
       </c>
       <c r="G630" t="n">
-        <v>357.65</v>
+        <v>357.59</v>
       </c>
       <c r="H630" t="inlineStr">
         <is>
@@ -17952,7 +17952,7 @@
         <v>362.6</v>
       </c>
       <c r="G631" t="n">
-        <v>359.73</v>
+        <v>359.74</v>
       </c>
       <c r="H631" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>362.5</v>
       </c>
       <c r="G632" t="n">
-        <v>360.85</v>
+        <v>360.83</v>
       </c>
       <c r="H632" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
       <c r="E633" t="inlineStr"/>
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="n">
-        <v>353.88</v>
+        <v>353.86</v>
       </c>
       <c r="H633" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>357.07</v>
       </c>
       <c r="G634" t="n">
-        <v>354.94</v>
+        <v>354.89</v>
       </c>
       <c r="H634" t="inlineStr">
         <is>
@@ -18068,7 +18068,7 @@
         <v>353.38</v>
       </c>
       <c r="G635" t="n">
-        <v>353.17</v>
+        <v>353.11</v>
       </c>
       <c r="H635" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>360.1</v>
       </c>
       <c r="G636" t="n">
-        <v>358.29</v>
+        <v>358.33</v>
       </c>
       <c r="H636" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
         <v>357.49</v>
       </c>
       <c r="G637" t="n">
-        <v>353.82</v>
+        <v>353.75</v>
       </c>
       <c r="H637" t="inlineStr">
         <is>
@@ -18158,7 +18158,7 @@
         <v>353.85</v>
       </c>
       <c r="G638" t="n">
-        <v>348.64</v>
+        <v>348.58</v>
       </c>
       <c r="H638" t="inlineStr">
         <is>
@@ -18188,7 +18188,7 @@
         <v>358.28</v>
       </c>
       <c r="G639" t="n">
-        <v>358.54</v>
+        <v>358.49</v>
       </c>
       <c r="H639" t="inlineStr">
         <is>
@@ -18244,7 +18244,7 @@
         <v>353.17</v>
       </c>
       <c r="G641" t="n">
-        <v>350.88</v>
+        <v>350.83</v>
       </c>
       <c r="H641" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>356.94</v>
       </c>
       <c r="G642" t="n">
-        <v>358.07</v>
+        <v>358.08</v>
       </c>
       <c r="H642" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>362.52</v>
       </c>
       <c r="G643" t="n">
-        <v>358.22</v>
+        <v>358.12</v>
       </c>
       <c r="H643" t="inlineStr">
         <is>
@@ -18334,7 +18334,7 @@
         <v>363.79</v>
       </c>
       <c r="G644" t="n">
-        <v>362.56</v>
+        <v>362.47</v>
       </c>
       <c r="H644" t="inlineStr">
         <is>
@@ -18364,7 +18364,7 @@
         <v>369.69</v>
       </c>
       <c r="G645" t="n">
-        <v>370.3</v>
+        <v>370.32</v>
       </c>
       <c r="H645" t="inlineStr">
         <is>
@@ -18394,7 +18394,7 @@
         <v>368.81</v>
       </c>
       <c r="G646" t="n">
-        <v>368.18</v>
+        <v>368.2</v>
       </c>
       <c r="H646" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>364.99</v>
       </c>
       <c r="G647" t="n">
-        <v>359.06</v>
+        <v>358.96</v>
       </c>
       <c r="H647" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>370.82</v>
       </c>
       <c r="G648" t="n">
-        <v>365.87</v>
+        <v>365.8</v>
       </c>
       <c r="H648" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>365.37</v>
       </c>
       <c r="G650" t="n">
-        <v>360.27</v>
+        <v>360.28</v>
       </c>
       <c r="H650" t="inlineStr">
         <is>
@@ -18542,7 +18542,7 @@
         <v>366</v>
       </c>
       <c r="G651" t="n">
-        <v>367.43</v>
+        <v>367.41</v>
       </c>
       <c r="H651" t="inlineStr">
         <is>
@@ -18572,7 +18572,7 @@
         <v>358.93</v>
       </c>
       <c r="G652" t="n">
-        <v>356.52</v>
+        <v>356.49</v>
       </c>
       <c r="H652" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>358.33</v>
       </c>
       <c r="G653" t="n">
-        <v>359.11</v>
+        <v>359.09</v>
       </c>
       <c r="H653" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>361.98</v>
       </c>
       <c r="G654" t="n">
-        <v>367.3</v>
+        <v>367.34</v>
       </c>
       <c r="H654" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>367.19</v>
       </c>
       <c r="G655" t="n">
-        <v>364.38</v>
+        <v>364.41</v>
       </c>
       <c r="H655" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         <v>368.87</v>
       </c>
       <c r="G656" t="n">
-        <v>369.8</v>
+        <v>369.82</v>
       </c>
       <c r="H656" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>366.35</v>
       </c>
       <c r="G657" t="n">
-        <v>364.14</v>
+        <v>364.12</v>
       </c>
       <c r="H657" t="inlineStr">
         <is>
@@ -18752,7 +18752,7 @@
         <v>361.11</v>
       </c>
       <c r="G658" t="n">
-        <v>360.33</v>
+        <v>360.32</v>
       </c>
       <c r="H658" t="inlineStr">
         <is>
@@ -18782,7 +18782,7 @@
         <v>371.83</v>
       </c>
       <c r="G659" t="n">
-        <v>368.74</v>
+        <v>368.64</v>
       </c>
       <c r="H659" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>366.8</v>
       </c>
       <c r="G660" t="n">
-        <v>366.54</v>
+        <v>366.45</v>
       </c>
       <c r="H660" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>362.78</v>
       </c>
       <c r="G661" t="n">
-        <v>351.94</v>
+        <v>351.88</v>
       </c>
       <c r="H661" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>358.18</v>
       </c>
       <c r="G662" t="n">
-        <v>355.7</v>
+        <v>355.72</v>
       </c>
       <c r="H662" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>358.17</v>
       </c>
       <c r="G663" t="n">
-        <v>359.73</v>
+        <v>359.72</v>
       </c>
       <c r="H663" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>346.82</v>
       </c>
       <c r="G664" t="n">
-        <v>349.88</v>
+        <v>349.85</v>
       </c>
       <c r="H664" t="inlineStr">
         <is>
@@ -18990,7 +18990,7 @@
         <v>349.49</v>
       </c>
       <c r="G666" t="n">
-        <v>350.79</v>
+        <v>350.77</v>
       </c>
       <c r="H666" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
       <c r="E667" t="inlineStr"/>
       <c r="F667" t="inlineStr"/>
       <c r="G667" t="n">
-        <v>314.45</v>
+        <v>314.42</v>
       </c>
       <c r="H667" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>358.98</v>
       </c>
       <c r="G668" t="n">
-        <v>354.95</v>
+        <v>354.93</v>
       </c>
       <c r="H668" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>355.61</v>
       </c>
       <c r="G669" t="n">
-        <v>351.81</v>
+        <v>351.83</v>
       </c>
       <c r="H669" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>351.73</v>
       </c>
       <c r="G670" t="n">
-        <v>351.87</v>
+        <v>351.82</v>
       </c>
       <c r="H670" t="inlineStr">
         <is>
@@ -19130,7 +19130,7 @@
         <v>347.32</v>
       </c>
       <c r="G671" t="n">
-        <v>345.42</v>
+        <v>345.36</v>
       </c>
       <c r="H671" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>350.07</v>
       </c>
       <c r="G672" t="n">
-        <v>350.07</v>
+        <v>350.12</v>
       </c>
       <c r="H672" t="inlineStr">
         <is>
@@ -19190,7 +19190,7 @@
         <v>355.4</v>
       </c>
       <c r="G673" t="n">
-        <v>359.17</v>
+        <v>359.21</v>
       </c>
       <c r="H673" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>359.4</v>
       </c>
       <c r="G674" t="n">
-        <v>355.46</v>
+        <v>355.38</v>
       </c>
       <c r="H674" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         <v>359.34</v>
       </c>
       <c r="G675" t="n">
-        <v>357.09</v>
+        <v>357.02</v>
       </c>
       <c r="H675" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>379.77</v>
       </c>
       <c r="G676" t="n">
-        <v>371.58</v>
+        <v>371.59</v>
       </c>
       <c r="H676" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>366.29</v>
       </c>
       <c r="G677" t="n">
-        <v>362.18</v>
+        <v>362.12</v>
       </c>
       <c r="H677" t="inlineStr">
         <is>
@@ -19338,7 +19338,7 @@
         <v>366.99</v>
       </c>
       <c r="G678" t="n">
-        <v>360.44</v>
+        <v>360.38</v>
       </c>
       <c r="H678" t="inlineStr">
         <is>
@@ -19368,7 +19368,7 @@
         <v>364.31</v>
       </c>
       <c r="G679" t="n">
-        <v>361.54</v>
+        <v>361.56</v>
       </c>
       <c r="H679" t="inlineStr">
         <is>
@@ -19398,7 +19398,7 @@
         <v>364.55</v>
       </c>
       <c r="G680" t="n">
-        <v>365.05</v>
+        <v>365.07</v>
       </c>
       <c r="H680" t="inlineStr">
         <is>
@@ -19428,7 +19428,7 @@
         <v>368.49</v>
       </c>
       <c r="G681" t="n">
-        <v>365.82</v>
+        <v>365.75</v>
       </c>
       <c r="H681" t="inlineStr">
         <is>
@@ -19458,7 +19458,7 @@
         <v>355.17</v>
       </c>
       <c r="G682" t="n">
-        <v>355.92</v>
+        <v>355.93</v>
       </c>
       <c r="H682" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1278916014736688</v>
+        <v>-0.1277525195518227</v>
       </c>
       <c r="J7" t="n">
         <v>681</v>
@@ -27207,19 +27207,19 @@
         <v>559</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01396760844458733</v>
+        <v>0.01393938831769526</v>
       </c>
       <c r="M7" t="n">
-        <v>6.270885908143243</v>
+        <v>6.271414402050611</v>
       </c>
       <c r="N7" t="n">
-        <v>67.39137644085383</v>
+        <v>67.38294500440355</v>
       </c>
       <c r="O7" t="n">
-        <v>8.209225081629437</v>
+        <v>8.208711531318636</v>
       </c>
       <c r="P7" t="n">
-        <v>362.1897625298289</v>
+        <v>362.161285510694</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27340,7 +27340,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-41.06662839307428,174.85181492032459</t>
+          <t>-41.06662794468729,174.85181566539455</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -27382,7 +27382,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-41.06672956027339,174.851646813651</t>
+          <t>-41.06672939212866,174.85164709305312</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -27424,7 +27424,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-41.06677389441199,174.85157314457953</t>
+          <t>-41.0667738383638,174.8515732377137</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -27466,7 +27466,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-41.06677310973736,174.85157444845777</t>
+          <t>-41.06677327788192,174.85157416905528</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -27508,7 +27508,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-41.066793343128516,174.85154082701612</t>
+          <t>-41.06679295079138,174.85154147895562</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -27550,7 +27550,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-41.06676828959293,174.85158245799485</t>
+          <t>-41.06676795330377,174.8515830167997</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -27592,7 +27592,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-41.06678123672386,174.85156094400307</t>
+          <t>-41.0667814048684,174.85156066460053</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -27634,7 +27634,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-41.06682607524269,174.85148643660668</t>
+          <t>-41.06682618733893,174.85148625033807</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -27656,7 +27656,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-41.06676660814706,174.8515852520191</t>
+          <t>-41.066766664195264,174.851585158885</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -27698,7 +27698,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-41.066785776626006,174.85155340013384</t>
+          <t>-41.06678544033698,174.851553958939</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -27740,7 +27740,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-41.06675399730103,174.85160620719662</t>
+          <t>-41.06675354891532,174.85160695226946</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -27782,7 +27782,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-41.066751475131376,174.85161039823117</t>
+          <t>-41.06675169932425,174.85161002569478</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -27824,7 +27824,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-41.06672468407586,174.85165491631145</t>
+          <t>-41.066724291738105,174.85165556824958</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -27866,7 +27866,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-41.066714315148246,174.8516721461026</t>
+          <t>-41.066714090955195,174.8516725186386</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -27896,7 +27896,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-41.06670411436299,174.85168909648644</t>
+          <t>-41.06670372202503,174.85168974842418</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -27938,7 +27938,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-41.0667402094385,174.85162911818148</t>
+          <t>-41.06674032153496,174.85162893191335</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -27980,7 +27980,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-41.06675349286711,174.85160704540357</t>
+          <t>-41.06675304448141,174.85160779047638</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -28048,7 +28048,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-41.066716388933955,174.8516687001448</t>
+          <t>-41.06671633288571,174.8516687932788</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -28090,7 +28090,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-41.06676363759255,174.8515901881283</t>
+          <t>-41.06676318920695,174.85159093320138</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -28132,7 +28132,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-41.06679653787363,174.85153551836552</t>
+          <t>-41.0667967060181,174.85153523896287</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -28174,7 +28174,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-41.066725020365354,174.8516543575073</t>
+          <t>-41.06672457197935,174.85165510257949</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -28216,7 +28216,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-41.06674940134733,174.85161384419266</t>
+          <t>-41.06674945739555,174.85161375105855</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -28258,7 +28258,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-41.06680550557793,174.85152061688746</t>
+          <t>-41.06680556162608,174.8515205237532</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -28300,7 +28300,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-41.06682175953728,174.85149360794804</t>
+          <t>-41.06682136720039,174.8514942598881</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -28342,7 +28342,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-41.066796033440205,174.85153635657355</t>
+          <t>-41.066795529006775,174.85153719478154</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -28384,7 +28384,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-41.06676352549614,174.85159037439658</t>
+          <t>-41.06676363759255,174.8515901881283</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -28426,7 +28426,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-41.066766271857894,174.85158581082393</t>
+          <t>-41.06676615976149,174.85158599709223</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -28468,7 +28468,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-41.06675024207062,174.85161244718125</t>
+          <t>-41.06675029811883,174.85161235404718</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -28510,7 +28510,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-41.06671353047254,174.85167344997848</t>
+          <t>-41.06671325023121,174.85167391564843</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -28552,7 +28552,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-41.06668696358676,174.85171759547154</t>
+          <t>-41.066687243828255,174.85171712980198</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -28594,7 +28594,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-41.066715267968725,174.85167056282472</t>
+          <t>-41.066715380065254,174.85167037655674</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -28636,7 +28636,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-41.06672692600582,174.8516511909505</t>
+          <t>-41.066726589716325,174.85165174975464</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -28678,7 +28678,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-41.066716388933955,174.8516687001448</t>
+          <t>-41.06671627683744,174.8516688864128</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -28720,7 +28720,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-41.06679082096116,174.85154501805567</t>
+          <t>-41.06679037257584,174.85154576312937</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -28762,7 +28762,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-41.06678516009612,174.85155442461</t>
+          <t>-41.06678471171073,174.8515551696835</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -28804,7 +28804,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-41.06679491247702,174.85153821925798</t>
+          <t>-41.066794800380706,174.85153840552644</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -28846,7 +28846,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-41.06675977026655,174.85159661438303</t>
+          <t>-41.06675932188091,174.851597359456</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -28888,7 +28888,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-41.06679429594726,174.85153924373444</t>
+          <t>-41.066794183850945,174.85153943000284</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -28930,7 +28930,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-41.06677680891761,174.85156830160295</t>
+          <t>-41.066776752869444,174.85156839473711</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -28972,7 +28972,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-41.066715099823924,174.8516708422267</t>
+          <t>-41.06671498772741,174.8516710284947</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -29014,7 +29014,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-41.06670198452839,174.8516926355769</t>
+          <t>-41.06670153614216,174.85169338064856</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -29056,7 +29056,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-41.06669974259714,174.85169636093505</t>
+          <t>-41.06669923816259,174.8516971991406</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -29098,7 +29098,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-41.06675786462754,174.85159978094305</t>
+          <t>-41.066757584386494,174.85160024661363</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -29140,7 +29140,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-41.0668005733408,174.8515288127009</t>
+          <t>-41.066800685437094,174.85152862643244</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -29182,7 +29182,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-41.06680275921869,174.85152518046556</t>
+          <t>-41.06680281526684,174.8515250873313</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -29224,7 +29224,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-41.066795024573345,174.85153803298954</t>
+          <t>-41.06679463223622,174.8515386849291</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -29266,7 +29266,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-41.0667619561465,174.8515929821522</t>
+          <t>-41.06676206824291,174.85159279588396</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -29308,7 +29308,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-41.06679082096116,174.85154501805567</t>
+          <t>-41.0667905967685,174.85154539059252</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -29350,7 +29350,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-41.06678723387844,174.85155097864472</t>
+          <t>-41.066787458071126,174.85155060610793</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -29392,7 +29392,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-41.06676722467722,174.85158422754355</t>
+          <t>-41.06676677629165,174.8515849726167</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -29434,7 +29434,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>-41.06678644920406,174.8515522825235</t>
+          <t>-41.066786561300404,174.8515520962551</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -29518,7 +29518,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>-41.0667778177849,174.8515666251879</t>
+          <t>-41.06677753754399,174.85156709085877</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -29560,7 +29560,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-41.066792446357915,174.85154231716353</t>
+          <t>-41.06679250240608,174.85154222402934</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -29602,7 +29602,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-41.06679687416256,174.85153495956015</t>
+          <t>-41.06679642577731,174.851535704634</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -29644,7 +29644,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-41.06679911608881,174.851531234191</t>
+          <t>-41.06679917213695,174.85153114105677</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -29674,7 +29674,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-41.066795248765985,174.85153766045266</t>
+          <t>-41.06679536086231,174.85153747418423</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -29716,7 +29716,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-41.06674385257334,174.8516230644669</t>
+          <t>-41.06674379652511,174.85162315760098</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -29758,7 +29758,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-41.06677563190574,174.85157025742046</t>
+          <t>-41.06677591214667,174.85156979174963</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -29822,7 +29822,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-41.06669811719691,174.85169906181955</t>
+          <t>-41.06669761276233,174.85169990002504</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -29864,7 +29864,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-41.06680729911859,174.85151763659132</t>
+          <t>-41.06680735516672,174.85151754345708</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -29912,7 +29912,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-41.066797883029395,174.85153328314408</t>
+          <t>-41.066797378595986,174.85153412135213</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -29954,7 +29954,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-41.0666435821813,174.85178968107317</t>
+          <t>-41.066643245891164,174.85179023987592</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -29996,7 +29996,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-41.066773053689175,174.85157454159193</t>
+          <t>-41.066772885544616,174.85157482099441</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -30038,7 +30038,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>-41.0667258610891,174.85165296049695</t>
+          <t>-41.06672558084785,174.85165342616708</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -30102,7 +30102,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-41.06679765883676,174.85153365568098</t>
+          <t>-41.066797154403346,174.85153449388906</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -30144,7 +30144,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-41.066744805393164,174.8516214811876</t>
+          <t>-41.06674441305559,174.85162213312614</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -30186,7 +30186,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>-41.06673135381717,174.8516438333618</t>
+          <t>-41.066731017527715,174.85164439216604</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -30262,7 +30262,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>-41.06667362408945,174.85173976133854</t>
+          <t>-41.06667328779953,174.85174032014177</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -30338,7 +30338,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>-41.06670198452839,174.8516926355769</t>
+          <t>-41.06670220872152,174.8516922630411</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -30376,7 +30376,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>-41.0666960994586,174.8517024146415</t>
+          <t>-41.06669626760346,174.85170213523966</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -30452,7 +30452,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-41.06674127435487,174.85162734863422</t>
+          <t>-41.066740825969035,174.85162809370675</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -30494,7 +30494,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>-41.06667665069843,174.851734732109</t>
+          <t>-41.066676818843376,174.85173445270735</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -30516,7 +30516,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>-41.06662704791326,174.85181715553446</t>
+          <t>-41.066627216058386,174.85181687613326</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -30554,7 +30554,7 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>-41.066611410413294,174.85184313984274</t>
+          <t>-41.06661146646168,174.85184304670904</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -30592,7 +30592,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>-41.066712465555476,174.85167521952425</t>
+          <t>-41.0667121292659,174.85167577832817</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -30634,7 +30634,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>-41.06677523956846,174.85157090935962</t>
+          <t>-41.06677512747208,174.85157109562797</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>-41.0668170514945,174.8515014312284</t>
+          <t>-41.066816771253855,174.85150189689983</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -30718,7 +30718,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>-41.06683128771749,174.85147777511526</t>
+          <t>-41.066831399813715,174.8514775888466</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -30760,7 +30760,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>-41.0667729415928,174.85157472786025</t>
+          <t>-41.06677249320728,174.8515754729335</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -30802,7 +30802,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>-41.06675663156695,174.85160182989355</t>
+          <t>-41.06675635132591,174.8516022955641</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -30874,7 +30874,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>-41.06680046124449,174.85152899896937</t>
+          <t>-41.06680062938895,174.85152871956666</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -30904,7 +30904,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>-41.066790652816664,174.8515452974583</t>
+          <t>-41.06679014838316,174.85154613566618</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -30976,7 +30976,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>-41.06677832221853,174.85156578698033</t>
+          <t>-41.06677787383309,174.8515665320537</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -31018,7 +31018,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>-41.066807803551875,174.85151679838305</t>
+          <t>-41.06680757935929,174.85151717092006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -31060,7 +31060,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>-41.06679339917668,174.8515407338819</t>
+          <t>-41.06679317498403,174.85154110641878</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -31128,7 +31128,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>-41.066807243070436,174.85151772972557</t>
+          <t>-41.066806962829716,174.8515181953969</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -31170,7 +31170,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>-41.066738527991554,174.85163191220337</t>
+          <t>-41.066738135653914,174.8516325641418</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -31212,7 +31212,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>-41.06673000865935,174.85164606857873</t>
+          <t>-41.066729504225144,174.85164690678502</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -31254,7 +31254,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>-41.066734044132694,174.8516393629277</t>
+          <t>-41.06673353969855,174.8516402011341</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -31292,7 +31292,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>-41.06669296075438,174.85170763014185</t>
+          <t>-41.06669312889925,174.85170735074007</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -31334,7 +31334,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>-41.066665104744466,174.85175391768584</t>
+          <t>-41.06666521684112,174.85175373141814</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -31364,7 +31364,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>-41.066773389978295,174.851573982787</t>
+          <t>-41.066773053689175,174.85157454159193</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -31454,7 +31454,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>-41.066744861441386,174.85162138805353</t>
+          <t>-41.06674452515204,174.85162194685802</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -31496,7 +31496,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>-41.06655553012535,174.85193599406165</t>
+          <t>-41.06655569827075,174.85193571466104</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -31518,7 +31518,7 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>-41.06668449746152,174.85172169336363</t>
+          <t>-41.06668399302678,174.85172253156875</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -31560,7 +31560,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>-41.06680993338125,174.85151325928115</t>
+          <t>-41.06681010152569,174.85151297987835</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -31658,7 +31658,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>-41.06678000366394,174.85156299295505</t>
+          <t>-41.0667798355194,174.85156327235757</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -31726,7 +31726,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>-41.06679457618806,174.85153877806331</t>
+          <t>-41.06679446409175,174.85153896433175</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -31768,7 +31768,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>-41.066720312312086,174.8516621807646</t>
+          <t>-41.06671997602255,174.85166273956864</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -31802,7 +31802,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>-41.066772044821775,174.85157621800676</t>
+          <t>-41.06677159643626,174.85157696308002</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -31844,7 +31844,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>-41.066827140156946,174.8514846670548</t>
+          <t>-41.06682719620506,174.85148457392046</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -31886,7 +31886,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>-41.06680399227796,174.85152313151215</t>
+          <t>-41.066804160422414,174.85152285210944</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -31928,7 +31928,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>-41.06662603904246,174.85181883194184</t>
+          <t>-41.06662559065544,174.85181957701175</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -32004,7 +32004,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>-41.06676459041194,174.85158860484805</t>
+          <t>-41.06676442226735,174.85158888425048</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -32150,7 +32150,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>-41.06682652362763,174.85148569153222</t>
+          <t>-41.06682624338705,174.85148615720377</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -32192,7 +32192,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>-41.06680914870728,174.8515145631608</t>
+          <t>-41.066809260803566,174.85151437689228</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -32234,7 +32234,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>-41.06678841088999,174.8515490228265</t>
+          <t>-41.06678790645647,174.85154986103433</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -32276,7 +32276,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>-41.06674368442866,174.85162334386914</t>
+          <t>-41.06674379652511,174.85162315760098</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -32302,7 +32302,7 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>-41.066739480811506,174.85163032892433</t>
+          <t>-41.066739592907965,174.8516301426562</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -32350,7 +32350,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>-41.066705123231976,174.85168742007508</t>
+          <t>-41.066704955087125,174.851687699477</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -32392,7 +32392,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>-41.066736061869236,174.85163601010186</t>
+          <t>-41.066735669531596,174.85163666204025</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -32434,7 +32434,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>-41.066664039826236,174.851755687229</t>
+          <t>-41.06666426401955,174.8517553146936</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -32506,7 +32506,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>-41.06676660814706,174.8515852520191</t>
+          <t>-41.066766271857894,174.85158581082393</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -32548,7 +32548,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>-41.06674525377897,174.851620736115</t>
+          <t>-41.06674547797186,174.85162036357866</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -32578,7 +32578,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>-41.06677260530367,174.8515752866652</t>
+          <t>-41.06677221296635,174.8515759386043</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -32612,7 +32612,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>-41.066731858251345,174.85164299515543</t>
+          <t>-41.06673202639607,174.85164271575331</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -32654,7 +32654,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>-41.066797939077546,174.85153319000983</t>
+          <t>-41.066798051173855,174.8515330037414</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -32730,7 +32730,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>-41.0667492892509,174.85161403046084</t>
+          <t>-41.06674900900982,174.8516144961313</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -32768,7 +32768,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>-41.066754445686726,174.85160546212379</t>
+          <t>-41.066754165445666,174.8516059277943</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -32810,7 +32810,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>-41.066768850074865,174.85158152665338</t>
+          <t>-41.066768681930284,174.8515818060558</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -32852,7 +32852,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>-41.06682624338705,174.85148615720377</t>
+          <t>-41.06682601919457,174.851486529741</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -32962,7 +32962,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-41.066866429869975,174.85141937986276</t>
+          <t>-41.06686659801418,174.8514191004595</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -33004,7 +33004,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-41.06680875637029,174.85151521510062</t>
+          <t>-41.066808924514724,174.85151493569785</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -33084,7 +33084,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>-41.06675612713306,174.85160266810055</t>
+          <t>-41.06675607108485,174.85160276123466</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -33152,7 +33152,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>-41.06676089123065,174.8515947517006</t>
+          <t>-41.066760723086034,174.85159503110296</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -33228,7 +33228,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-41.066810213621956,174.85151279360983</t>
+          <t>-41.06681038176638,174.85151251420703</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -33270,7 +33270,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-41.066766888388045,174.8515847863484</t>
+          <t>-41.06676660814706,174.8515852520191</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -33312,7 +33312,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-41.06676985894233,174.85157985023872</t>
+          <t>-41.0667694105568,174.8515805953119</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -33354,7 +33354,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>-41.066802927363135,174.85152490106282</t>
+          <t>-41.06680298341127,174.85152480792857</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -33380,7 +33380,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-41.06679082096116,174.85154501805567</t>
+          <t>-41.0667909330575,174.85154483178727</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -33422,7 +33422,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>-41.066750746504574,174.85161160897442</t>
+          <t>-41.06675080255278,174.85161151584032</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -33444,7 +33444,7 @@
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
-          <t>-41.0667694105568,174.8515805953119</t>
+          <t>-41.066769466604995,174.85158050217777</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -33470,7 +33470,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>-41.06680051729265,174.85152890583512</t>
+          <t>-41.06680074148526,174.8515285332982</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -33512,7 +33512,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>-41.06680556162608,174.8515205237532</t>
+          <t>-41.066805393481644,174.85152080315595</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -33554,7 +33554,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>-41.06680438461501,174.85152247957242</t>
+          <t>-41.066804216470565,174.8515227589752</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -33596,7 +33596,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>-41.06679115725015,174.85154445925042</t>
+          <t>-41.06679110120198,174.85154455238464</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -33630,7 +33630,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>-41.066766271857894,174.85158581082393</t>
+          <t>-41.06676638395428,174.85158562455567</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -33656,7 +33656,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>-41.06674570216475,174.85161999104236</t>
+          <t>-41.06674525377897,174.851620736115</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -33694,7 +33694,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>-41.06675399730103,174.85160620719662</t>
+          <t>-41.06675382915639,174.85160648659894</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -33736,7 +33736,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>-41.066725020365354,174.8516543575073</t>
+          <t>-41.0667250764136,174.85165426437328</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -33778,7 +33778,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>-41.06674245136766,174.85162539281876</t>
+          <t>-41.0667421150783,174.8516259516232</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -33800,7 +33800,7 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-41.066606814444484,174.85185077680555</t>
+          <t>-41.06660636605726,174.851851521875</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -33852,7 +33852,7 @@
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr">
         <is>
-          <t>-41.0667121292659,174.85167577832817</t>
+          <t>-41.06671218531416,174.85167568519418</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -33894,7 +33894,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>-41.06677608029123,174.85156951234714</t>
+          <t>-41.06677591214667,174.85156979174963</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -33916,7 +33916,7 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>-41.06677837826672,174.85156569384617</t>
+          <t>-41.06677787383309,174.8515665320537</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -33958,7 +33958,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>-41.06676290896594,174.85159139887205</t>
+          <t>-41.06676251662852,174.85159205081095</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -34038,7 +34038,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>-41.06677495932754,174.85157137503046</t>
+          <t>-41.066774735134786,174.8515717475671</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -34076,7 +34076,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>-41.066796313680996,174.85153589090243</t>
+          <t>-41.06679642577731,174.851535704634</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -34118,7 +34118,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>-41.06672984051461,174.85164634798085</t>
+          <t>-41.066729952611105,174.85164616171275</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -34198,7 +34198,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>-41.06680180640012,174.85152676374764</t>
+          <t>-41.06680163825569,174.85152704315038</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -34266,7 +34266,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>-41.066748224334745,174.85161580000855</t>
+          <t>-41.06674783199719,174.85161645194714</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -34308,7 +34308,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>-41.06674301184993,174.85162446147802</t>
+          <t>-41.066743123946395,174.85162427520987</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -34372,7 +34372,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>-41.066740825969035,174.85162809370675</t>
+          <t>-41.06674065782435,174.85162837310898</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -34436,7 +34436,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>-41.0667750714239,174.8515711887621</t>
+          <t>-41.06677484723115,174.85157156129878</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -34478,7 +34478,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>-41.06682131115227,174.8514943530224</t>
+          <t>-41.066821030911626,174.85149481869388</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -34520,7 +34520,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>-41.066825682905844,174.85148708854686</t>
+          <t>-41.0668252345209,174.85148783362132</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -34626,7 +34626,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>-41.06680298341127,174.85152480792857</t>
+          <t>-41.066802927363135,174.85152490106282</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -34690,7 +34690,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>-41.06679648182547,174.85153561149974</t>
+          <t>-41.06679653787363,174.85153551836552</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -34818,7 +34818,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>-41.06672911188743,174.85164755872327</t>
+          <t>-41.066728663501465,174.85164830379554</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -34860,7 +34860,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>-41.06678263792828,174.8515586156485</t>
+          <t>-41.06678213349469,174.85155945385617</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -34924,7 +34924,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>-41.066738976377415,174.8516311671309</t>
+          <t>-41.06673914452211,174.8516308877287</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -34996,7 +34996,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>-41.066800685437094,174.85152862643244</t>
+          <t>-41.06680051729265,174.85152890583512</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -35038,7 +35038,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>-41.06681374465463,174.85150692615088</t>
+          <t>-41.06681363255838,174.85150711241943</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -35080,7 +35080,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>-41.06680970918869,174.8515136318182</t>
+          <t>-41.06680982128497,174.85151344554967</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -35102,7 +35102,7 @@
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr">
         <is>
-          <t>-41.066799620522204,174.8515303959829</t>
+          <t>-41.06679945237773,174.85153067538562</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -35186,7 +35186,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>-41.06677815407399,174.85156606638284</t>
+          <t>-41.06677821012217,174.85156597324868</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -35224,7 +35224,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>-41.06678123672386,174.85156094400307</t>
+          <t>-41.06678129277204,174.8515608508689</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -35266,7 +35266,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>-41.06681778012021,174.8515002204827</t>
+          <t>-41.06681727568702,174.85150105869127</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -35330,7 +35330,7 @@
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr">
         <is>
-          <t>-41.06676302106236,174.85159121260378</t>
+          <t>-41.06676274082134,174.8515916782744</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -35372,7 +35372,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>-41.066695202685985,174.85170390478447</t>
+          <t>-41.066694754299675,174.85170464985598</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -35440,7 +35440,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>-41.06665462370593,174.85177133371334</t>
+          <t>-41.06665451160925,174.85177151998099</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -35482,7 +35482,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>-41.06670899056283,174.85168099383108</t>
+          <t>-41.06670859822494,174.85168164576893</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -35562,7 +35562,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>-41.06677417465292,174.85157267890872</t>
+          <t>-41.0667742867493,174.8515724926404</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -35588,7 +35588,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>-41.066742283222986,174.85162567222096</t>
+          <t>-41.06674183483715,174.85162641729355</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -35630,7 +35630,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>-41.06675635132591,174.8516022955641</t>
+          <t>-41.06675651947052,174.8516020161618</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -35672,7 +35672,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>-41.06682338493287,174.85149090705335</t>
+          <t>-41.06682304864412,174.85149146585917</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -35702,7 +35702,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>-41.06673561348336,174.8516367551743</t>
+          <t>-41.06673516509744,174.8516375002467</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -35744,7 +35744,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>-41.06675595898843,174.85160294750287</t>
+          <t>-41.066755678747384,174.85160341317342</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -35816,7 +35816,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>-41.066744749344934,174.85162157432168</t>
+          <t>-41.06674424491093,174.8516224125284</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -35926,7 +35926,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>-41.066797939077546,174.85153319000983</t>
+          <t>-41.066797490692295,174.8515339350837</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -35990,7 +35990,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>-41.066797490692295,174.8515339350837</t>
+          <t>-41.066797154403346,174.85153449388906</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -36016,7 +36016,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>-41.066792278213434,174.8515425965662</t>
+          <t>-41.06679205402078,174.85154296910304</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -36042,7 +36042,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>-41.066778826652154,174.85156494877276</t>
+          <t>-41.066778490363085,174.85156550757782</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -36084,7 +36084,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>-41.06673903242565,174.85163107399683</t>
+          <t>-41.06673858403978,174.85163181906933</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -36118,7 +36118,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>-41.06669116720901,174.85171061042755</t>
+          <t>-41.06669088696754,174.8517110760972</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -36148,7 +36148,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>-41.06675433359031,174.851605648392</t>
+          <t>-41.06675422149388,174.8516058346602</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -36190,7 +36190,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>-41.066751026745656,174.85161114330393</t>
+          <t>-41.06675108279387,174.85161105016985</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -36232,7 +36232,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>-41.066722274001016,174.85165892107418</t>
+          <t>-41.066721993759735,174.85165938674427</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -36274,7 +36274,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>-41.066727094150565,174.8516509115484</t>
+          <t>-41.066727318343546,174.85165053901227</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -36300,7 +36300,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>-41.06672967236988,174.85164662738293</t>
+          <t>-41.06672922398392,174.8516473724552</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -36342,7 +36342,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>-41.0667417227407,174.85162660356167</t>
+          <t>-41.06674149854779,174.85162697609795</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -36376,7 +36376,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>-41.0667902604795,174.85154594939775</t>
+          <t>-41.066790204431335,174.85154604253196</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -36456,7 +36456,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>-41.06675377310817,174.85160657973304</t>
+          <t>-41.066753717059974,174.85160667286715</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -36524,7 +36524,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>-41.066802647122394,174.85152536673402</t>
+          <t>-41.06680275921869,174.85152518046556</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -36550,7 +36550,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>-41.06674189088538,174.85162632415947</t>
+          <t>-41.06674205903007,174.85162604475727</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -36636,7 +36636,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>-41.06682019018974,174.85149621570827</t>
+          <t>-41.066820022045356,174.85149649511115</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -36678,7 +36678,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>-41.06678544033698,174.851553958939</t>
+          <t>-41.06678532824063,174.8515541452074</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -36720,7 +36720,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>-41.06673163405838,174.85164336769162</t>
+          <t>-41.066731129624195,174.85164420589797</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -36762,7 +36762,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>-41.06676520694213,174.85158758037255</t>
+          <t>-41.06676537508673,174.85158730097018</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -36804,7 +36804,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>-41.0667825818801,174.85155870878268</t>
+          <t>-41.06678213349469,174.85155945385617</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -36846,7 +36846,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>-41.06680404832611,174.8515230383779</t>
+          <t>-41.066804216470565,174.8515227589752</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -36888,7 +36888,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>-41.06680584186682,174.85152005808195</t>
+          <t>-41.06680556162608,174.8515205237532</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -36930,7 +36930,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>-41.066804160422414,174.85152285210944</t>
+          <t>-41.066803880181666,174.85152331778065</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -37014,7 +37014,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>-41.06682708410884,174.8514847601891</t>
+          <t>-41.06682691596447,174.85148503959203</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -37078,7 +37078,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>-41.06681374465463,174.85150692615088</t>
+          <t>-41.06681385675091,174.85150673988232</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -37120,7 +37120,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>-41.06680993338125,174.85151325928115</t>
+          <t>-41.06680942894799,174.85151409748948</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -37162,7 +37162,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>-41.06667659465012,174.85173482524291</t>
+          <t>-41.066676818843376,174.85173445270735</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -37230,7 +37230,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>-41.06677316578555,174.8515743553236</t>
+          <t>-41.06677271740004,174.8515751003969</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -37252,7 +37252,7 @@
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr">
         <is>
-          <t>-41.066709326852454,174.85168043502722</t>
+          <t>-41.066709102659374,174.85168080756316</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -37294,7 +37294,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>-41.06671257765203,174.85167503325627</t>
+          <t>-41.06671240950723,174.85167531265824</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -37336,7 +37336,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>-41.06671442724477,174.85167195983462</t>
+          <t>-41.06671425909998,174.8516722392366</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -37400,7 +37400,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>-41.06672378730384,174.85165640645576</t>
+          <t>-41.06672384335208,174.85165631332174</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -37452,7 +37452,7 @@
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr">
         <is>
-          <t>-41.066726309475094,174.85165221542476</t>
+          <t>-41.066726533668074,174.85165184288866</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -37528,7 +37528,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>-41.0667616198573,174.85159354095697</t>
+          <t>-41.06676178800189,174.8515932615546</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -37562,7 +37562,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>-41.0667402094385,174.85162911818148</t>
+          <t>-41.06673976105265,174.851629863254</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -37604,7 +37604,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>-41.066734492518606,174.85163861785531</t>
+          <t>-41.066734212277424,174.85163908352555</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -37688,7 +37688,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>-41.06679149353914,174.85154390044517</t>
+          <t>-41.06679126934648,174.851544272982</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -37730,7 +37730,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>-41.06677860245944,174.85156532130944</t>
+          <t>-41.06677832221853,174.85156578698033</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -37798,7 +37798,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>-41.06679648182547,174.85153561149974</t>
+          <t>-41.066796593921794,174.8515354252313</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -37866,7 +37866,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>-41.06679216611711,174.8515427828346</t>
+          <t>-41.066792278213434,174.8515425965662</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -37900,7 +37900,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>-41.06675237190283,174.8516089080856</t>
+          <t>-41.06675186746889,174.8516097462925</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -37942,7 +37942,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>-41.06679205402078,174.85154296910304</t>
+          <t>-41.06679222216526,174.8515426897004</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -37984,7 +37984,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>-41.06678151696476,174.8515604783322</t>
+          <t>-41.06678106857933,174.85156122340564</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -38090,7 +38090,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>-41.06675977026655,174.85159661438303</t>
+          <t>-41.066759490025525,174.85159708005364</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -38240,7 +38240,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>-41.066801526159374,174.85152722941885</t>
+          <t>-41.066801021726015,174.851528067627</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -38282,7 +38282,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>-41.06676358154436,174.85159028126245</t>
+          <t>-41.06676374968895,174.85159000186005</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -38324,7 +38324,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>-41.06679653787363,174.85153551836552</t>
+          <t>-41.0667967060181,174.85153523896287</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -38392,7 +38392,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>-41.066797883029395,174.85153328314408</t>
+          <t>-41.06679810722202,174.85153291060715</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -38434,7 +38434,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>-41.0667967060181,174.85153523896287</t>
+          <t>-41.06679642577731,174.851535704634</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -38494,7 +38494,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>-41.06678969999784,174.85154688073985</t>
+          <t>-41.06678958790151,174.85154706700823</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -38536,7 +38536,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>-41.06674357233222,174.8516235301373</t>
+          <t>-41.066743179994624,174.85162418207582</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -38570,7 +38570,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>-41.06675321262604,174.85160751107406</t>
+          <t>-41.0667526521439,174.85160844241508</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -38612,7 +38612,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>-41.066759490025525,174.85159708005364</t>
+          <t>-41.06675965817015,174.85159680065127</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -38654,7 +38654,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>-41.06675579084381,174.8516032269052</t>
+          <t>-41.06675584689201,174.8516031337711</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -38696,7 +38696,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>-41.06673858403978,174.85163181906933</t>
+          <t>-41.06673835984685,174.85163219160555</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -38738,7 +38738,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>-41.06668253577087,174.85172495305025</t>
+          <t>-41.06668259181918,174.85172485991635</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -38780,7 +38780,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>-41.06669677203804,174.8517012970342</t>
+          <t>-41.066696603893185,174.85170157643603</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -38822,7 +38822,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>-41.06661006525174,174.85184537505148</t>
+          <t>-41.066609897106545,174.85184565445257</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -38852,7 +38852,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>-41.066676874891684,174.85173435957347</t>
+          <t>-41.066676818843376,174.85173445270735</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -38894,7 +38894,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>-41.066687019635054,174.85171750233764</t>
+          <t>-41.06668673939356,174.8517179680072</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -38928,7 +38928,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>-41.06680550557793,174.85152061688746</t>
+          <t>-41.06680505719276,174.85152136196146</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -38966,7 +38966,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>-41.06671767804397,174.85166655806285</t>
+          <t>-41.06671784618874,174.85166627866082</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -39008,7 +39008,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>-41.06674239531944,174.85162548595284</t>
+          <t>-41.06674200298185,174.85162613789132</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -39050,7 +39050,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>-41.066768850074865,174.85158152665338</t>
+          <t>-41.06676873797848,174.85158171292167</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -39092,7 +39092,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>-41.066768401689316,174.85158227172656</t>
+          <t>-41.066768121448334,174.85158273739725</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -39134,7 +39134,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>-41.06674844852762,174.85161542747218</t>
+          <t>-41.06674805619008,174.8516160794108</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -39176,7 +39176,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>-41.0667221619045,174.85165910734221</t>
+          <t>-41.06672210585625,174.85165920047623</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -39218,7 +39218,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>-41.06677944318215,174.85156392429684</t>
+          <t>-41.0667795552785,174.8515637380285</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -39260,7 +39260,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>-41.0667657113759,174.85158674216532</t>
+          <t>-41.06676526299032,174.85158748723845</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -39302,7 +39302,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>-41.06670843008012,174.85168192517085</t>
+          <t>-41.066707981693945,174.85168267024264</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -39374,7 +39374,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>-41.06676464646014,174.85158851171394</t>
+          <t>-41.066764254122745,174.85158916365285</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -39404,7 +39404,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>-41.06679423989909,174.85153933686863</t>
+          <t>-41.06679401570645,174.8515397094055</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -39446,7 +39446,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>-41.06676066703784,174.8515951242371</t>
+          <t>-41.06676049889322,174.85159540363944</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -39514,7 +39514,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>-41.066808924514724,174.85151493569785</t>
+          <t>-41.06680898056286,174.85151484256357</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -39594,7 +39594,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>-41.06681486561733,174.85150506346537</t>
+          <t>-41.066815033761735,174.8515047840625</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -39632,7 +39632,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>-41.06667704303662,174.8517340801718</t>
+          <t>-41.06667653860181,174.85173491837676</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
@@ -39674,7 +39674,7 @@
       </c>
       <c r="G333" t="inlineStr">
         <is>
-          <t>-41.06678958790151,174.85154706700823</t>
+          <t>-41.066789251612505,174.85154762581348</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -39750,7 +39750,7 @@
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>-41.06675965817015,174.85159680065127</t>
+          <t>-41.066759490025525,174.85159708005364</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -39818,7 +39818,7 @@
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>-41.06677434279748,174.85157239950624</t>
+          <t>-41.06677411860474,174.8515727720429</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -39890,7 +39890,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>-41.066764702508344,174.85158841857978</t>
+          <t>-41.06676442226735,174.85158888425048</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -39932,7 +39932,7 @@
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>-41.066803599940926,174.85152378345188</t>
+          <t>-41.066803151555746,174.85152452852583</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
@@ -39966,7 +39966,7 @@
       </c>
       <c r="G341" t="inlineStr">
         <is>
-          <t>-41.066729896562855,174.8516462548468</t>
+          <t>-41.06672984051461,174.85164634798085</t>
         </is>
       </c>
       <c r="H341" t="inlineStr">
@@ -40008,7 +40008,7 @@
       </c>
       <c r="G342" t="inlineStr">
         <is>
-          <t>-41.0667458142612,174.85161980477417</t>
+          <t>-41.06674592635764,174.85161961850602</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -40084,7 +40084,7 @@
       </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>-41.06670966314208,174.85167987622336</t>
+          <t>-41.06670921475592,174.8516806212952</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -40126,7 +40126,7 @@
       </c>
       <c r="G345" t="inlineStr">
         <is>
-          <t>-41.066699182114306,174.85169729227454</t>
+          <t>-41.06669946235572,174.85169682660478</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -40168,7 +40168,7 @@
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>-41.06671325023121,174.85167391564843</t>
+          <t>-41.06671274579682,174.85167475385433</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
@@ -40190,7 +40190,7 @@
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr">
         <is>
-          <t>-41.06667138215673,174.85174348669344</t>
+          <t>-41.0666710458668,174.85174404549667</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
@@ -40216,7 +40216,7 @@
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr">
         <is>
-          <t>-41.06672384335208,174.85165631332174</t>
+          <t>-41.06672395544859,174.8516561270537</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
@@ -40326,7 +40326,7 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>-41.06671123249361,174.85167726847192</t>
+          <t>-41.066711064348816,174.85167754787386</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -40394,7 +40394,7 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>-41.06668584262075,174.85171945814977</t>
+          <t>-41.06668556237924,174.85171992381936</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
@@ -40462,7 +40462,7 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>-41.066704450652644,174.85168853768266</t>
+          <t>-41.06670461879747,174.85168825828077</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
@@ -40504,7 +40504,7 @@
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>-41.066752091661755,174.85160937375608</t>
+          <t>-41.066752203758185,174.8516091874879</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -40542,7 +40542,7 @@
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>-41.06675999445938,174.85159624184655</t>
+          <t>-41.066760162604,174.85159596244418</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -40584,7 +40584,7 @@
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>-41.06679115725015,174.85154445925042</t>
+          <t>-41.06679070886484,174.85154520432408</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -40626,7 +40626,7 @@
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>-41.066750746504574,174.85161160897442</t>
+          <t>-41.06675024207062,174.85161244718125</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -40668,7 +40668,7 @@
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>-41.06671874296087,174.85166478851679</t>
+          <t>-41.066718406671335,174.8516653473208</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
@@ -40710,7 +40710,7 @@
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>-41.06674435700736,174.85162222626022</t>
+          <t>-41.06674424491093,174.8516224125284</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -40752,7 +40752,7 @@
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>-41.06674749570786,174.85161701075168</t>
+          <t>-41.066747663852524,174.8516167313494</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -40794,7 +40794,7 @@
       </c>
       <c r="G363" t="inlineStr">
         <is>
-          <t>-41.066746038454085,174.85161943223784</t>
+          <t>-41.06674559006831,174.85162017731048</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -40836,7 +40836,7 @@
       </c>
       <c r="G364" t="inlineStr">
         <is>
-          <t>-41.066779106893065,174.8515644831019</t>
+          <t>-41.066778826652154,174.85156494877276</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -40878,7 +40878,7 @@
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>-41.0667592097845,174.85159754572425</t>
+          <t>-41.066758985591676,174.85159791826072</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -40972,7 +40972,7 @@
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>-41.06679199797261,174.85154306223725</t>
+          <t>-41.06679149353914,174.85154390044517</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
@@ -41014,7 +41014,7 @@
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>-41.066775519809376,174.85157044368881</t>
+          <t>-41.066775015375704,174.8515712818963</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
@@ -41056,7 +41056,7 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>-41.066731017527715,174.85164439216604</t>
+          <t>-41.06673096147947,174.85164448530008</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -41098,7 +41098,7 @@
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>-41.06673830379863,174.85163228473962</t>
+          <t>-41.066738135653914,174.8516325641418</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -41140,7 +41140,7 @@
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>-41.06682489823216,174.85148839242714</t>
+          <t>-41.06682484218404,174.85148848556148</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
@@ -41200,7 +41200,7 @@
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>-41.0667061881492,174.85168565052973</t>
+          <t>-41.06670630024575,174.85168546426178</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
@@ -41238,7 +41238,7 @@
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>-41.06660462855672,174.85185440901918</t>
+          <t>-41.06660429226628,174.85185496782125</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
@@ -41280,7 +41280,7 @@
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>-41.0667182945748,174.85166553358883</t>
+          <t>-41.06671784618874,174.85166627866082</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
@@ -41398,7 +41398,7 @@
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>-41.066714651437835,174.85167158729865</t>
+          <t>-41.06671487563088,174.8516712147627</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -41440,7 +41440,7 @@
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>-41.06671285789334,174.85167456758634</t>
+          <t>-41.06671313813469,174.8516741019164</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
@@ -41482,7 +41482,7 @@
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>-41.06664801000116,174.85178232350324</t>
+          <t>-41.06664812209786,174.85178213723563</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
@@ -41630,7 +41630,7 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>-41.06680640234827,174.85151912673942</t>
+          <t>-41.06680595396309,174.85151987181342</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
@@ -41672,7 +41672,7 @@
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>-41.06674340418752,174.85162380953952</t>
+          <t>-41.06674334813929,174.8516239026736</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
@@ -41706,7 +41706,7 @@
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>-41.06675595898843,174.85160294750287</t>
+          <t>-41.06675573479559,174.85160332003932</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
@@ -41856,7 +41856,7 @@
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>-41.06677282949642,174.85157491412858</t>
+          <t>-41.066772997640975,174.8515746347261</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -41898,7 +41898,7 @@
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>-41.06673466066332,174.85163833845317</t>
+          <t>-41.06673426832566,174.8516389903915</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
@@ -41920,7 +41920,7 @@
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr">
         <is>
-          <t>-41.06677512747208,174.85157109562797</t>
+          <t>-41.06677484723115,174.85157156129878</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -41962,7 +41962,7 @@
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>-41.06677591214667,174.85156979174963</t>
+          <t>-41.066775968194854,174.8515696986155</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
@@ -42004,7 +42004,7 @@
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>-41.06680500114462,174.8515214550957</t>
+          <t>-41.06680483300018,174.85152173449845</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -42046,7 +42046,7 @@
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>-41.066745646116516,174.8516200841764</t>
+          <t>-41.06674553402008,174.85162027044458</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
@@ -42144,7 +42144,7 @@
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>-41.06680023705188,174.85152937150633</t>
+          <t>-41.0667997326185,174.85153020971444</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
@@ -42186,7 +42186,7 @@
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>-41.06676728072541,174.85158413440942</t>
+          <t>-41.06676744887,174.851583855007</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
@@ -42228,7 +42228,7 @@
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>-41.06676122751987,174.85159419289585</t>
+          <t>-41.066761395664486,174.85159391349347</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -42270,7 +42270,7 @@
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>-41.066731185672445,174.85164411276392</t>
+          <t>-41.066730849382985,174.85164467156818</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
@@ -42312,7 +42312,7 @@
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>-41.06675573479559,174.85160332003932</t>
+          <t>-41.066755678747384,174.85160341317342</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
@@ -42338,7 +42338,7 @@
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr">
         <is>
-          <t>-41.06675792067574,174.85159968780894</t>
+          <t>-41.06675764043471,174.8516001534795</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -42380,7 +42380,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>-41.066665048696144,174.8517540108197</t>
+          <t>-41.066665160792795,174.85175382455202</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -42422,7 +42422,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>-41.066727318343546,174.85165053901227</t>
+          <t>-41.0667274864883,174.85165025961018</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
@@ -42464,7 +42464,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>-41.066715267968725,174.85167056282472</t>
+          <t>-41.06671487563088,174.8516712147627</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -42554,7 +42554,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>-41.06670792564566,174.85168276337663</t>
+          <t>-41.06670775750086,174.85168304277855</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -42596,7 +42596,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>-41.06675685575979,174.8516014573571</t>
+          <t>-41.06675651947052,174.8516020161618</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -42634,7 +42634,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>-41.066653614835765,174.85177301012212</t>
+          <t>-41.06665355878743,174.8517731032559</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
@@ -42676,7 +42676,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>-41.06673830379863,174.85163228473962</t>
+          <t>-41.06673847194332,174.85163200533742</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -42718,7 +42718,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>-41.06673723888218,174.8516340542867</t>
+          <t>-41.06673673444807,174.85163489249322</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
@@ -42786,7 +42786,7 @@
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>-41.066821927681644,174.85149332854513</t>
+          <t>-41.06682198372977,174.85149323541083</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -42812,7 +42812,7 @@
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>-41.06674048967966,174.85162865251115</t>
+          <t>-41.066740265486736,174.85162902504743</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
@@ -42868,7 +42868,7 @@
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>-41.066752540047474,174.8516086286833</t>
+          <t>-41.066752091661755,174.85160937375608</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
@@ -42948,7 +42948,7 @@
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>-41.06676520694213,174.85158758037255</t>
+          <t>-41.06676475855654,174.85158832544565</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -43012,7 +43012,7 @@
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>-41.066756799711584,174.85160155049124</t>
+          <t>-41.06675635132591,174.8516022955641</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
@@ -43118,7 +43118,7 @@
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>-41.066794071754614,174.85153961627128</t>
+          <t>-41.06679373546566,174.8515401750766</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
@@ -43160,7 +43160,7 @@
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>-41.066810605958935,174.85151214166996</t>
+          <t>-41.06681043781453,174.85151242107275</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
@@ -43202,7 +43202,7 @@
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>-41.06677479118297,174.85157165443295</t>
+          <t>-41.06677451094204,174.85157212010378</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
@@ -43244,7 +43244,7 @@
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>-41.066802198737186,174.85152611180797</t>
+          <t>-41.06680186244829,174.8515266706134</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -43286,7 +43286,7 @@
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>-41.066775463761196,174.85157053682298</t>
+          <t>-41.06677495932754,174.85157137503046</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -43328,7 +43328,7 @@
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>-41.06681105434405,174.85151139659584</t>
+          <t>-41.06681049386266,174.8515123279385</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -43370,7 +43370,7 @@
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>-41.06676089123065,174.8515947517006</t>
+          <t>-41.06676100332706,174.85159456543235</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
@@ -43408,7 +43408,7 @@
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>-41.066713194182945,174.85167400878242</t>
+          <t>-41.06671336232774,174.85167372938042</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
@@ -43514,7 +43514,7 @@
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>-41.06672283448354,174.85165798973404</t>
+          <t>-41.06672261029054,174.85165836227011</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -43586,7 +43586,7 @@
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>-41.06671313813469,174.8516741019164</t>
+          <t>-41.06671280184509,174.85167466072033</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -43616,7 +43616,7 @@
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>-41.06667642650518,174.85173510464455</t>
+          <t>-41.06667603416698,174.85173575658172</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -43658,7 +43658,7 @@
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>-41.06667861238934,174.85173147242293</t>
+          <t>-41.06667883658258,174.8517310998874</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -43700,7 +43700,7 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>-41.0667101675765,174.85167903801755</t>
+          <t>-41.066709775238614,174.8516796899554</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -43722,7 +43722,7 @@
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr">
         <is>
-          <t>-41.06669088696754,174.8517110760972</t>
+          <t>-41.06669116720901,174.85171061042755</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
@@ -43764,7 +43764,7 @@
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>-41.06672345101432,174.85165696525988</t>
+          <t>-41.066723002628294,174.851657710332</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -43806,7 +43806,7 @@
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>-41.06673365179503,174.85164001486604</t>
+          <t>-41.06673337155383,174.85164048053625</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
@@ -43848,7 +43848,7 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>-41.06677041942425,174.8515789188972</t>
+          <t>-41.066770083135104,174.8515794777021</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -43890,7 +43890,7 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>-41.066751250938516,174.85161077076754</t>
+          <t>-41.06675091464921,174.85161132957214</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
@@ -43932,7 +43932,7 @@
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>-41.06672238609751,174.85165873480616</t>
+          <t>-41.066721993759735,174.85165938674427</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
@@ -44046,7 +44046,7 @@
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>-41.06681968575659,174.8514970539169</t>
+          <t>-41.06681979785285,174.8514968676483</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -44088,7 +44088,7 @@
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>-41.0667592097845,174.85159754572425</t>
+          <t>-41.06675932188091,174.851597359456</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
@@ -44130,7 +44130,7 @@
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>-41.06677114805074,174.85157770815323</t>
+          <t>-41.06677069966521,174.85157845322647</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -44160,7 +44160,7 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>-41.06677109200255,174.8515778012874</t>
+          <t>-41.06677069966521,174.85157845322647</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
@@ -44202,7 +44202,7 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>-41.06672827116374,174.85164895573376</t>
+          <t>-41.06672787882602,174.851649607672</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -44244,7 +44244,7 @@
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>-41.066747327563206,174.85161729015394</t>
+          <t>-41.06674721546676,174.8516174764221</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -44300,7 +44300,7 @@
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>-41.06678426332535,174.85155591475706</t>
+          <t>-41.06678437542169,174.85155572848868</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
@@ -44364,7 +44364,7 @@
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>-41.06681267974005,174.85150869570202</t>
+          <t>-41.06681290393259,174.85150832316495</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
@@ -44406,7 +44406,7 @@
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>-41.06677445489385,174.85157221323792</t>
+          <t>-41.06677406255655,174.85157286517705</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
@@ -44444,7 +44444,7 @@
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>-41.066685730524156,174.8517196444176</t>
+          <t>-41.06668556237924,174.85171992381936</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
@@ -44466,7 +44466,7 @@
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr">
         <is>
-          <t>-41.066747327563206,174.85161729015394</t>
+          <t>-41.066746991273874,174.85161784895843</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
@@ -44542,7 +44542,7 @@
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>-41.066820974863525,174.85149491182818</t>
+          <t>-41.06682080671913,174.85149519123104</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
@@ -44622,7 +44622,7 @@
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>-41.0667274864883,174.85165025961018</t>
+          <t>-41.066727206247066,174.85165072528034</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
@@ -44664,7 +44664,7 @@
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>-41.06675461383137,174.85160518272147</t>
+          <t>-41.06675450173494,174.85160536898968</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
@@ -44744,7 +44744,7 @@
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>-41.06675595898843,174.85160294750287</t>
+          <t>-41.06675607108485,174.85160276123466</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
@@ -44786,7 +44786,7 @@
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>-41.06672333891782,174.8516571515279</t>
+          <t>-41.06672350706257,174.85165687212586</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
@@ -44828,7 +44828,7 @@
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>-41.066768345641115,174.8515823648607</t>
+          <t>-41.066767897255566,174.85158310993384</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
@@ -44926,7 +44926,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>-41.066768121448334,174.85158273739725</t>
+          <t>-41.06676772911098,174.8515833893363</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
@@ -44968,7 +44968,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>-41.066770083135104,174.8515794777021</t>
+          <t>-41.06677019523149,174.8515792914338</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
@@ -45024,7 +45024,7 @@
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>-41.06670624419747,174.85168555739577</t>
+          <t>-41.066705963956096,174.8516860230656</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
@@ -45058,7 +45058,7 @@
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>-41.06673751912336,174.85163358861644</t>
+          <t>-41.06673746307512,174.8516336817505</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
@@ -45142,7 +45142,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>-41.066704002266434,174.85168928275436</t>
+          <t>-41.066704170411256,174.85168900335248</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
@@ -45184,7 +45184,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>-41.066770587568826,174.85157863949476</t>
+          <t>-41.06677086780978,174.851578173824</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -45214,7 +45214,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>-41.066684105123386,174.85172234530094</t>
+          <t>-41.06668393697848,174.85172262470266</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -45256,7 +45256,7 @@
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>-41.06675259609569,174.8516085355492</t>
+          <t>-41.06675248399925,174.85160872181737</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
@@ -45298,7 +45298,7 @@
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>-41.06673684654454,174.8516347062251</t>
+          <t>-41.06673662235159,174.85163507876135</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -45340,7 +45340,7 @@
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>-41.066768345641115,174.8515823648607</t>
+          <t>-41.06676823354473,174.85158255112898</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -45420,7 +45420,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>-41.066795136669654,174.85153784672113</t>
+          <t>-41.066794688284375,174.85153859179488</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
@@ -45462,7 +45462,7 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>-41.0667956411031,174.8515370085131</t>
+          <t>-41.066795136669654,174.85153784672113</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
@@ -45504,7 +45504,7 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>-41.066783030265505,174.8515579637092</t>
+          <t>-41.066783142361864,174.85155777744083</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -45546,7 +45546,7 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>-41.066771652484455,174.85157686994586</t>
+          <t>-41.066771204098934,174.8515776150191</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -45588,7 +45588,7 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>-41.0667806201939,174.85156196847907</t>
+          <t>-41.066780339953,174.85156243414997</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -45630,7 +45630,7 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>-41.066712017169365,174.85167596459613</t>
+          <t>-41.06671173692802,174.85167643026605</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -45702,7 +45702,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>-41.06679894794434,174.8515315135937</t>
+          <t>-41.06679906004065,174.85153132732523</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
@@ -45744,7 +45744,7 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>-41.06676907426763,174.8515811541168</t>
+          <t>-41.066768794026665,174.8515816197875</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
@@ -45782,7 +45782,7 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>-41.06681862084215,174.8514988234684</t>
+          <t>-41.06681822850524,174.85149947540842</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
@@ -45846,7 +45846,7 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>-41.066786393155894,174.8515523756577</t>
+          <t>-41.06678594477052,174.85155312073127</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
@@ -45888,7 +45888,7 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>-41.06682372122162,174.85149034824752</t>
+          <t>-41.06682388936597,174.85149006884464</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
@@ -45930,7 +45930,7 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>-41.06680012495557,174.8515295577748</t>
+          <t>-41.06680023705188,174.85152937150633</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -45968,7 +45968,7 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>-41.06675029811883,174.85161235404718</t>
+          <t>-41.066750129974174,174.85161263344946</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
@@ -46044,7 +46044,7 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>-41.06677277344823,174.85157500726274</t>
+          <t>-41.066772437159095,174.85157556606768</t>
         </is>
       </c>
       <c r="H504" t="inlineStr">
@@ -46086,7 +46086,7 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>-41.06679042862401,174.85154566999512</t>
+          <t>-41.06679048467217,174.85154557686093</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -46128,7 +46128,7 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>-41.06677647262851,174.85156886040795</t>
+          <t>-41.066776360532145,174.8515690466763</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
@@ -46170,7 +46170,7 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>-41.066787850408296,174.85154995416852</t>
+          <t>-41.06678762621563,174.85155032670534</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -46242,7 +46242,7 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>-41.06674996182954,174.85161291285175</t>
+          <t>-41.066749849733085,174.85161309911993</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -46306,7 +46306,7 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>-41.06674323604285,174.85162408894175</t>
+          <t>-41.06674334813929,174.8516239026736</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
@@ -46332,7 +46332,7 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>-41.066689037373784,174.85171414951662</t>
+          <t>-41.066689205518664,174.85171387011488</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -46374,7 +46374,7 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>-41.06673443647037,174.85163871098936</t>
+          <t>-41.06673393203623,174.8516395491958</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -46404,7 +46404,7 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>-41.0666127555748,174.85184090463392</t>
+          <t>-41.06661292371997,174.85184062523282</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
@@ -46468,7 +46468,7 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>-41.0666888692289,174.85171442891837</t>
+          <t>-41.06668853293912,174.8517149877219</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -46536,7 +46536,7 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>-41.06663287694407,174.85180746962428</t>
+          <t>-41.06663304508918,174.851807190223</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -46578,7 +46578,7 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>-41.0667570239044,174.85160117795476</t>
+          <t>-41.06675707995262,174.85160108482066</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
@@ -46620,7 +46620,7 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>-41.06673124172069,174.85164401962987</t>
+          <t>-41.066730737286505,174.85164485783622</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
@@ -46684,7 +46684,7 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>-41.06677137224349,174.8515773356166</t>
+          <t>-41.066771204098934,174.8515776150191</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
@@ -46722,7 +46722,7 @@
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>-41.06674183483715,174.85162641729355</t>
+          <t>-41.06674189088538,174.85162632415947</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
@@ -46748,7 +46748,7 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>-41.06674687917743,174.8516180352266</t>
+          <t>-41.06674676708098,174.85161822149476</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
@@ -46774,7 +46774,7 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>-41.06671846271958,174.8516652541868</t>
+          <t>-41.06671863086436,174.8516649747848</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
@@ -46816,7 +46816,7 @@
       </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>-41.06673426832566,174.8516389903915</t>
+          <t>-41.066733819939735,174.8516397354639</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
@@ -46858,7 +46858,7 @@
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>-41.06677327788192,174.85157416905528</t>
+          <t>-41.06677282949642,174.85157491412858</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
@@ -46900,7 +46900,7 @@
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>-41.06678790645647,174.85154986103433</t>
+          <t>-41.066787458071126,174.85155060610793</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
@@ -46972,7 +46972,7 @@
       </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>-41.06673208244432,174.85164262261927</t>
+          <t>-41.066731970347824,174.85164280888736</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
@@ -47014,7 +47014,7 @@
       </c>
       <c r="G531" t="inlineStr">
         <is>
-          <t>-41.06676234848392,174.8515923302133</t>
+          <t>-41.066762292435726,174.85159242334745</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
@@ -47040,7 +47040,7 @@
       </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>-41.0668761822326,174.8514031744706</t>
+          <t>-41.06687595804039,174.8514035470084</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
@@ -47082,7 +47082,7 @@
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>-41.06675113884208,174.85161095703575</t>
+          <t>-41.066751250938516,174.85161077076754</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
@@ -47124,7 +47124,7 @@
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>-41.06680561767423,174.85152043061896</t>
+          <t>-41.06680550557793,174.85152061688746</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
@@ -47166,7 +47166,7 @@
       </c>
       <c r="G535" t="inlineStr">
         <is>
-          <t>-41.066779162941245,174.8515643899677</t>
+          <t>-41.066779050844886,174.85156457623606</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -47238,7 +47238,7 @@
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>-41.06680853217772,174.8515155876377</t>
+          <t>-41.066808307985156,174.8515159601747</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
@@ -47280,7 +47280,7 @@
       </c>
       <c r="G538" t="inlineStr">
         <is>
-          <t>-41.06675315657783,174.85160760420817</t>
+          <t>-41.066753100529624,174.85160769734227</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
@@ -47322,7 +47322,7 @@
       </c>
       <c r="G539" t="inlineStr">
         <is>
-          <t>-41.06677753754399,174.85156709085877</t>
+          <t>-41.066777201254894,174.85156764966376</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
@@ -47386,7 +47386,7 @@
       </c>
       <c r="G541" t="inlineStr">
         <is>
-          <t>-41.066751979565325,174.8516095600243</t>
+          <t>-41.066752091661755,174.85160937375608</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
@@ -47428,7 +47428,7 @@
       </c>
       <c r="G542" t="inlineStr">
         <is>
-          <t>-41.06676896217125,174.85158134038508</t>
+          <t>-41.0667685698339,174.8515819923241</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
@@ -47508,7 +47508,7 @@
       </c>
       <c r="G544" t="inlineStr">
         <is>
-          <t>-41.06677944318215,174.85156392429684</t>
+          <t>-41.066779050844886,174.85156457623606</t>
         </is>
       </c>
       <c r="H544" t="inlineStr">
@@ -47546,7 +47546,7 @@
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>-41.06677316578555,174.8515743553236</t>
+          <t>-41.06677344602649,174.85157388965283</t>
         </is>
       </c>
       <c r="H545" t="inlineStr">
@@ -47588,7 +47588,7 @@
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>-41.066809260803566,174.85151437689228</t>
+          <t>-41.06680942894799,174.85151409748948</t>
         </is>
       </c>
       <c r="H546" t="inlineStr">
@@ -47630,7 +47630,7 @@
       </c>
       <c r="G547" t="inlineStr">
         <is>
-          <t>-41.06680673863712,174.8515185679339</t>
+          <t>-41.066806962829716,174.8515181953969</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
@@ -47660,7 +47660,7 @@
       </c>
       <c r="G548" t="inlineStr">
         <is>
-          <t>-41.06672445988285,174.85165528884752</t>
+          <t>-41.0667244038346,174.85165538198154</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
@@ -47702,7 +47702,7 @@
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>-41.0667778177849,174.8515666251879</t>
+          <t>-41.06677787383309,174.8515665320537</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
@@ -47744,7 +47744,7 @@
       </c>
       <c r="G550" t="inlineStr">
         <is>
-          <t>-41.06678151696476,174.8515604783322</t>
+          <t>-41.06678101253116,174.85156131653983</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
@@ -47812,7 +47812,7 @@
       </c>
       <c r="G552" t="inlineStr">
         <is>
-          <t>-41.06678336655456,174.85155740490407</t>
+          <t>-41.06678319841003,174.85155768430664</t>
         </is>
       </c>
       <c r="H552" t="inlineStr">
@@ -47842,7 +47842,7 @@
       </c>
       <c r="G553" t="inlineStr">
         <is>
-          <t>-41.066672166833186,174.85174218281927</t>
+          <t>-41.06667227892982,174.8517419965515</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
@@ -47884,7 +47884,7 @@
       </c>
       <c r="G554" t="inlineStr">
         <is>
-          <t>-41.066764254122745,174.85158916365285</t>
+          <t>-41.066764029929956,174.8515895361894</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
@@ -47968,7 +47968,7 @@
       </c>
       <c r="G556" t="inlineStr">
         <is>
-          <t>-41.066760723086034,174.85159503110296</t>
+          <t>-41.066760386796815,174.8515955899077</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
@@ -48010,7 +48010,7 @@
       </c>
       <c r="G557" t="inlineStr">
         <is>
-          <t>-41.06674166669247,174.85162669669575</t>
+          <t>-41.066741218306646,174.8516274417683</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
@@ -48052,7 +48052,7 @@
       </c>
       <c r="G558" t="inlineStr">
         <is>
-          <t>-41.06675601503663,174.8516028543688</t>
+          <t>-41.06675595898843,174.85160294750287</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
@@ -48094,7 +48094,7 @@
       </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>-41.066708710321464,174.85168145950098</t>
+          <t>-41.066708878466294,174.85168118009906</t>
         </is>
       </c>
       <c r="H559" t="inlineStr">
@@ -48132,7 +48132,7 @@
       </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>-41.06673096147947,174.85164448530008</t>
+          <t>-41.066731129624195,174.85164420589797</t>
         </is>
       </c>
       <c r="H560" t="inlineStr">
@@ -48174,7 +48174,7 @@
       </c>
       <c r="G561" t="inlineStr">
         <is>
-          <t>-41.06666734667751,174.85175019233165</t>
+          <t>-41.0666675148225,174.85174991293007</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
@@ -48216,7 +48216,7 @@
       </c>
       <c r="G562" t="inlineStr">
         <is>
-          <t>-41.06667670674674,174.8517346389751</t>
+          <t>-41.06667637045686,174.85173519777842</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
@@ -48254,7 +48254,7 @@
       </c>
       <c r="G563" t="inlineStr">
         <is>
-          <t>-41.06671140063842,174.85167698906997</t>
+          <t>-41.066711064348816,174.85167754787386</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
@@ -48296,7 +48296,7 @@
       </c>
       <c r="G564" t="inlineStr">
         <is>
-          <t>-41.06670506718368,174.85168751320904</t>
+          <t>-41.066704899038854,174.85168779261096</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
@@ -48338,7 +48338,7 @@
       </c>
       <c r="G565" t="inlineStr">
         <is>
-          <t>-41.06667362408945,174.85173976133854</t>
+          <t>-41.06667373618608,174.85173957507078</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
@@ -48402,7 +48402,7 @@
       </c>
       <c r="G567" t="inlineStr">
         <is>
-          <t>-41.06670433855609,174.8516887239506</t>
+          <t>-41.0667038341216,174.85168956215625</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
@@ -48444,7 +48444,7 @@
       </c>
       <c r="G568" t="inlineStr">
         <is>
-          <t>-41.066708710321464,174.85168145950098</t>
+          <t>-41.066708878466294,174.85168118009906</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
@@ -48474,7 +48474,7 @@
       </c>
       <c r="G569" t="inlineStr">
         <is>
-          <t>-41.066631307589695,174.85181007736952</t>
+          <t>-41.06663091525111,174.85181072930578</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
@@ -48516,7 +48516,7 @@
       </c>
       <c r="G570" t="inlineStr">
         <is>
-          <t>-41.06672978446636,174.85164644111487</t>
+          <t>-41.06672961632163,174.85164672051695</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
@@ -48558,7 +48558,7 @@
       </c>
       <c r="G571" t="inlineStr">
         <is>
-          <t>-41.06675461383137,174.85160518272147</t>
+          <t>-41.066754165445666,174.8516059277943</t>
         </is>
       </c>
       <c r="H571" t="inlineStr">
@@ -48600,7 +48600,7 @@
       </c>
       <c r="G572" t="inlineStr">
         <is>
-          <t>-41.06676526299032,174.85158748723845</t>
+          <t>-41.06676509484574,174.85158776664085</t>
         </is>
       </c>
       <c r="H572" t="inlineStr">
@@ -48642,7 +48642,7 @@
       </c>
       <c r="G573" t="inlineStr">
         <is>
-          <t>-41.0667658795205,174.85158646276292</t>
+          <t>-41.06676576742411,174.8515866490312</t>
         </is>
       </c>
       <c r="H573" t="inlineStr">
@@ -48684,7 +48684,7 @@
       </c>
       <c r="G574" t="inlineStr">
         <is>
-          <t>-41.06672776672953,174.85164979394003</t>
+          <t>-41.0667274864883,174.85165025961018</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
@@ -48726,7 +48726,7 @@
       </c>
       <c r="G575" t="inlineStr">
         <is>
-          <t>-41.066754781976,174.85160490331916</t>
+          <t>-41.066754445686726,174.85160546212379</t>
         </is>
       </c>
       <c r="H575" t="inlineStr">
@@ -48768,7 +48768,7 @@
       </c>
       <c r="G576" t="inlineStr">
         <is>
-          <t>-41.066773782315614,174.85157333084786</t>
+          <t>-41.066773726267435,174.85157342398205</t>
         </is>
       </c>
       <c r="H576" t="inlineStr">
@@ -48810,7 +48810,7 @@
       </c>
       <c r="G577" t="inlineStr">
         <is>
-          <t>-41.066785272192455,174.85155423834158</t>
+          <t>-41.06678532824063,174.8515541452074</t>
         </is>
       </c>
       <c r="H577" t="inlineStr">
@@ -48852,7 +48852,7 @@
       </c>
       <c r="G578" t="inlineStr">
         <is>
-          <t>-41.06674833643118,174.85161561374036</t>
+          <t>-41.06674794409364,174.85161626567898</t>
         </is>
       </c>
       <c r="H578" t="inlineStr">
@@ -48894,7 +48894,7 @@
       </c>
       <c r="G579" t="inlineStr">
         <is>
-          <t>-41.06669946235572,174.85169682660478</t>
+          <t>-41.06669907001775,174.85169747854243</t>
         </is>
       </c>
       <c r="H579" t="inlineStr">
@@ -48936,7 +48936,7 @@
       </c>
       <c r="G580" t="inlineStr">
         <is>
-          <t>-41.06679182982812,174.8515433416399</t>
+          <t>-41.06679188587628,174.85154324850566</t>
         </is>
       </c>
       <c r="H580" t="inlineStr">
@@ -48978,7 +48978,7 @@
       </c>
       <c r="G581" t="inlineStr">
         <is>
-          <t>-41.066774679086606,174.85157184070127</t>
+          <t>-41.06677439884567,174.85157230637208</t>
         </is>
       </c>
       <c r="H581" t="inlineStr">
@@ -49020,7 +49020,7 @@
       </c>
       <c r="G582" t="inlineStr">
         <is>
-          <t>-41.066762628724945,174.85159186454266</t>
+          <t>-41.06676274082134,174.8515916782744</t>
         </is>
       </c>
       <c r="H582" t="inlineStr">
@@ -49104,7 +49104,7 @@
       </c>
       <c r="G584" t="inlineStr">
         <is>
-          <t>-41.06673544533864,174.85163703457644</t>
+          <t>-41.06673527719394,174.8516373139786</t>
         </is>
       </c>
       <c r="H584" t="inlineStr">
@@ -49138,7 +49138,7 @@
       <c r="F585" t="inlineStr"/>
       <c r="G585" t="inlineStr">
         <is>
-          <t>-41.066727094150565,174.8516509115484</t>
+          <t>-41.06672715019881,174.85165081841436</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
@@ -49180,7 +49180,7 @@
       </c>
       <c r="G586" t="inlineStr">
         <is>
-          <t>-41.06678123672386,174.85156094400307</t>
+          <t>-41.066781348820214,174.85156075773475</t>
         </is>
       </c>
       <c r="H586" t="inlineStr">
@@ -49222,7 +49222,7 @@
       </c>
       <c r="G587" t="inlineStr">
         <is>
-          <t>-41.06671902320217,174.85166432284677</t>
+          <t>-41.06671896715391,174.85166441598076</t>
         </is>
       </c>
       <c r="H587" t="inlineStr">
@@ -49264,7 +49264,7 @@
       </c>
       <c r="G588" t="inlineStr">
         <is>
-          <t>-41.06677479118297,174.85157165443295</t>
+          <t>-41.066774679086606,174.85157184070127</t>
         </is>
       </c>
       <c r="H588" t="inlineStr">
@@ -49290,7 +49290,7 @@
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr">
         <is>
-          <t>-41.06669167164366,174.85170977222222</t>
+          <t>-41.06669144745049,174.85171014475793</t>
         </is>
       </c>
       <c r="H589" t="inlineStr">
@@ -49332,7 +49332,7 @@
       </c>
       <c r="G590" t="inlineStr">
         <is>
-          <t>-41.06679143749098,174.85154399357936</t>
+          <t>-41.06679098910566,174.85154473865305</t>
         </is>
       </c>
       <c r="H590" t="inlineStr">
@@ -49374,7 +49374,7 @@
       </c>
       <c r="G591" t="inlineStr">
         <is>
-          <t>-41.0667570239044,174.85160117795476</t>
+          <t>-41.066756575518745,174.85160192302766</t>
         </is>
       </c>
       <c r="H591" t="inlineStr">
@@ -49416,7 +49416,7 @@
       </c>
       <c r="G592" t="inlineStr">
         <is>
-          <t>-41.06680601001124,174.85151977867918</t>
+          <t>-41.06680617815568,174.8515194992764</t>
         </is>
       </c>
       <c r="H592" t="inlineStr">
@@ -49458,7 +49458,7 @@
       </c>
       <c r="G593" t="inlineStr">
         <is>
-          <t>-41.06675433359031,174.851605648392</t>
+          <t>-41.06675377310817,174.85160657973304</t>
         </is>
       </c>
       <c r="H593" t="inlineStr">
@@ -49522,7 +49522,7 @@
       </c>
       <c r="G595" t="inlineStr">
         <is>
-          <t>-41.06676089123065,174.8515947517006</t>
+          <t>-41.06676094727886,174.85159465856648</t>
         </is>
       </c>
       <c r="H595" t="inlineStr">
@@ -49564,7 +49564,7 @@
       </c>
       <c r="G596" t="inlineStr">
         <is>
-          <t>-41.06676257267673,174.8515919576768</t>
+          <t>-41.06676212429112,174.85159270274983</t>
         </is>
       </c>
       <c r="H596" t="inlineStr">
@@ -49606,7 +49606,7 @@
       </c>
       <c r="G597" t="inlineStr">
         <is>
-          <t>-41.0667330352644,174.85164103934054</t>
+          <t>-41.06673286711967,174.85164131874265</t>
         </is>
       </c>
       <c r="H597" t="inlineStr">
@@ -49628,7 +49628,7 @@
       <c r="F598" t="inlineStr"/>
       <c r="G598" t="inlineStr">
         <is>
-          <t>-41.06652980387028,174.8519787423399</t>
+          <t>-41.066529859918774,174.85197864920642</t>
         </is>
       </c>
       <c r="H598" t="inlineStr">
@@ -49670,7 +49670,7 @@
       </c>
       <c r="G599" t="inlineStr">
         <is>
-          <t>-41.066703049445714,174.8516908660317</t>
+          <t>-41.06670265710776,174.8516915179694</t>
         </is>
       </c>
       <c r="H599" t="inlineStr">
@@ -49712,7 +49712,7 @@
       </c>
       <c r="G600" t="inlineStr">
         <is>
-          <t>-41.066698509534895,174.85169840988192</t>
+          <t>-41.066698789776325,174.85169794421216</t>
         </is>
       </c>
       <c r="H600" t="inlineStr">
@@ -49754,7 +49754,7 @@
       </c>
       <c r="G601" t="inlineStr">
         <is>
-          <t>-41.066700190983404,174.85169561586343</t>
+          <t>-41.066700471224806,174.85169515019368</t>
         </is>
       </c>
       <c r="H601" t="inlineStr">
@@ -49796,7 +49796,7 @@
       </c>
       <c r="G602" t="inlineStr">
         <is>
-          <t>-41.06667412852429,174.85173892313364</t>
+          <t>-41.06667440876587,174.85173845746425</t>
         </is>
       </c>
       <c r="H602" t="inlineStr">
@@ -49838,7 +49838,7 @@
       </c>
       <c r="G603" t="inlineStr">
         <is>
-          <t>-41.066681022466604,174.85172746766554</t>
+          <t>-41.06668074222507,174.851727933335</t>
         </is>
       </c>
       <c r="H603" t="inlineStr">
@@ -49868,7 +49868,7 @@
       </c>
       <c r="G604" t="inlineStr">
         <is>
-          <t>-41.06662727210677,174.8518167829995</t>
+          <t>-41.066627103961636,174.85181706240073</t>
         </is>
       </c>
       <c r="H604" t="inlineStr">
@@ -49910,7 +49910,7 @@
       </c>
       <c r="G605" t="inlineStr">
         <is>
-          <t>-41.06673163405838,174.85164336769162</t>
+          <t>-41.066731690106614,174.85164327455757</t>
         </is>
       </c>
       <c r="H605" t="inlineStr">
@@ -49974,7 +49974,7 @@
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>-41.066690774870956,174.85171126236503</t>
+          <t>-41.06669055067778,174.85171163490074</t>
         </is>
       </c>
       <c r="H607" t="inlineStr">
@@ -50038,7 +50038,7 @@
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>-41.06672558084785,174.85165342616708</t>
+          <t>-41.06672524455837,174.85165398497122</t>
         </is>
       </c>
       <c r="H609" t="inlineStr">
@@ -50080,7 +50080,7 @@
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>-41.06674183483715,174.85162641729355</t>
+          <t>-41.06674194693361,174.8516262310254</t>
         </is>
       </c>
       <c r="H610" t="inlineStr">
@@ -50122,7 +50122,7 @@
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>-41.06678420727718,174.85155600789125</t>
+          <t>-41.06678431937351,174.85155582162284</t>
         </is>
       </c>
       <c r="H611" t="inlineStr">
@@ -50164,7 +50164,7 @@
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>-41.066747103370304,174.85161766269027</t>
+          <t>-41.06674721546676,174.8516174764221</t>
         </is>
       </c>
       <c r="H612" t="inlineStr">
@@ -50274,7 +50274,7 @@
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>-41.06675377310817,174.85160657973304</t>
+          <t>-41.066753717059974,174.85160667286715</t>
         </is>
       </c>
       <c r="H615" t="inlineStr">
@@ -50316,7 +50316,7 @@
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>-41.066771652484455,174.85157686994586</t>
+          <t>-41.0667713161953,174.85157742875077</t>
         </is>
       </c>
       <c r="H616" t="inlineStr">
@@ -50358,7 +50358,7 @@
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>-41.066793623369335,174.85154036134503</t>
+          <t>-41.06679339917668,174.8515407338819</t>
         </is>
       </c>
       <c r="H617" t="inlineStr">
@@ -50400,7 +50400,7 @@
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>-41.0667364542069,174.8516353581635</t>
+          <t>-41.066736286062195,174.85163563756566</t>
         </is>
       </c>
       <c r="H618" t="inlineStr">
@@ -50442,7 +50442,7 @@
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>-41.06675181142068,174.85160983942657</t>
+          <t>-41.0667515311796,174.85161030509707</t>
         </is>
       </c>
       <c r="H619" t="inlineStr">
@@ -50484,7 +50484,7 @@
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>-41.06674514168251,174.85162092238312</t>
+          <t>-41.066744805393164,174.8516214811876</t>
         </is>
       </c>
       <c r="H620" t="inlineStr">
@@ -50526,7 +50526,7 @@
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>-41.06677479118297,174.85157165443295</t>
+          <t>-41.06677495932754,174.85157137503046</t>
         </is>
       </c>
       <c r="H621" t="inlineStr">
@@ -50560,7 +50560,7 @@
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>-41.06676963474957,174.8515802227753</t>
+          <t>-41.066769971038724,174.8515796639704</t>
         </is>
       </c>
       <c r="H622" t="inlineStr">
@@ -50628,7 +50628,7 @@
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>-41.06678919556434,174.85154771894767</t>
+          <t>-41.06678902741983,174.8515479983503</t>
         </is>
       </c>
       <c r="H624" t="inlineStr">
@@ -50670,7 +50670,7 @@
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>-41.06678487985526,174.85155489028094</t>
+          <t>-41.066784655662545,174.8515552628177</t>
         </is>
       </c>
       <c r="H625" t="inlineStr">
@@ -50712,7 +50712,7 @@
       </c>
       <c r="G626" t="inlineStr">
         <is>
-          <t>-41.06678174115746,174.85156010579544</t>
+          <t>-41.066781348820214,174.85156075773475</t>
         </is>
       </c>
       <c r="H626" t="inlineStr">
@@ -50754,7 +50754,7 @@
       </c>
       <c r="G627" t="inlineStr">
         <is>
-          <t>-41.066798499559106,174.85153225866756</t>
+          <t>-41.066797995125704,174.8515330968756</t>
         </is>
       </c>
       <c r="H627" t="inlineStr">
@@ -50796,7 +50796,7 @@
       </c>
       <c r="G628" t="inlineStr">
         <is>
-          <t>-41.0667692424122,174.85158087471436</t>
+          <t>-41.06676929846041,174.8515807815802</t>
         </is>
       </c>
       <c r="H628" t="inlineStr">
@@ -50838,7 +50838,7 @@
       </c>
       <c r="G629" t="inlineStr">
         <is>
-          <t>-41.0667694105568,174.8515805953119</t>
+          <t>-41.066769466604995,174.85158050217777</t>
         </is>
       </c>
       <c r="H629" t="inlineStr">
@@ -50880,7 +50880,7 @@
       </c>
       <c r="G630" t="inlineStr">
         <is>
-          <t>-41.06673746307512,174.8516336817505</t>
+          <t>-41.06673712678572,174.85163424055483</t>
         </is>
       </c>
       <c r="H630" t="inlineStr">
@@ -50922,7 +50922,7 @@
       </c>
       <c r="G631" t="inlineStr">
         <is>
-          <t>-41.06674912110624,174.8516143098631</t>
+          <t>-41.06674917715446,174.85161421672902</t>
         </is>
       </c>
       <c r="H631" t="inlineStr">
@@ -50964,7 +50964,7 @@
       </c>
       <c r="G632" t="inlineStr">
         <is>
-          <t>-41.06675539850634,174.85160387884397</t>
+          <t>-41.0667552864099,174.85160406511218</t>
         </is>
       </c>
       <c r="H632" t="inlineStr">
@@ -50998,7 +50998,7 @@
       <c r="F633" t="inlineStr"/>
       <c r="G633" t="inlineStr">
         <is>
-          <t>-41.06671633288571,174.8516687932788</t>
+          <t>-41.06671622078918,174.85166897954682</t>
         </is>
       </c>
       <c r="H633" t="inlineStr">
@@ -51040,7 +51040,7 @@
       </c>
       <c r="G634" t="inlineStr">
         <is>
-          <t>-41.066722274001016,174.85165892107418</t>
+          <t>-41.066721993759735,174.85165938674427</t>
         </is>
       </c>
       <c r="H634" t="inlineStr">
@@ -51082,7 +51082,7 @@
       </c>
       <c r="G635" t="inlineStr">
         <is>
-          <t>-41.06671235345896,174.8516754057922</t>
+          <t>-41.066712017169365,174.85167596459613</t>
         </is>
       </c>
       <c r="H635" t="inlineStr">
@@ -51124,7 +51124,7 @@
       </c>
       <c r="G636" t="inlineStr">
         <is>
-          <t>-41.06674105016196,174.8516277211705</t>
+          <t>-41.06674127435487,174.85162734863422</t>
         </is>
       </c>
       <c r="H636" t="inlineStr">
@@ -51166,7 +51166,7 @@
       </c>
       <c r="G637" t="inlineStr">
         <is>
-          <t>-41.06671599659612,174.8516693520828</t>
+          <t>-41.0667156042583,174.85167000402075</t>
         </is>
       </c>
       <c r="H637" t="inlineStr">
@@ -51208,7 +51208,7 @@
       </c>
       <c r="G638" t="inlineStr">
         <is>
-          <t>-41.06668696358676,174.85171759547154</t>
+          <t>-41.06668662729695,174.85171815427503</t>
         </is>
       </c>
       <c r="H638" t="inlineStr">
@@ -51250,7 +51250,7 @@
       </c>
       <c r="G639" t="inlineStr">
         <is>
-          <t>-41.06674245136766,174.85162539281876</t>
+          <t>-41.066742171126535,174.85162585848911</t>
         </is>
       </c>
       <c r="H639" t="inlineStr">
@@ -51326,7 +51326,7 @@
       </c>
       <c r="G641" t="inlineStr">
         <is>
-          <t>-41.066699518404015,174.85169673347085</t>
+          <t>-41.06669923816259,174.8516971991406</t>
         </is>
       </c>
       <c r="H641" t="inlineStr">
@@ -51368,7 +51368,7 @@
       </c>
       <c r="G642" t="inlineStr">
         <is>
-          <t>-41.06673981710088,174.85162977011993</t>
+          <t>-41.06673987314911,174.85162967698588</t>
         </is>
       </c>
       <c r="H642" t="inlineStr">
@@ -51410,7 +51410,7 @@
       </c>
       <c r="G643" t="inlineStr">
         <is>
-          <t>-41.06674065782435,174.85162837310898</t>
+          <t>-41.06674009734203,174.85162930444963</t>
         </is>
       </c>
       <c r="H643" t="inlineStr">
@@ -51452,7 +51452,7 @@
       </c>
       <c r="G644" t="inlineStr">
         <is>
-          <t>-41.06676498274933,174.8515879529091</t>
+          <t>-41.06676447831554,174.8515887911163</t>
         </is>
       </c>
       <c r="H644" t="inlineStr">
@@ -51494,7 +51494,7 @@
       </c>
       <c r="G645" t="inlineStr">
         <is>
-          <t>-41.0668083640333,174.85151586704046</t>
+          <t>-41.06680847612958,174.85151568077194</t>
         </is>
       </c>
       <c r="H645" t="inlineStr">
@@ -51536,7 +51536,7 @@
       </c>
       <c r="G646" t="inlineStr">
         <is>
-          <t>-41.06679648182547,174.85153561149974</t>
+          <t>-41.066796593921794,174.8515354252313</t>
         </is>
       </c>
       <c r="H646" t="inlineStr">
@@ -51578,7 +51578,7 @@
       </c>
       <c r="G647" t="inlineStr">
         <is>
-          <t>-41.0667453658754,174.8516205498468</t>
+          <t>-41.066744805393164,174.8516214811876</t>
         </is>
       </c>
       <c r="H647" t="inlineStr">
@@ -51620,7 +51620,7 @@
       </c>
       <c r="G648" t="inlineStr">
         <is>
-          <t>-41.06678353469908,174.85155712550153</t>
+          <t>-41.066783142361864,174.85155777744083</t>
         </is>
       </c>
       <c r="H648" t="inlineStr">
@@ -51700,7 +51700,7 @@
       </c>
       <c r="G650" t="inlineStr">
         <is>
-          <t>-41.06675214770997,174.85160928062197</t>
+          <t>-41.066752203758185,174.8516091874879</t>
         </is>
       </c>
       <c r="H650" t="inlineStr">
@@ -51742,7 +51742,7 @@
       </c>
       <c r="G651" t="inlineStr">
         <is>
-          <t>-41.066792278213434,174.8515425965662</t>
+          <t>-41.06679216611711,174.8515427828346</t>
         </is>
       </c>
       <c r="H651" t="inlineStr">
@@ -51784,7 +51784,7 @@
       </c>
       <c r="G652" t="inlineStr">
         <is>
-          <t>-41.066731129624195,174.85164420589797</t>
+          <t>-41.06673096147947,174.85164448530008</t>
         </is>
       </c>
       <c r="H652" t="inlineStr">
@@ -51826,7 +51826,7 @@
       </c>
       <c r="G653" t="inlineStr">
         <is>
-          <t>-41.066745646116516,174.8516200841764</t>
+          <t>-41.06674553402008,174.85162027044458</t>
         </is>
       </c>
       <c r="H653" t="inlineStr">
@@ -51868,7 +51868,7 @@
       </c>
       <c r="G654" t="inlineStr">
         <is>
-          <t>-41.06679154958731,174.85154380731095</t>
+          <t>-41.06679177377997,174.8515434347741</t>
         </is>
       </c>
       <c r="H654" t="inlineStr">
@@ -51910,7 +51910,7 @@
       </c>
       <c r="G655" t="inlineStr">
         <is>
-          <t>-41.06677518352028,174.8515710024938</t>
+          <t>-41.06677535166483,174.8515707230913</t>
         </is>
       </c>
       <c r="H655" t="inlineStr">
@@ -51952,7 +51952,7 @@
       </c>
       <c r="G656" t="inlineStr">
         <is>
-          <t>-41.06680556162608,174.8515205237532</t>
+          <t>-41.066805673722364,174.8515203374847</t>
         </is>
       </c>
       <c r="H656" t="inlineStr">
@@ -51994,7 +51994,7 @@
       </c>
       <c r="G657" t="inlineStr">
         <is>
-          <t>-41.0667738383638,174.8515732377137</t>
+          <t>-41.066773726267435,174.85157342398205</t>
         </is>
       </c>
       <c r="H657" t="inlineStr">
@@ -52036,7 +52036,7 @@
       </c>
       <c r="G658" t="inlineStr">
         <is>
-          <t>-41.06675248399925,174.85160872181737</t>
+          <t>-41.06675242795104,174.8516088149515</t>
         </is>
       </c>
       <c r="H658" t="inlineStr">
@@ -52078,7 +52078,7 @@
       </c>
       <c r="G659" t="inlineStr">
         <is>
-          <t>-41.066799620522204,174.8515303959829</t>
+          <t>-41.06679906004065,174.85153132732523</t>
         </is>
       </c>
       <c r="H659" t="inlineStr">
@@ -52120,7 +52120,7 @@
       </c>
       <c r="G660" t="inlineStr">
         <is>
-          <t>-41.06678728992661,174.85155088551053</t>
+          <t>-41.06678678549308,174.8515517237183</t>
         </is>
       </c>
       <c r="H660" t="inlineStr">
@@ -52158,7 +52158,7 @@
       </c>
       <c r="G661" t="inlineStr">
         <is>
-          <t>-41.06670545952162,174.8516868612713</t>
+          <t>-41.066705123231976,174.85168742007508</t>
         </is>
       </c>
       <c r="H661" t="inlineStr">
@@ -52200,7 +52200,7 @@
       </c>
       <c r="G662" t="inlineStr">
         <is>
-          <t>-41.066726533668074,174.85165184288866</t>
+          <t>-41.06672664576458,174.85165165662062</t>
         </is>
       </c>
       <c r="H662" t="inlineStr">
@@ -52242,7 +52242,7 @@
       </c>
       <c r="G663" t="inlineStr">
         <is>
-          <t>-41.06674912110624,174.8516143098631</t>
+          <t>-41.06674906505803,174.8516144029972</t>
         </is>
       </c>
       <c r="H663" t="inlineStr">
@@ -52284,7 +52284,7 @@
       </c>
       <c r="G664" t="inlineStr">
         <is>
-          <t>-41.06669391357533,174.85170604686502</t>
+          <t>-41.066693745430456,174.85170632626682</t>
         </is>
       </c>
       <c r="H664" t="inlineStr">
@@ -52368,7 +52368,7 @@
       </c>
       <c r="G666" t="inlineStr">
         <is>
-          <t>-41.06669901396946,174.8516975716764</t>
+          <t>-41.06669890187288,174.85169775794427</t>
         </is>
       </c>
       <c r="H666" t="inlineStr">
@@ -52390,7 +52390,7 @@
       <c r="F667" t="inlineStr"/>
       <c r="G667" t="inlineStr">
         <is>
-          <t>-41.066495334027444,174.85203601939213</t>
+          <t>-41.06649516588181,174.85203629879223</t>
         </is>
       </c>
       <c r="H667" t="inlineStr">
@@ -52432,7 +52432,7 @@
       </c>
       <c r="G668" t="inlineStr">
         <is>
-          <t>-41.06672233004927,174.85165882794018</t>
+          <t>-41.06672221795276,174.8516590142082</t>
         </is>
       </c>
       <c r="H668" t="inlineStr">
@@ -52474,7 +52474,7 @@
       </c>
       <c r="G669" t="inlineStr">
         <is>
-          <t>-41.066704730894024,174.85168807201285</t>
+          <t>-41.06670484299059,174.85168788574492</t>
         </is>
       </c>
       <c r="H669" t="inlineStr">
@@ -52516,7 +52516,7 @@
       </c>
       <c r="G670" t="inlineStr">
         <is>
-          <t>-41.06670506718368,174.85168751320904</t>
+          <t>-41.0667047869423,174.85168797887889</t>
         </is>
       </c>
       <c r="H670" t="inlineStr">
@@ -52558,7 +52558,7 @@
       </c>
       <c r="G671" t="inlineStr">
         <is>
-          <t>-41.06666891603059,174.85174758458356</t>
+          <t>-41.06666857974064,174.85174814338674</t>
         </is>
       </c>
       <c r="H671" t="inlineStr">
@@ -52600,7 +52600,7 @@
       </c>
       <c r="G672" t="inlineStr">
         <is>
-          <t>-41.066694978492826,174.85170427732024</t>
+          <t>-41.066695258734285,174.85170381165057</t>
         </is>
       </c>
       <c r="H672" t="inlineStr">
@@ -52642,7 +52642,7 @@
       </c>
       <c r="G673" t="inlineStr">
         <is>
-          <t>-41.06674598240586,174.85161952537194</t>
+          <t>-41.06674620659876,174.8516191528356</t>
         </is>
       </c>
       <c r="H673" t="inlineStr">
@@ -52684,7 +52684,7 @@
       </c>
       <c r="G674" t="inlineStr">
         <is>
-          <t>-41.06672518851012,174.85165407810524</t>
+          <t>-41.066724740124094,174.8516548231774</t>
         </is>
       </c>
       <c r="H674" t="inlineStr">
@@ -52726,7 +52726,7 @@
       </c>
       <c r="G675" t="inlineStr">
         <is>
-          <t>-41.06673432437389,174.85163889725746</t>
+          <t>-41.06673393203623,174.8516395491958</t>
         </is>
       </c>
       <c r="H675" t="inlineStr">
@@ -52764,7 +52764,7 @@
       </c>
       <c r="G676" t="inlineStr">
         <is>
-          <t>-41.06681553819493,174.851503945854</t>
+          <t>-41.06681559424307,174.8515038527197</t>
         </is>
       </c>
       <c r="H676" t="inlineStr">
@@ -52806,7 +52806,7 @@
       </c>
       <c r="G677" t="inlineStr">
         <is>
-          <t>-41.06676285291773,174.85159149200615</t>
+          <t>-41.06676251662852,174.85159205081095</t>
         </is>
       </c>
       <c r="H677" t="inlineStr">
@@ -52848,7 +52848,7 @@
       </c>
       <c r="G678" t="inlineStr">
         <is>
-          <t>-41.066753100529624,174.85160769734227</t>
+          <t>-41.066752764240334,174.8516082561469</t>
         </is>
       </c>
       <c r="H678" t="inlineStr">
@@ -52890,7 +52890,7 @@
       </c>
       <c r="G679" t="inlineStr">
         <is>
-          <t>-41.066759265832715,174.8515974525901</t>
+          <t>-41.06675937792912,174.85159726632187</t>
         </is>
       </c>
       <c r="H679" t="inlineStr">
@@ -52932,7 +52932,7 @@
       </c>
       <c r="G680" t="inlineStr">
         <is>
-          <t>-41.066778938748534,174.8515647625044</t>
+          <t>-41.066779050844886,174.85156457623606</t>
         </is>
       </c>
       <c r="H680" t="inlineStr">
@@ -52974,7 +52974,7 @@
       </c>
       <c r="G681" t="inlineStr">
         <is>
-          <t>-41.06678325445821,174.85155759117242</t>
+          <t>-41.06678286212099,174.85155824311175</t>
         </is>
       </c>
       <c r="H681" t="inlineStr">
@@ -53016,7 +53016,7 @@
       </c>
       <c r="G682" t="inlineStr">
         <is>
-          <t>-41.06672776672953,174.85164979394003</t>
+          <t>-41.06672782277778,174.851649700806</t>
         </is>
       </c>
       <c r="H682" t="inlineStr">
